--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(C2:D2)</f>
@@ -1155,22 +1155,22 @@
         <v>1.2131715771230503E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2" s="11">
         <f>G2/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I2" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" s="11">
         <f>I2/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K2" s="12">
         <f>F2/(H2+J2)</f>
-        <v>0.36433019475308254</v>
+        <v>1.1656140396428207</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,96 +1215,96 @@
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(C4:D4)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11">
         <f>E4/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="11">
         <f>G4/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I4" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="11">
         <f>I4/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K4" s="12">
         <f>F4/(H4+J4)</f>
-        <v>0.49212889558591816</v>
+        <v>1.1103396411522515</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="8">
         <v>6</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(C5:D5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="11">
         <f>E5/SUM(E:E)</f>
-        <v>1.0398613518197574E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" s="11">
         <f>G5/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I5" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J5" s="11">
         <f>I5/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K5" s="12">
         <f>F5/(H5+J5)</f>
-        <v>0.29389544486246244</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(C6:D6)</f>
@@ -1315,11 +1315,11 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11">
         <f>G6/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I6" s="6">
         <v>3</v>
@@ -1330,36 +1330,36 @@
       </c>
       <c r="K6" s="12">
         <f>F6/(H6+J6)</f>
-        <v>0.77338721771382013</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(C7:D7)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="11">
         <f>E7/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="11">
         <f>G7/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
@@ -1370,29 +1370,29 @@
       </c>
       <c r="K7" s="12">
         <f>F7/(H7+J7)</f>
-        <v>0.89236986659286932</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
       </c>
       <c r="D8" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(C8:D8)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="11">
         <f>E8/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G8" s="6">
         <v>4</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="K8" s="12">
         <f>F8/(H8+J8)</f>
-        <v>0.83287854215334467</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,15 +1455,15 @@
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
         <v>8</v>
       </c>
       <c r="E10" s="6">
@@ -1475,131 +1475,131 @@
         <v>1.2998266897746967E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="11">
         <f>G10/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I10" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="11">
         <f>I10/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K10" s="12">
         <f>F10/(H10+J10)</f>
-        <v>0.62456604814814154</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(C11:D11)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="11">
         <f>E11/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" s="11">
         <f>G11/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I11" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11" s="11">
         <f>I11/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K11" s="12">
         <f>F11/(H11+J11)</f>
-        <v>0.45107547921810215</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(C12:D12)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="11">
         <f>E12/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="11">
         <f>G12/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="11">
         <f>I12/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K12" s="12">
         <f>F12/(H12+J12)</f>
-        <v>0.58304965388461671</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
       </c>
       <c r="E13" s="6">
         <f>SUM(C13:D13)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" s="11">
         <f>E13/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="11">
         <f>G13/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
@@ -1610,20 +1610,20 @@
       </c>
       <c r="K13" s="12">
         <f>F13/(H13+J13)</f>
-        <v>0.9021509584362043</v>
+        <v>0.83297142478322694</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
         <v>8</v>
       </c>
       <c r="E14" s="6">
@@ -1635,11 +1635,11 @@
         <v>1.3864818024263431E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="11">
         <f>G14/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I14" s="6">
         <v>3</v>
@@ -1650,36 +1650,36 @@
       </c>
       <c r="K14" s="12">
         <f>F14/(H14+J14)</f>
-        <v>1.1103396411522515</v>
+        <v>0.83297142478322694</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(C15:D15)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="11">
         <f>E15/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="11">
         <f>G15/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I15" s="6">
         <v>3</v>
@@ -1690,36 +1690,36 @@
       </c>
       <c r="K15" s="12">
         <f>F15/(H15+J15)</f>
-        <v>0.76335850329217281</v>
+        <v>0.83287854215334467</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(C16:D16)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" s="11">
         <f>E16/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="11">
         <f>G16/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I16" s="6">
         <v>3</v>
@@ -1730,29 +1730,29 @@
       </c>
       <c r="K16" s="12">
         <f>F16/(H16+J16)</f>
-        <v>0.69396227572015712</v>
+        <v>0.83287854215334467</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(C17:D17)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" s="11">
         <f>E17/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
@@ -1762,68 +1762,68 @@
         <v>6.2370062370062374E-3</v>
       </c>
       <c r="I17" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="11">
         <f>I17/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K17" s="12">
         <f>F17/(H17+J17)</f>
-        <v>0.62456604814814143</v>
+        <v>0.83263095637981521</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <f>SUM(C18:D18)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F18" s="11">
         <f>E18/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
         <f>G18/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I18" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="11">
         <f>I18/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K18" s="12">
         <f>F18/(H18+J18)</f>
-        <v>0.32036721231404536</v>
+        <v>0.83263095637981521</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="6">
@@ -1835,84 +1835,84 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G19" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="11">
         <f>G19/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I19" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19" s="11">
         <f>I19/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K19" s="12">
         <f>F19/(H19+J19)</f>
-        <v>0.32021338682797906</v>
+        <v>0.83258145688772911</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(C20:D20)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20" s="11">
         <f>E20/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="11">
         <f>G20/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I20" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="11">
         <f>I20/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K20" s="12">
         <f>F20/(H20+J20)</f>
-        <v>0.41620412750181257</v>
+        <v>0.78070756018517684</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
       </c>
       <c r="E21" s="6">
         <f>SUM(C21:D21)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" s="11">
         <f>E21/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G21" s="6">
         <v>4</v>
@@ -1922,37 +1922,37 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I21" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" s="11">
         <f>I21/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K21" s="12">
         <f>F21/(H21+J21)</f>
-        <v>0.37466165559947812</v>
+        <v>0.77338721771382013</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(C22:D22)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" s="11">
         <f>E22/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
@@ -1962,397 +1962,397 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I22" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" s="11">
         <f>I22/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K22" s="12">
         <f>F22/(H22+J22)</f>
-        <v>0.41629072844386455</v>
+        <v>0.77338721771382013</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(C23:D23)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11">
         <f>E23/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="11">
         <f>G23/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I23" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="11">
         <f>I23/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K23" s="12">
         <f>F23/(H23+J23)</f>
-        <v>0.41629072844386455</v>
+        <v>0.77315731663839982</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>6</v>
       </c>
       <c r="E24" s="6">
         <f>SUM(C24:D24)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="11">
         <f>E24/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G24" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="11">
         <f>G24/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J24" s="11">
         <f>I24/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K24" s="12">
         <f>F24/(H24+J24)</f>
-        <v>0.41629072844386455</v>
+        <v>0.76335850329217281</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(C25:D25)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11">
         <f>E25/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="11">
         <f>G25/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I25" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J25" s="11">
         <f>I25/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K25" s="12">
         <f>F25/(H25+J25)</f>
-        <v>0.41629072844386455</v>
+        <v>0.76335850329217281</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(C26:D26)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F26" s="11">
         <f>E26/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G26" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H26" s="11">
         <f>G26/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I26" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J26" s="11">
         <f>I26/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K26" s="12">
         <f>F26/(H26+J26)</f>
-        <v>0.26020200818067535</v>
+        <v>0.72884999668532358</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="6">
         <f>SUM(C27:D27)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="11">
         <f>E27/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G27" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H27" s="11">
         <f>G27/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I27" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="11">
         <f>I27/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K27" s="12">
         <f>F27/(H27+J27)</f>
-        <v>0.36093550002381031</v>
+        <v>0.69404252112669285</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="5">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <f>SUM(C28:D28)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F28" s="11">
         <f>E28/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G28" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="11">
         <f>G28/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I28" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" s="11">
         <f>I28/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K28" s="12">
         <f>F28/(H28+J28)</f>
-        <v>0.64762324560964135</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
       <c r="E29" s="6">
         <f>SUM(C29:D29)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="11">
         <f>E29/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G29" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H29" s="11">
         <f>G29/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I29" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29" s="11">
         <f>I29/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K29" s="12">
         <f>F29/(H29+J29)</f>
-        <v>0.35234751280680982</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C30" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E30" s="6">
         <f>SUM(C30:D30)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" s="11">
         <f>E30/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G30" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="11">
         <f>G30/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I30" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J30" s="11">
         <f>I30/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K30" s="12">
         <f>F30/(H30+J30)</f>
-        <v>0.48577359300410999</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(C31:D31)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" s="11">
         <f>E31/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G31" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="11">
         <f>G31/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I31" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J31" s="11">
         <f>I31/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K31" s="12">
         <f>F31/(H31+J31)</f>
-        <v>0.83297142478322694</v>
+        <v>0.67626136587924524</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" s="6">
         <f>SUM(C32:D32)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F32" s="11">
         <f>E32/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G32" s="6">
         <v>4</v>
@@ -2362,188 +2362,188 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I32" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J32" s="11">
         <f>I32/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K32" s="12">
         <f>F32/(H32+J32)</f>
-        <v>0.77338721771382013</v>
+        <v>0.66606516551018324</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6">
         <f>SUM(C33:D33)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="11">
         <f>E33/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G33" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33" s="11">
         <f>G33/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I33" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J33" s="11">
         <f>I33/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K33" s="12">
         <f>F33/(H33+J33)</f>
-        <v>0.23421226805555306</v>
+        <v>0.65440456883477083</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" s="6">
         <f>SUM(C34:D34)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34" s="11">
         <f>E34/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G34" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="11">
         <f>G34/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I34" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" s="11">
         <f>I34/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K34" s="12">
         <f>F34/(H34+J34)</f>
-        <v>0.46280204508471273</v>
+        <v>0.64762324560964135</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C35" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(C35:D35)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F35" s="11">
         <f>E35/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G35" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H35" s="11">
         <f>G35/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I35" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35" s="11">
         <f>I35/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K35" s="12">
         <f>F35/(H35+J35)</f>
-        <v>0.34704132539483318</v>
+        <v>0.6473239050755023</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="5">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="8">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8</v>
       </c>
       <c r="E36" s="6">
         <f>SUM(C36:D36)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F36" s="11">
         <f>E36/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H36" s="11">
         <f>G36/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I36" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J36" s="11">
         <f>I36/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K36" s="12">
         <f>F36/(H36+J36)</f>
-        <v>0.31842571170073181</v>
+        <v>0.62456604814814154</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8">
         <v>4</v>
       </c>
       <c r="E37" s="6">
@@ -2555,51 +2555,51 @@
         <v>7.7989601386481804E-3</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="11">
         <f>G37/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="11">
         <f>I37/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K37" s="12">
         <f>F37/(H37+J37)</f>
-        <v>0.46842453611110613</v>
+        <v>0.62456604814814143</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C38" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" s="6">
         <f>SUM(C38:D38)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38" s="11">
         <f>E38/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G38" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="11">
         <f>G38/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I38" s="6">
         <v>3</v>
@@ -2610,356 +2610,356 @@
       </c>
       <c r="K38" s="12">
         <f>F38/(H38+J38)</f>
-        <v>0.72884999668532358</v>
+        <v>0.59491324439524618</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6">
         <f>SUM(C39:D39)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" s="11">
         <f>E39/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G39" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H39" s="11">
         <f>G39/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I39" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J39" s="11">
         <f>I39/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K39" s="12">
         <f>F39/(H39+J39)</f>
-        <v>0.36088541878334635</v>
+        <v>0.59473639741415374</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="5">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C40" s="8">
+        <v>7</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7</v>
       </c>
       <c r="E40" s="6">
         <f>SUM(C40:D40)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="11">
         <f>E40/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40" s="11">
         <f>G40/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" s="11">
         <f>I40/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K40" s="12">
         <f>F40/(H40+J40)</f>
-        <v>0.83297142478322694</v>
+        <v>0.58304965388461671</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C41" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
         <f>SUM(C41:D41)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" s="11">
         <f>E41/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G41" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="11">
         <f>G41/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" s="11">
         <f>I41/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K41" s="12">
         <f>F41/(H41+J41)</f>
-        <v>0.57251887746912966</v>
+        <v>0.58292831160493208</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(C42:D42)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="11">
         <f>E42/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G42" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42" s="11">
         <f>G42/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I42" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J42" s="11">
         <f>I42/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K42" s="12">
         <f>F42/(H42+J42)</f>
-        <v>0.27760416829488177</v>
+        <v>0.57251887746912966</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6">
         <f>SUM(C43:D43)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F43" s="11">
         <f>E43/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G43" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43" s="11">
         <f>G43/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="11">
         <f>I43/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K43" s="12">
         <f>F43/(H43+J43)</f>
-        <v>0.41642551267601574</v>
+        <v>0.55526612063173308</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C44" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D44" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E44" s="6">
         <f>SUM(C44:D44)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F44" s="11">
         <f>E44/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G44" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="11">
         <f>G44/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J44" s="11">
         <f>I44/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K44" s="12">
         <f>F44/(H44+J44)</f>
-        <v>0.34070462002102025</v>
+        <v>0.55507355391745117</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C45" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" s="6">
         <f>SUM(C45:D45)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F45" s="11">
         <f>E45/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G45" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H45" s="11">
         <f>G45/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J45" s="11">
         <f>I45/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K45" s="12">
         <f>F45/(H45+J45)</f>
-        <v>0.29741240388006734</v>
+        <v>0.54129057506172262</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C46" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" s="6">
         <f>SUM(C46:D46)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11">
         <f>E46/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G46" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="11">
         <f>G46/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I46" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46" s="11">
         <f>I46/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K46" s="12">
         <f>F46/(H46+J46)</f>
-        <v>0.52047170679011789</v>
+        <v>0.54129057506172262</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6">
         <f>SUM(C47:D47)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F47" s="11">
         <f>E47/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47" s="11">
         <f>G47/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I47" s="6">
         <v>5</v>
@@ -2970,55 +2970,55 @@
       </c>
       <c r="K47" s="12">
         <f>F47/(H47+J47)</f>
-        <v>0.52033634353737668</v>
+        <v>0.52998496447714261</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C48" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E48" s="6">
         <f>SUM(C48:D48)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" s="11">
         <f>E48/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H48" s="11">
         <f>G48/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48" s="11">
         <f>I48/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K48" s="12">
         <f>F48/(H48+J48)</f>
-        <v>0.83258145688772911</v>
+        <v>0.52056198809224974</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <v>5</v>
@@ -3035,331 +3035,331 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="11">
         <f>G49/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" s="11">
         <f>I49/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49/(H49+J49)</f>
-        <v>0.69396227572015712</v>
+        <v>0.52047170679011789</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" s="6">
         <f>SUM(C50:D50)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" s="11">
         <f>E50/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G50" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H50" s="11">
         <f>G50/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I50" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J50" s="11">
         <f>I50/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K50" s="12">
         <f>F50/(H50+J50)</f>
-        <v>0.38663612504408756</v>
+        <v>0.52033634353737668</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6">
         <f>SUM(C51:D51)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="11">
         <f>E51/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G51" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H51" s="11">
         <f>G51/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I51" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J51" s="11">
         <f>I51/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K51" s="12">
         <f>F51/(H51+J51)</f>
-        <v>0.36433019475308254</v>
+        <v>0.51242343291851145</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="5">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C52" s="8">
+        <v>6</v>
+      </c>
+      <c r="D52" s="8">
+        <v>7</v>
       </c>
       <c r="E52" s="6">
         <f>SUM(C52:D52)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" s="11">
         <f>E52/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G52" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H52" s="11">
         <f>G52/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I52" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" s="11">
         <f>I52/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K52" s="12">
         <f>F52/(H52+J52)</f>
-        <v>0.65440456883477083</v>
+        <v>0.49212889558591816</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C53" s="5">
         <v>6</v>
       </c>
       <c r="D53" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="6">
         <f>SUM(C53:D53)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="11">
         <f>E53/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" s="11">
         <f>G53/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I53" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J53" s="11">
         <f>I53/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K53" s="12">
         <f>F53/(H53+J53)</f>
-        <v>0.83263095637981521</v>
+        <v>0.49212889558591816</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C54" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" s="5">
         <v>8</v>
       </c>
       <c r="E54" s="6">
         <f>SUM(C54:D54)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" s="11">
         <f>E54/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G54" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="11">
         <f>G54/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I54" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J54" s="11">
         <f>I54/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K54" s="12">
         <f>F54/(H54+J54)</f>
-        <v>0.55507355391745117</v>
+        <v>0.48577359300410999</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C55" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="6">
         <f>SUM(C55:D55)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55" s="11">
         <f>E55/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G55" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H55" s="11">
         <f>G55/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I55" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J55" s="11">
         <f>I55/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K55" s="12">
         <f>F55/(H55+J55)</f>
-        <v>0.52998496447714261</v>
+        <v>0.47585984620810773</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C56" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(C56:D56)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F56" s="11">
         <f>E56/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G56" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H56" s="11">
         <f>G56/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I56" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J56" s="11">
         <f>I56/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K56" s="12">
         <f>F56/(H56+J56)</f>
-        <v>0.41634848242949773</v>
+        <v>0.46842453611110613</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C57" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E57" s="6">
         <f>SUM(C57:D57)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F57" s="11">
         <f>E57/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H57" s="11">
         <f>G57/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I57" s="6">
         <v>3</v>
@@ -3370,20 +3370,20 @@
       </c>
       <c r="K57" s="12">
         <f>F57/(H57+J57)</f>
-        <v>0.89236986659286932</v>
+        <v>0.46280204508471273</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="5">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5">
+        <v>20</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8">
         <v>7</v>
       </c>
       <c r="E58" s="6">
@@ -3395,190 +3395,190 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G58" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H58" s="11">
         <f>G58/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I58" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J58" s="11">
         <f>I58/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K58" s="12">
         <f>F58/(H58+J58)</f>
-        <v>0.9021509584362043</v>
+        <v>0.45107547921810215</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C59" s="5">
         <v>7</v>
       </c>
       <c r="D59" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6">
         <f>SUM(C59:D59)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="11">
         <f>E59/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G59" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H59" s="11">
         <f>G59/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I59" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J59" s="11">
         <f>I59/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K59" s="12">
         <f>F59/(H59+J59)</f>
-        <v>1.1656140396428207</v>
+        <v>0.4509972625579291</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" s="6">
         <f>SUM(C60:D60)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11">
         <f>E60/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G60" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" s="11">
         <f>G60/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I60" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J60" s="11">
         <f>I60/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K60" s="12">
         <f>F60/(H60+J60)</f>
-        <v>0.9021509584362043</v>
+        <v>0.44410504792479755</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C61" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D61" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E61" s="6">
         <f>SUM(C61:D61)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F61" s="11">
         <f>E61/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G61" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H61" s="11">
         <f>G61/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J61" s="11">
         <f>I61/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K61" s="12">
         <f>F61/(H61+J61)</f>
-        <v>0.47585984620810773</v>
+        <v>0.41642551267601574</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C62" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E62" s="6">
         <f>SUM(C62:D62)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F62" s="11">
         <f>E62/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G62" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="11">
         <f>G62/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I62" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J62" s="11">
         <f>I62/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K62" s="12">
         <f>F62/(H62+J62)</f>
-        <v>0.32720228441738541</v>
+        <v>0.41634848242949773</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C63" s="5">
         <v>5</v>
@@ -3602,63 +3602,63 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I63" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J63" s="11">
         <f>I63/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K63" s="12">
         <f>F63/(H63+J63)</f>
-        <v>0.59491324439524618</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C64" s="5">
         <v>5</v>
       </c>
       <c r="D64" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" s="6">
         <f>SUM(C64:D64)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" s="11">
         <f>E64/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G64" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H64" s="11">
         <f>G64/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I64" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J64" s="11">
         <f>I64/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K64" s="12">
         <f>F64/(H64+J64)</f>
-        <v>0.24980908945769864</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C65" s="5">
         <v>5</v>
@@ -3675,236 +3675,236 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G65" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="11">
         <f>G65/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I65" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J65" s="11">
         <f>I65/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K65" s="12">
         <f>F65/(H65+J65)</f>
-        <v>0.59473639741415374</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C66" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="6">
         <f>SUM(C66:D66)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F66" s="11">
         <f>E66/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G66" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="11">
         <f>G66/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I66" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J66" s="11">
         <f>I66/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K66" s="12">
         <f>F66/(H66+J66)</f>
-        <v>0.4509972625579291</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="5">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
+      <c r="D67" s="8">
+        <v>5</v>
       </c>
       <c r="E67" s="6">
         <f>SUM(C67:D67)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F67" s="11">
         <f>E67/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G67" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="11">
         <f>G67/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I67" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J67" s="11">
         <f>I67/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K67" s="12">
         <f>F67/(H67+J67)</f>
-        <v>0.83287854215334467</v>
+        <v>0.41620412750181257</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5">
         <v>7</v>
       </c>
       <c r="D68" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="6">
         <f>SUM(C68:D68)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="11">
         <f>E68/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G68" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H68" s="11">
         <f>G68/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I68" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J68" s="11">
         <f>I68/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K68" s="12">
         <f>F68/(H68+J68)</f>
-        <v>0.89236986659286932</v>
+        <v>0.3886458356128345</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C69" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" s="6">
         <f>SUM(C69:D69)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F69" s="11">
         <f>E69/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G69" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H69" s="11">
         <f>G69/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I69" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J69" s="11">
         <f>I69/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K69" s="12">
         <f>F69/(H69+J69)</f>
-        <v>0.89236986659286932</v>
+        <v>0.38663612504408756</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E70" s="6">
         <f>SUM(C70:D70)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F70" s="11">
         <f>E70/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G70" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H70" s="11">
         <f>G70/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I70" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J70" s="11">
         <f>I70/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K70" s="12">
         <f>F70/(H70+J70)</f>
-        <v>0.30071698614540143</v>
+        <v>0.37466165559947812</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="5">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="8">
+        <v>6</v>
+      </c>
+      <c r="D71" s="8">
+        <v>8</v>
       </c>
       <c r="E71" s="6">
         <f>SUM(C71:D71)</f>
@@ -3915,91 +3915,91 @@
         <v>1.2131715771230503E-2</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H71" s="11">
         <f>G71/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I71" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J71" s="11">
         <f>I71/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K71" s="12">
         <f>F71/(H71+J71)</f>
-        <v>0.83263095637981521</v>
+        <v>0.36433019475308254</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C72" s="5">
         <v>7</v>
       </c>
       <c r="D72" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" s="6">
         <f>SUM(C72:D72)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F72" s="11">
         <f>E72/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G72" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H72" s="11">
         <f>G72/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I72" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J72" s="11">
         <f>I72/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K72" s="12">
         <f>F72/(H72+J72)</f>
-        <v>0.54129057506172262</v>
+        <v>0.36433019475308254</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C73" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" s="6">
         <f>SUM(C73:D73)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F73" s="11">
         <f>E73/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G73" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H73" s="11">
         <f>G73/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I73" s="6">
         <v>6</v>
@@ -4010,36 +4010,36 @@
       </c>
       <c r="K73" s="12">
         <f>F73/(H73+J73)</f>
-        <v>0.66606516551018324</v>
+        <v>0.36093550002381031</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C74" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D74" s="5">
         <v>6</v>
       </c>
       <c r="E74" s="6">
         <f>SUM(C74:D74)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11">
         <f>E74/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G74" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H74" s="11">
         <f>G74/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I74" s="6">
         <v>7</v>
@@ -4050,29 +4050,29 @@
       </c>
       <c r="K74" s="12">
         <f>F74/(H74+J74)</f>
-        <v>0.35229111013147657</v>
+        <v>0.36088541878334635</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C75" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" s="5">
         <v>5</v>
       </c>
       <c r="E75" s="6">
         <f>SUM(C75:D75)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" s="11">
         <f>E75/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G75" s="6">
         <v>7</v>
@@ -4082,63 +4082,63 @@
         <v>1.4553014553014554E-2</v>
       </c>
       <c r="I75" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J75" s="11">
         <f>I75/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K75" s="12">
         <f>F75/(H75+J75)</f>
-        <v>0.29741240388006734</v>
+        <v>0.35234751280680982</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" s="5">
         <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" s="6">
         <f>SUM(C76:D76)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F76" s="11">
         <f>E76/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G76" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H76" s="11">
         <f>G76/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I76" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J76" s="11">
         <f>I76/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K76" s="12">
         <f>F76/(H76+J76)</f>
-        <v>0.22044856963896817</v>
+        <v>0.35229111013147657</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C77" s="5">
         <v>5</v>
@@ -4162,124 +4162,124 @@
         <v>1.4553014553014554E-2</v>
       </c>
       <c r="I77" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J77" s="11">
         <f>I77/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K77" s="12">
         <f>F77/(H77+J77)</f>
-        <v>0.27756565495299851</v>
+        <v>0.34704132539483318</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C78" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E78" s="6">
         <f>SUM(C78:D78)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F78" s="11">
         <f>E78/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G78" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H78" s="11">
         <f>G78/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I78" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J78" s="11">
         <f>I78/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K78" s="12">
         <f>F78/(H78+J78)</f>
-        <v>0.3886458356128345</v>
+        <v>0.34070462002102025</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C79" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" s="6">
         <f>SUM(C79:D79)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F79" s="11">
         <f>E79/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G79" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H79" s="11">
         <f>G79/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I79" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J79" s="11">
         <f>I79/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K79" s="12">
         <f>F79/(H79+J79)</f>
-        <v>0.52056198809224974</v>
+        <v>0.32720228441738541</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="5">
-        <v>8</v>
-      </c>
-      <c r="D80" s="5">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C80" s="8">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8">
+        <v>5</v>
       </c>
       <c r="E80" s="6">
         <f>SUM(C80:D80)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F80" s="11">
         <f>E80/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G80" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H80" s="11">
         <f>G80/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I80" s="6">
         <v>5</v>
@@ -4290,55 +4290,55 @@
       </c>
       <c r="K80" s="12">
         <f>F80/(H80+J80)</f>
-        <v>0.55526612063173308</v>
+        <v>0.32036721231404536</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" s="5">
-        <v>7</v>
-      </c>
-      <c r="D81" s="5">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C81" s="8">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <v>5</v>
       </c>
       <c r="E81" s="6">
         <f>SUM(C81:D81)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F81" s="11">
         <f>E81/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G81" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H81" s="11">
         <f>G81/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I81" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J81" s="11">
         <f>I81/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K81" s="12">
         <f>F81/(H81+J81)</f>
-        <v>0.78070756018517684</v>
+        <v>0.32021338682797906</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C82" s="5">
         <v>6</v>
@@ -4355,131 +4355,131 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G82" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H82" s="11">
         <f>G82/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I82" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J82" s="11">
         <f>I82/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K82" s="12">
         <f>F82/(H82+J82)</f>
-        <v>0.67626136587924524</v>
+        <v>0.31842571170073181</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C83" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="5">
         <v>7</v>
       </c>
       <c r="E83" s="6">
         <f>SUM(C83:D83)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="11">
         <f>E83/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G83" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H83" s="11">
         <f>G83/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I83" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J83" s="11">
         <f>I83/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K83" s="12">
         <f>F83/(H83+J83)</f>
-        <v>0.58292831160493208</v>
+        <v>0.30071698614540143</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C84" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84" s="6">
         <f>SUM(C84:D84)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F84" s="11">
         <f>E84/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G84" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H84" s="11">
         <f>G84/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I84" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J84" s="11">
         <f>I84/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K84" s="12">
         <f>F84/(H84+J84)</f>
-        <v>0.54129057506172262</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C85" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D85" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85" s="6">
         <f>SUM(C85:D85)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F85" s="11">
         <f>E85/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G85" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H85" s="11">
         <f>G85/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I85" s="6">
         <v>7</v>
@@ -4490,87 +4490,87 @@
       </c>
       <c r="K85" s="12">
         <f>F85/(H85+J85)</f>
-        <v>0.51242343291851145</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C86" s="5">
         <v>5</v>
       </c>
       <c r="D86" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="6">
         <f>SUM(C86:D86)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="11">
         <f>E86/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G86" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H86" s="11">
         <f>G86/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I86" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J86" s="11">
         <f>I86/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K86" s="12">
         <f>F86/(H86+J86)</f>
-        <v>0.76335850329217281</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="5">
-        <v>5</v>
-      </c>
-      <c r="D87" s="5">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C87" s="8">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8">
+        <v>6</v>
       </c>
       <c r="E87" s="6">
         <f>SUM(C87:D87)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F87" s="11">
         <f>E87/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.0398613518197574E-2</v>
       </c>
       <c r="G87" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H87" s="11">
         <f>G87/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I87" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J87" s="11">
         <f>I87/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K87" s="12">
         <f>F87/(H87+J87)</f>
-        <v>0.69396227572015712</v>
+        <v>0.29389544486246244</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4615,10 +4615,10 @@
     </row>
     <row r="89" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C89" s="5">
         <v>5</v>
@@ -4635,11 +4635,11 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G89" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" s="11">
         <f>G89/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I89" s="6">
         <v>7</v>
@@ -4650,196 +4650,196 @@
       </c>
       <c r="K89" s="12">
         <f>F89/(H89+J89)</f>
-        <v>0.29741240388006734</v>
+        <v>0.27760416829488177</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C90" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E90" s="6">
         <f>SUM(C90:D90)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F90" s="11">
         <f>E90/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G90" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H90" s="11">
         <f>G90/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I90" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J90" s="11">
         <f>I90/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K90" s="12">
         <f>F90/(H90+J90)</f>
-        <v>0.69404252112669285</v>
+        <v>0.27756565495299851</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C91" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E91" s="6">
         <f>SUM(C91:D91)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F91" s="11">
         <f>E91/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G91" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H91" s="11">
         <f>G91/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I91" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J91" s="11">
         <f>I91/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K91" s="12">
         <f>F91/(H91+J91)</f>
-        <v>0.49212889558591816</v>
+        <v>0.26020200818067535</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C92" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E92" s="6">
         <f>SUM(C92:D92)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F92" s="11">
         <f>E92/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G92" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H92" s="11">
         <f>G92/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I92" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J92" s="11">
         <f>I92/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K92" s="12">
         <f>F92/(H92+J92)</f>
-        <v>0.6473239050755023</v>
+        <v>0.24980908945769864</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C93" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93" s="6">
         <f>SUM(C93:D93)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F93" s="11">
         <f>E93/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G93" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H93" s="11">
         <f>G93/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I93" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J93" s="11">
         <f>I93/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K93" s="12">
         <f>F93/(H93+J93)</f>
-        <v>0.77315731663839982</v>
+        <v>0.23421226805555306</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C94" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E94" s="6">
         <f>SUM(C94:D94)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F94" s="11">
         <f>E94/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G94" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H94" s="11">
         <f>G94/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I94" s="6">
         <v>8</v>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="K94" s="12">
         <f>F94/(H94+J94)</f>
-        <v>0.44410504792479755</v>
+        <v>0.22044856963896817</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:K94">
-    <sortCondition ref="A1"/>
+    <sortCondition descending="1" ref="K1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4917,71 +4917,71 @@
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(C2:D2)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11">
         <f>E2/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" s="11">
         <f>G2/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I2" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" s="11">
         <f>I2/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K2" s="12">
         <f>F2/(H2+J2)</f>
-        <v>0.35513038727293145</v>
+        <v>1.1655561428444927</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5">
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(C3:D3)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="11">
         <f>E3/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="11">
         <f>G3/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I3" s="6">
         <v>3</v>
@@ -4992,109 +4992,109 @@
       </c>
       <c r="K3" s="12">
         <f>F3/(H3+J3)</f>
-        <v>1.0198616249889312</v>
+        <v>1.135564499974276</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(C4:D4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11">
         <f>E4/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="11">
         <f>G4/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I4" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="11">
         <f>I4/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K4" s="12">
         <f>F4/(H4+J4)</f>
-        <v>0.47350718303057526</v>
+        <v>1.0198616249889312</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(C5:D5)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11">
         <f>E5/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="11">
         <f>G5/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I5" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5" s="11">
         <f>I5/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K5" s="12">
         <f>F5/(H5+J5)</f>
-        <v>0.43708355356668488</v>
+        <v>0.93711026645737328</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(C6:D6)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11">
         <f>E6/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -5104,37 +5104,37 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="11">
         <f>I6/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K6" s="12">
         <f>F6/(H6+J6)</f>
-        <v>0.60098988615419169</v>
+        <v>0.8746362486935485</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(C7:D7)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="11">
         <f>E7/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
@@ -5152,149 +5152,149 @@
       </c>
       <c r="K7" s="12">
         <f>F7/(H7+J7)</f>
-        <v>0.62474017763824896</v>
+        <v>0.81216223092972362</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(C8:D8)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11">
         <f>E8/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" s="11">
         <f>G8/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I8" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="11">
         <f>I8/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K8" s="12">
         <f>F8/(H8+J8)</f>
-        <v>0.40065992410279444</v>
+        <v>0.81216223092972362</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <f>SUM(C9:D9)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11">
         <f>E9/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H9" s="11">
         <f>G9/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="11">
         <f>I9/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K9" s="12">
         <f>F9/(H9+J9)</f>
-        <v>0.33650969290786392</v>
+        <v>0.81129143511385904</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(C10:D10)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11">
         <f>E10/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="11">
         <f>G10/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I10" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" s="11">
         <f>I10/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K10" s="12">
         <f>F10/(H10+J10)</f>
-        <v>0.65513336536977462</v>
+        <v>0.78616003844372961</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(C11:D11)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="11">
         <f>E11/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G11" s="6">
         <v>4</v>
@@ -5304,237 +5304,237 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I11" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="11">
         <f>I11/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K11" s="12">
         <f>F11/(H11+J11)</f>
-        <v>0.65513336536977462</v>
+        <v>0.76489621874169855</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(C12:D12)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11">
         <f>E12/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="11">
         <f>G12/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I12" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="11">
         <f>I12/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K12" s="12">
         <f>F12/(H12+J12)</f>
-        <v>0.567782249987138</v>
+        <v>0.76417890437588876</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6">
         <f>SUM(C13:D13)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11">
         <f>E13/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="11">
         <f>G13/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="11">
         <f>I13/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K13" s="12">
         <f>F13/(H13+J13)</f>
-        <v>0.61145780767845626</v>
+        <v>0.72877662625163009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <f>SUM(C14:D14)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11">
         <f>E14/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="11">
         <f>G14/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I14" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="11">
         <f>I14/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K14" s="12">
         <f>F14/(H14+J14)</f>
-        <v>0.567782249987138</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C15" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(C15:D15)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11">
         <f>E15/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" s="11">
         <f>G15/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I15" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J15" s="11">
         <f>I15/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K15" s="12">
         <f>F15/(H15+J15)</f>
-        <v>0.43687851046102416</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(C16:D16)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="11">
         <f>E16/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" s="11">
         <f>G16/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I16" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="11">
         <f>I16/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K16" s="12">
         <f>F16/(H16+J16)</f>
-        <v>0.32076881699211701</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(C17:D17)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11">
         <f>E17/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G17" s="6">
         <v>4</v>
@@ -5544,44 +5544,44 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="11">
         <f>I17/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K17" s="12">
         <f>F17/(H17+J17)</f>
-        <v>0.48544587058629574</v>
+        <v>0.71026077454586289</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6">
         <f>SUM(C18:D18)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11">
         <f>E18/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H18" s="11">
         <f>G18/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -5592,76 +5592,76 @@
       </c>
       <c r="K18" s="12">
         <f>F18/(H18+J18)</f>
-        <v>0.30268372820666706</v>
+        <v>0.70892986741054909</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C19" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
         <f>SUM(C19:D19)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19" s="11">
         <f>E19/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="11">
         <f>G19/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="11">
         <f>I19/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K19" s="12">
         <f>F19/(H19+J19)</f>
-        <v>0.40065992410279444</v>
+        <v>0.69933368570669574</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(C20:D20)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="11">
         <f>E20/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="11">
         <f>G20/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
@@ -5672,116 +5672,116 @@
       </c>
       <c r="K20" s="12">
         <f>F20/(H20+J20)</f>
-        <v>0.54686777215750271</v>
+        <v>0.68721419540207385</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6">
         <f>SUM(C21:D21)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="11">
         <f>E21/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="11">
         <f>G21/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="11">
         <f>I21/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K21" s="12">
         <f>F21/(H21+J21)</f>
-        <v>0.56226615987442408</v>
+        <v>0.68647736817326532</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C22" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(C22:D22)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="11">
         <f>E22/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G22" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H22" s="11">
         <f>G22/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="11">
         <f>I22/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K22" s="12">
         <f>F22/(H22+J22)</f>
-        <v>0.30049494307709584</v>
+        <v>0.67849245492602495</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(C23:D23)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="11">
         <f>E23/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G23" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" s="11">
         <f>G23/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I23" s="6">
         <v>3</v>
@@ -5792,95 +5792,95 @@
       </c>
       <c r="K23" s="12">
         <f>F23/(H23+J23)</f>
-        <v>0.48625697479780172</v>
+        <v>0.65562533035002724</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" s="6">
         <f>SUM(C24:D24)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F24" s="11">
         <f>E24/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G24" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H24" s="11">
         <f>G24/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I24" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" s="11">
         <f>I24/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K24" s="12">
         <f>F24/(H24+J24)</f>
-        <v>0.32801793296785958</v>
+        <v>0.65513336536977462</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(C25:D25)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F25" s="11">
         <f>E25/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G25" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H25" s="11">
         <f>G25/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I25" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J25" s="11">
         <f>I25/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K25" s="12">
         <f>F25/(H25+J25)</f>
-        <v>0.2828812483282469</v>
+        <v>0.65513336536977462</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
@@ -5904,164 +5904,164 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I26" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="11">
         <f>I26/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K26" s="12">
         <f>F26/(H26+J26)</f>
-        <v>0.54635444195835603</v>
+        <v>0.62474017763824896</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
       </c>
       <c r="D27" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <f>SUM(C27:D27)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="11">
         <f>E27/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G27" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H27" s="11">
         <f>G27/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I27" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="11">
         <f>I27/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K27" s="12">
         <f>F27/(H27+J27)</f>
-        <v>0.39396688815467923</v>
+        <v>0.62407033470296847</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <f>SUM(C28:D28)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="11">
         <f>E28/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G28" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="11">
         <f>G28/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I28" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J28" s="11">
         <f>I28/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K28" s="12">
         <f>F28/(H28+J28)</f>
-        <v>0.40040935504456882</v>
+        <v>0.62407033470296847</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C29" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6">
         <f>SUM(C29:D29)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29" s="11">
         <f>E29/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G29" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H29" s="11">
         <f>G29/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I29" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" s="11">
         <f>I29/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K29" s="12">
         <f>F29/(H29+J29)</f>
-        <v>0.39802799099587555</v>
+        <v>0.61145780767845626</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="D30" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" s="6">
         <f>SUM(C30:D30)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11">
         <f>E30/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="11">
         <f>G30/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -6072,295 +6072,295 @@
       </c>
       <c r="K30" s="12">
         <f>F30/(H30+J30)</f>
-        <v>0.43726597575097809</v>
+        <v>0.60098988615419169</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C31" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(C31:D31)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F31" s="11">
         <f>E31/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31" s="11">
         <f>G31/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I31" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J31" s="11">
         <f>I31/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K31" s="12">
         <f>F31/(H31+J31)</f>
-        <v>0.39694221334369306</v>
+        <v>0.5962265410308123</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C32" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6">
         <f>SUM(C32:D32)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" s="11">
         <f>E32/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G32" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H32" s="11">
         <f>G32/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I32" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="11">
         <f>I32/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K32" s="12">
         <f>F32/(H32+J32)</f>
-        <v>0.26231579316458276</v>
+        <v>0.567782249987138</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C33" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6">
         <f>SUM(C33:D33)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33" s="11">
         <f>E33/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G33" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="11">
         <f>G33/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I33" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J33" s="11">
         <f>I33/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K33" s="12">
         <f>F33/(H33+J33)</f>
-        <v>0.48585108416775336</v>
+        <v>0.567782249987138</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C34" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="6">
         <f>SUM(C34:D34)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F34" s="11">
         <f>E34/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G34" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="11">
         <f>G34/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34" s="11">
         <f>I34/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K34" s="12">
         <f>F34/(H34+J34)</f>
-        <v>0.5962265410308123</v>
+        <v>0.56226615987442408</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(C35:D35)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F35" s="11">
         <f>E35/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G35" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H35" s="11">
         <f>G35/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I35" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J35" s="11">
         <f>I35/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K35" s="12">
         <f>F35/(H35+J35)</f>
-        <v>0.46830380739287653</v>
+        <v>0.56226615987442408</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="6">
         <f>SUM(C36:D36)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F36" s="11">
         <f>E36/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="11">
         <f>G36/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I36" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="11">
         <f>I36/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K36" s="12">
         <f>F36/(H36+J36)</f>
-        <v>0.71026077454586289</v>
+        <v>0.54686777215750271</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" s="6">
         <f>SUM(C37:D37)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F37" s="11">
         <f>E37/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="11">
         <f>G37/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I37" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" s="11">
         <f>I37/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K37" s="12">
         <f>F37/(H37+J37)</f>
-        <v>0.76417890437588876</v>
+        <v>0.54635444195835603</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5">
         <v>7</v>
@@ -6377,110 +6377,110 @@
         <v>1.4223194748358862E-2</v>
       </c>
       <c r="G38" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38" s="11">
         <f>G38/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I38" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" s="11">
         <f>I38/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K38" s="12">
         <f>F38/(H38+J38)</f>
-        <v>1.135564499974276</v>
+        <v>0.5167296688933708</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C39" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="6">
         <f>SUM(C39:D39)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F39" s="11">
         <f>E39/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39" s="11">
         <f>G39/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I39" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" s="11">
         <f>I39/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K39" s="12">
         <f>F39/(H39+J39)</f>
-        <v>1.1655561428444927</v>
+        <v>0.5167296688933708</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
         <v>5</v>
       </c>
       <c r="D40" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6">
         <f>SUM(C40:D40)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="11">
         <f>E40/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G40" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="11">
         <f>G40/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J40" s="11">
         <f>I40/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K40" s="12">
         <f>F40/(H40+J40)</f>
-        <v>0.3434227920881095</v>
+        <v>0.48625697479780172</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C41" s="5">
         <v>5</v>
@@ -6497,44 +6497,44 @@
         <v>1.0940919037199124E-2</v>
       </c>
       <c r="G41" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H41" s="11">
         <f>G41/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J41" s="11">
         <f>I41/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K41" s="12">
         <f>F41/(H41+J41)</f>
-        <v>0.27317722097917801</v>
+        <v>0.48585108416775336</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(C42:D42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="11">
         <f>E42/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G42" s="6">
         <v>4</v>
@@ -6544,63 +6544,63 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I42" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" s="11">
         <f>I42/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K42" s="12">
         <f>F42/(H42+J42)</f>
-        <v>0.56226615987442408</v>
+        <v>0.48544587058629574</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C43" s="5">
         <v>5</v>
       </c>
       <c r="D43" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="6">
         <f>SUM(C43:D43)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" s="11">
         <f>E43/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G43" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43" s="11">
         <f>G43/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="11">
         <f>I43/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K43" s="12">
         <f>F43/(H43+J43)</f>
-        <v>0.62407033470296847</v>
+        <v>0.48079190892335333</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C44" s="5">
         <v>7</v>
@@ -6624,277 +6624,277 @@
         <v>1.4962593516209476E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" s="11">
         <f>I44/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K44" s="12">
         <f>F44/(H44+J44)</f>
-        <v>0.5167296688933708</v>
+        <v>0.47350718303057526</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C45" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="6">
         <f>SUM(C45:D45)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="11">
         <f>E45/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G45" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" s="11">
         <f>G45/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J45" s="11">
         <f>I45/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K45" s="12">
         <f>F45/(H45+J45)</f>
-        <v>0.46610578485122611</v>
+        <v>0.47111357007100951</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46" s="6">
         <f>SUM(C46:D46)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F46" s="11">
         <f>E46/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G46" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H46" s="11">
         <f>G46/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I46" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J46" s="11">
         <f>I46/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K46" s="12">
         <f>F46/(H46+J46)</f>
-        <v>0.68721419540207385</v>
+        <v>0.46830380739287653</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C47" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E47" s="6">
         <f>SUM(C47:D47)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" s="11">
         <f>E47/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H47" s="11">
         <f>G47/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I47" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J47" s="11">
         <f>I47/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K47" s="12">
         <f>F47/(H47+J47)</f>
-        <v>0.728472589277808</v>
+        <v>0.46830380739287653</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C48" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" s="6">
         <f>SUM(C48:D48)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F48" s="11">
         <f>E48/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H48" s="11">
         <f>G48/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J48" s="11">
         <f>I48/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K48" s="12">
         <f>F48/(H48+J48)</f>
-        <v>0.78616003844372961</v>
+        <v>0.46610578485122611</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D49" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(C49:D49)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F49" s="11">
         <f>E49/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H49" s="11">
         <f>G49/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I49" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J49" s="11">
         <f>I49/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K49" s="12">
         <f>F49/(H49+J49)</f>
-        <v>0.728472589277808</v>
+        <v>0.46610578485122611</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C50" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E50" s="6">
         <f>SUM(C50:D50)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F50" s="11">
         <f>E50/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G50" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H50" s="11">
         <f>G50/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I50" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J50" s="11">
         <f>I50/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K50" s="12">
         <f>F50/(H50+J50)</f>
-        <v>0.43708355356668477</v>
+        <v>0.43726597575097809</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6">
         <f>SUM(C51:D51)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F51" s="11">
         <f>E51/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G51" s="6">
         <v>8</v>
@@ -6904,77 +6904,77 @@
         <v>1.9950124688279301E-2</v>
       </c>
       <c r="I51" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J51" s="11">
         <f>I51/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K51" s="12">
         <f>F51/(H51+J51)</f>
-        <v>0.31237008881912448</v>
+        <v>0.43708355356668488</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C52" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E52" s="6">
         <f>SUM(C52:D52)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F52" s="11">
         <f>E52/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G52" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="11">
         <f>G52/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I52" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" s="11">
         <f>I52/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K52" s="12">
         <f>F52/(H52+J52)</f>
-        <v>0.93711026645737328</v>
+        <v>0.43708355356668482</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D53" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E53" s="6">
         <f>SUM(C53:D53)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F53" s="11">
         <f>E53/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G53" s="6">
         <v>7</v>
@@ -6984,263 +6984,263 @@
         <v>1.7456359102244388E-2</v>
       </c>
       <c r="I53" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" s="11">
         <f>I53/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K53" s="12">
         <f>F53/(H53+J53)</f>
-        <v>0.26218450397881471</v>
+        <v>0.43708355356668477</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C54" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E54" s="6">
         <f>SUM(C54:D54)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54" s="11">
         <f>E54/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G54" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" s="11">
         <f>G54/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I54" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J54" s="11">
         <f>I54/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K54" s="12">
         <f>F54/(H54+J54)</f>
-        <v>0.62407033470296847</v>
+        <v>0.43697417329802446</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="6">
         <f>SUM(C55:D55)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F55" s="11">
         <f>E55/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G55" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H55" s="11">
         <f>G55/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I55" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J55" s="11">
         <f>I55/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.2613065326633167E-2</v>
       </c>
       <c r="K55" s="12">
         <f>F55/(H55+J55)</f>
-        <v>0.81216223092972362</v>
+        <v>0.43687851046102416</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C56" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(C56:D56)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F56" s="11">
         <f>E56/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G56" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H56" s="11">
         <f>G56/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I56" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J56" s="11">
         <f>I56/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K56" s="12">
         <f>F56/(H56+J56)</f>
-        <v>0.8746362486935485</v>
+        <v>0.40065992410279444</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C57" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
       </c>
       <c r="E57" s="6">
         <f>SUM(C57:D57)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F57" s="11">
         <f>E57/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H57" s="11">
         <f>G57/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I57" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J57" s="11">
         <f>I57/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K57" s="12">
         <f>F57/(H57+J57)</f>
-        <v>0.81216223092972362</v>
+        <v>0.40065992410279444</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C58" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" s="6">
         <f>SUM(C58:D58)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F58" s="11">
         <f>E58/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G58" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H58" s="11">
         <f>G58/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I58" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J58" s="11">
         <f>I58/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K58" s="12">
         <f>F58/(H58+J58)</f>
-        <v>0.38851871428149759</v>
+        <v>0.40040935504456882</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C59" s="5">
         <v>5</v>
       </c>
       <c r="D59" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="6">
         <f>SUM(C59:D59)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="11">
         <f>E59/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H59" s="11">
         <f>G59/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I59" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J59" s="11">
         <f>I59/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K59" s="12">
         <f>F59/(H59+J59)</f>
-        <v>0.68647736817326532</v>
+        <v>0.39802799099587555</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C60" s="5">
         <v>5</v>
@@ -7257,30 +7257,30 @@
         <v>1.0940919037199124E-2</v>
       </c>
       <c r="G60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" s="11">
         <f>G60/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I60" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60" s="11">
         <f>I60/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K60" s="12">
         <f>F60/(H60+J60)</f>
-        <v>0.43708355356668482</v>
+        <v>0.39694221334369306</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C61" s="5">
         <v>5</v>
@@ -7297,110 +7297,110 @@
         <v>9.8468271334792128E-3</v>
       </c>
       <c r="G61" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H61" s="11">
         <f>G61/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J61" s="11">
         <f>I61/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K61" s="12">
         <f>F61/(H61+J61)</f>
-        <v>0.39308001922186481</v>
+        <v>0.39396688815467923</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="6">
         <f>SUM(C62:D62)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F62" s="11">
         <f>E62/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G62" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H62" s="11">
         <f>G62/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I62" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J62" s="11">
         <f>I62/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K62" s="12">
         <f>F62/(H62+J62)</f>
-        <v>0.36003067969049607</v>
+        <v>0.39308001922186481</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C63" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="5">
         <v>8</v>
       </c>
       <c r="E63" s="6">
         <f>SUM(C63:D63)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" s="11">
         <f>E63/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G63" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H63" s="11">
         <f>G63/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I63" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J63" s="11">
         <f>I63/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>2.2613065326633167E-2</v>
       </c>
       <c r="K63" s="12">
         <f>F63/(H63+J63)</f>
-        <v>0.43697417329802446</v>
+        <v>0.38851871428149759</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C64" s="5">
         <v>7</v>
@@ -7417,36 +7417,36 @@
         <v>1.5317286652078774E-2</v>
       </c>
       <c r="G64" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H64" s="11">
         <f>G64/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I64" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J64" s="11">
         <f>I64/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K64" s="12">
         <f>F64/(H64+J64)</f>
-        <v>0.76489621874169855</v>
+        <v>0.36003067969049607</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C65" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="6">
         <f>SUM(C65:D65)</f>
@@ -7457,91 +7457,91 @@
         <v>1.4223194748358862E-2</v>
       </c>
       <c r="G65" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H65" s="11">
         <f>G65/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I65" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J65" s="11">
         <f>I65/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K65" s="12">
         <f>F65/(H65+J65)</f>
-        <v>0.70892986741054909</v>
+        <v>0.35513038727293145</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="C66" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="6">
         <f>SUM(C66:D66)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F66" s="11">
         <f>E66/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G66" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H66" s="11">
         <f>G66/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I66" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J66" s="11">
         <f>I66/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K66" s="12">
         <f>F66/(H66+J66)</f>
-        <v>0.69933368570669574</v>
+        <v>0.3434227920881095</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C67" s="5">
         <v>5</v>
       </c>
       <c r="D67" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="6">
         <f>SUM(C67:D67)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="11">
         <f>E67/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H67" s="11">
         <f>G67/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I67" s="6">
         <v>5</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="K67" s="12">
         <f>F67/(H67+J67)</f>
-        <v>0.48079190892335333</v>
+        <v>0.33650969290786392</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7597,10 +7597,10 @@
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C69" s="5">
         <v>5</v>
@@ -7617,84 +7617,84 @@
         <v>9.8468271334792128E-3</v>
       </c>
       <c r="G69" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H69" s="11">
         <f>G69/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I69" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" s="11">
         <f>I69/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K69" s="12">
         <f>F69/(H69+J69)</f>
-        <v>0.65562533035002724</v>
+        <v>0.32801793296785958</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C70" s="5">
         <v>5</v>
       </c>
       <c r="D70" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" s="6">
         <f>SUM(C70:D70)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="11">
         <f>E70/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G70" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H70" s="11">
         <f>G70/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I70" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J70" s="11">
         <f>I70/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K70" s="12">
         <f>F70/(H70+J70)</f>
-        <v>0.728472589277808</v>
+        <v>0.32076881699211701</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C71" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E71" s="6">
         <f>SUM(C71:D71)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F71" s="11">
         <f>E71/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G71" s="6">
         <v>8</v>
@@ -7704,37 +7704,37 @@
         <v>1.9950124688279301E-2</v>
       </c>
       <c r="I71" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J71" s="11">
         <f>I71/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K71" s="12">
         <f>F71/(H71+J71)</f>
-        <v>0.47111357007100951</v>
+        <v>0.31237008881912448</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C72" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72" s="6">
         <f>SUM(C72:D72)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F72" s="11">
         <f>E72/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G72" s="6">
         <v>7</v>
@@ -7744,197 +7744,197 @@
         <v>1.7456359102244388E-2</v>
       </c>
       <c r="I72" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J72" s="11">
         <f>I72/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K72" s="12">
         <f>F72/(H72+J72)</f>
-        <v>0.46830380739287653</v>
+        <v>0.30268372820666706</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C73" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73" s="6">
         <f>SUM(C73:D73)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F73" s="11">
         <f>E73/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G73" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H73" s="11">
         <f>G73/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I73" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J73" s="11">
         <f>I73/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K73" s="12">
         <f>F73/(H73+J73)</f>
-        <v>0.72877662625163009</v>
+        <v>0.30049494307709584</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C74" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="6">
         <f>SUM(C74:D74)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" s="11">
         <f>E74/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G74" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H74" s="11">
         <f>G74/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I74" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J74" s="11">
         <f>I74/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K74" s="12">
         <f>F74/(H74+J74)</f>
-        <v>0.5167296688933708</v>
+        <v>0.2828812483282469</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C75" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75" s="6">
         <f>SUM(C75:D75)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F75" s="11">
         <f>E75/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G75" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H75" s="11">
         <f>G75/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I75" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J75" s="11">
         <f>I75/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K75" s="12">
         <f>F75/(H75+J75)</f>
-        <v>0.67849245492602495</v>
+        <v>0.27317722097917801</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C76" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76" s="6">
         <f>SUM(C76:D76)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F76" s="11">
         <f>E76/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G76" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H76" s="11">
         <f>G76/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I76" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J76" s="11">
         <f>I76/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K76" s="12">
         <f>F76/(H76+J76)</f>
-        <v>0.81129143511385904</v>
+        <v>0.26231579316458276</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="C77" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E77" s="6">
         <f>SUM(C77:D77)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F77" s="11">
         <f>E77/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G77" s="6">
         <v>7</v>
@@ -7952,12 +7952,12 @@
       </c>
       <c r="K77" s="12">
         <f>F77/(H77+J77)</f>
-        <v>0.46610578485122611</v>
+        <v>0.26218450397881471</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K77">
-    <sortCondition ref="A1"/>
+    <sortCondition descending="1" ref="K1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>58</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(C2:D2)</f>
@@ -1155,22 +1155,22 @@
         <v>1.2131715771230503E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2" s="11">
         <f>G2/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" s="11">
         <f>I2/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K2" s="12">
         <f>F2/(H2+J2)</f>
-        <v>1.1656140396428207</v>
+        <v>0.36433019475308254</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,96 +1215,96 @@
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(C4:D4)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11">
         <f>E4/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11">
         <f>G4/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="11">
         <f>I4/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K4" s="12">
         <f>F4/(H4+J4)</f>
-        <v>1.1103396411522515</v>
+        <v>0.49212889558591816</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8">
         <v>6</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(C5:D5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="11">
         <f>E5/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.0398613518197574E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5" s="11">
         <f>G5/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" s="11">
         <f>I5/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K5" s="12">
         <f>F5/(H5+J5)</f>
-        <v>0.9021509584362043</v>
+        <v>0.29389544486246244</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(C6:D6)</f>
@@ -1315,11 +1315,11 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="11">
         <f>G6/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I6" s="6">
         <v>3</v>
@@ -1330,36 +1330,36 @@
       </c>
       <c r="K6" s="12">
         <f>F6/(H6+J6)</f>
-        <v>0.9021509584362043</v>
+        <v>0.77338721771382013</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(C7:D7)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11">
         <f>E7/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="11">
         <f>G7/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
@@ -1370,29 +1370,29 @@
       </c>
       <c r="K7" s="12">
         <f>F7/(H7+J7)</f>
-        <v>0.9021509584362043</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
       </c>
       <c r="D8" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(C8:D8)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="11">
         <f>E8/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G8" s="6">
         <v>4</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="K8" s="12">
         <f>F8/(H8+J8)</f>
-        <v>0.89236986659286932</v>
+        <v>0.83287854215334467</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,15 +1455,15 @@
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
         <v>8</v>
       </c>
       <c r="E10" s="6">
@@ -1475,131 +1475,131 @@
         <v>1.2998266897746967E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="11">
         <f>G10/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="11">
         <f>I10/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K10" s="12">
         <f>F10/(H10+J10)</f>
-        <v>0.89236986659286932</v>
+        <v>0.62456604814814154</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(C11:D11)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11">
         <f>E11/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" s="11">
         <f>G11/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J11" s="11">
         <f>I11/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K11" s="12">
         <f>F11/(H11+J11)</f>
-        <v>0.89236986659286932</v>
+        <v>0.45107547921810215</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(C12:D12)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11">
         <f>E12/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="11">
         <f>G12/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="11">
         <f>I12/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K12" s="12">
         <f>F12/(H12+J12)</f>
-        <v>0.89236986659286932</v>
+        <v>0.58304965388461671</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6</v>
       </c>
       <c r="E13" s="6">
         <f>SUM(C13:D13)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11">
         <f>E13/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="11">
         <f>G13/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
@@ -1610,20 +1610,20 @@
       </c>
       <c r="K13" s="12">
         <f>F13/(H13+J13)</f>
-        <v>0.83297142478322694</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
         <v>8</v>
       </c>
       <c r="E14" s="6">
@@ -1635,11 +1635,11 @@
         <v>1.3864818024263431E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="11">
         <f>G14/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I14" s="6">
         <v>3</v>
@@ -1650,36 +1650,36 @@
       </c>
       <c r="K14" s="12">
         <f>F14/(H14+J14)</f>
-        <v>0.83297142478322694</v>
+        <v>1.1103396411522515</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(C15:D15)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="11">
         <f>E15/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="11">
         <f>G15/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I15" s="6">
         <v>3</v>
@@ -1690,36 +1690,36 @@
       </c>
       <c r="K15" s="12">
         <f>F15/(H15+J15)</f>
-        <v>0.83287854215334467</v>
+        <v>0.76335850329217281</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(C16:D16)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" s="11">
         <f>E16/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="11">
         <f>G16/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I16" s="6">
         <v>3</v>
@@ -1730,29 +1730,29 @@
       </c>
       <c r="K16" s="12">
         <f>F16/(H16+J16)</f>
-        <v>0.83287854215334467</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(C17:D17)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17" s="11">
         <f>E17/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
@@ -1762,68 +1762,68 @@
         <v>6.2370062370062374E-3</v>
       </c>
       <c r="I17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="11">
         <f>I17/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K17" s="12">
         <f>F17/(H17+J17)</f>
-        <v>0.83263095637981521</v>
+        <v>0.62456604814814143</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <f>SUM(C18:D18)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18" s="11">
         <f>E18/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" s="11">
         <f>G18/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="11">
         <f>I18/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K18" s="12">
         <f>F18/(H18+J18)</f>
-        <v>0.83263095637981521</v>
+        <v>0.32036721231404536</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
         <v>5</v>
       </c>
       <c r="E19" s="6">
@@ -1835,84 +1835,84 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" s="11">
         <f>G19/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19" s="11">
         <f>I19/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K19" s="12">
         <f>F19/(H19+J19)</f>
-        <v>0.83258145688772911</v>
+        <v>0.32021338682797906</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(C20:D20)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11">
         <f>E20/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="11">
         <f>G20/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J20" s="11">
         <f>I20/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K20" s="12">
         <f>F20/(H20+J20)</f>
-        <v>0.78070756018517684</v>
+        <v>0.41620412750181257</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
       </c>
       <c r="E21" s="6">
         <f>SUM(C21:D21)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F21" s="11">
         <f>E21/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G21" s="6">
         <v>4</v>
@@ -1922,37 +1922,37 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" s="11">
         <f>I21/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K21" s="12">
         <f>F21/(H21+J21)</f>
-        <v>0.77338721771382013</v>
+        <v>0.37466165559947812</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="C22" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(C22:D22)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11">
         <f>E22/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
@@ -1962,397 +1962,397 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I22" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="11">
         <f>I22/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K22" s="12">
         <f>F22/(H22+J22)</f>
-        <v>0.77338721771382013</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(C23:D23)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="11">
         <f>E23/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="11">
         <f>G23/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I23" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" s="11">
         <f>I23/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K23" s="12">
         <f>F23/(H23+J23)</f>
-        <v>0.77315731663839982</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
       </c>
       <c r="E24" s="6">
         <f>SUM(C24:D24)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="11">
         <f>E24/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="11">
         <f>G24/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I24" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" s="11">
         <f>I24/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K24" s="12">
         <f>F24/(H24+J24)</f>
-        <v>0.76335850329217281</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(C25:D25)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="11">
         <f>E25/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="11">
         <f>G25/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I25" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" s="11">
         <f>I25/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K25" s="12">
         <f>F25/(H25+J25)</f>
-        <v>0.76335850329217281</v>
+        <v>0.41629072844386455</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(C26:D26)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F26" s="11">
         <f>E26/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G26" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26" s="11">
         <f>G26/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I26" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" s="11">
         <f>I26/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K26" s="12">
         <f>F26/(H26+J26)</f>
-        <v>0.72884999668532358</v>
+        <v>0.26020200818067535</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="6">
         <f>SUM(C27:D27)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11">
         <f>E27/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G27" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H27" s="11">
         <f>G27/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I27" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27" s="11">
         <f>I27/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K27" s="12">
         <f>F27/(H27+J27)</f>
-        <v>0.69404252112669285</v>
+        <v>0.36093550002381031</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8">
-        <v>5</v>
-      </c>
-      <c r="D28" s="8">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
       </c>
       <c r="E28" s="6">
         <f>SUM(C28:D28)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F28" s="11">
         <f>E28/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G28" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="11">
         <f>G28/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I28" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" s="11">
         <f>I28/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K28" s="12">
         <f>F28/(H28+J28)</f>
-        <v>0.69396227572015712</v>
+        <v>0.64762324560964135</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
       <c r="E29" s="6">
         <f>SUM(C29:D29)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="11">
         <f>E29/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H29" s="11">
         <f>G29/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I29" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" s="11">
         <f>I29/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K29" s="12">
         <f>F29/(H29+J29)</f>
-        <v>0.69396227572015712</v>
+        <v>0.35234751280680982</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" s="6">
         <f>SUM(C30:D30)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F30" s="11">
         <f>E30/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G30" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H30" s="11">
         <f>G30/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I30" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J30" s="11">
         <f>I30/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K30" s="12">
         <f>F30/(H30+J30)</f>
-        <v>0.69396227572015712</v>
+        <v>0.48577359300410999</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(C31:D31)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F31" s="11">
         <f>E31/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" s="11">
         <f>G31/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I31" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J31" s="11">
         <f>I31/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K31" s="12">
         <f>F31/(H31+J31)</f>
-        <v>0.67626136587924524</v>
+        <v>0.83297142478322694</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6">
         <f>SUM(C32:D32)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F32" s="11">
         <f>E32/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G32" s="6">
         <v>4</v>
@@ -2362,188 +2362,188 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I32" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J32" s="11">
         <f>I32/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K32" s="12">
         <f>F32/(H32+J32)</f>
-        <v>0.66606516551018324</v>
+        <v>0.77338721771382013</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="6">
         <f>SUM(C33:D33)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" s="11">
         <f>E33/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G33" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H33" s="11">
         <f>G33/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I33" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J33" s="11">
         <f>I33/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K33" s="12">
         <f>F33/(H33+J33)</f>
-        <v>0.65440456883477083</v>
+        <v>0.23421226805555306</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="6">
         <f>SUM(C34:D34)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F34" s="11">
         <f>E34/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G34" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H34" s="11">
         <f>G34/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34" s="11">
         <f>I34/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K34" s="12">
         <f>F34/(H34+J34)</f>
-        <v>0.64762324560964135</v>
+        <v>0.46280204508471273</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(C35:D35)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" s="11">
         <f>E35/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H35" s="11">
         <f>G35/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I35" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" s="11">
         <f>I35/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K35" s="12">
         <f>F35/(H35+J35)</f>
-        <v>0.6473239050755023</v>
+        <v>0.34704132539483318</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8">
-        <v>7</v>
-      </c>
-      <c r="D36" s="8">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7</v>
       </c>
       <c r="E36" s="6">
         <f>SUM(C36:D36)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36" s="11">
         <f>E36/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H36" s="11">
         <f>G36/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I36" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J36" s="11">
         <f>I36/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K36" s="12">
         <f>F36/(H36+J36)</f>
-        <v>0.62456604814814154</v>
+        <v>0.31842571170073181</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="8">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8">
+        <v>46</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="6">
@@ -2555,51 +2555,51 @@
         <v>7.7989601386481804E-3</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="11">
         <f>G37/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="11">
         <f>I37/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K37" s="12">
         <f>F37/(H37+J37)</f>
-        <v>0.62456604814814143</v>
+        <v>0.46842453611110613</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C38" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" s="6">
         <f>SUM(C38:D38)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F38" s="11">
         <f>E38/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G38" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="11">
         <f>G38/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I38" s="6">
         <v>3</v>
@@ -2610,356 +2610,356 @@
       </c>
       <c r="K38" s="12">
         <f>F38/(H38+J38)</f>
-        <v>0.59491324439524618</v>
+        <v>0.72884999668532358</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="6">
         <f>SUM(C39:D39)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F39" s="11">
         <f>E39/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H39" s="11">
         <f>G39/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I39" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J39" s="11">
         <f>I39/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K39" s="12">
         <f>F39/(H39+J39)</f>
-        <v>0.59473639741415374</v>
+        <v>0.36088541878334635</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="8">
-        <v>7</v>
-      </c>
-      <c r="D40" s="8">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C40" s="5">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5">
+        <v>8</v>
       </c>
       <c r="E40" s="6">
         <f>SUM(C40:D40)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="11">
         <f>E40/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G40" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="11">
         <f>G40/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" s="11">
         <f>I40/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K40" s="12">
         <f>F40/(H40+J40)</f>
-        <v>0.58304965388461671</v>
+        <v>0.83297142478322694</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6">
         <f>SUM(C41:D41)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" s="11">
         <f>E41/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G41" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41" s="11">
         <f>G41/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I41" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" s="11">
         <f>I41/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K41" s="12">
         <f>F41/(H41+J41)</f>
-        <v>0.58292831160493208</v>
+        <v>0.57251887746912966</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(C42:D42)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="11">
         <f>E42/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G42" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H42" s="11">
         <f>G42/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I42" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J42" s="11">
         <f>I42/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K42" s="12">
         <f>F42/(H42+J42)</f>
-        <v>0.57251887746912966</v>
+        <v>0.27760416829488177</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D43" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E43" s="6">
         <f>SUM(C43:D43)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F43" s="11">
         <f>E43/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G43" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H43" s="11">
         <f>G43/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I43" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="11">
         <f>I43/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K43" s="12">
         <f>F43/(H43+J43)</f>
-        <v>0.55526612063173308</v>
+        <v>0.41642551267601574</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C44" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44" s="6">
         <f>SUM(C44:D44)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F44" s="11">
         <f>E44/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G44" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" s="11">
         <f>G44/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J44" s="11">
         <f>I44/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K44" s="12">
         <f>F44/(H44+J44)</f>
-        <v>0.55507355391745117</v>
+        <v>0.34070462002102025</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="6">
         <f>SUM(C45:D45)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F45" s="11">
         <f>E45/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G45" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" s="11">
         <f>G45/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J45" s="11">
         <f>I45/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K45" s="12">
         <f>F45/(H45+J45)</f>
-        <v>0.54129057506172262</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="6">
         <f>SUM(C46:D46)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F46" s="11">
         <f>E46/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G46" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="11">
         <f>G46/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I46" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46" s="11">
         <f>I46/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K46" s="12">
         <f>F46/(H46+J46)</f>
-        <v>0.54129057506172262</v>
+        <v>0.52047170679011789</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6">
         <f>SUM(C47:D47)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F47" s="11">
         <f>E47/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G47" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" s="11">
         <f>G47/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I47" s="6">
         <v>5</v>
@@ -2970,55 +2970,55 @@
       </c>
       <c r="K47" s="12">
         <f>F47/(H47+J47)</f>
-        <v>0.52998496447714261</v>
+        <v>0.52033634353737668</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48" s="6">
         <f>SUM(C48:D48)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" s="11">
         <f>E48/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G48" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H48" s="11">
         <f>G48/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I48" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48" s="11">
         <f>I48/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K48" s="12">
         <f>F48/(H48+J48)</f>
-        <v>0.52056198809224974</v>
+        <v>0.83258145688772911</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5">
         <v>5</v>
@@ -3035,331 +3035,331 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="11">
         <f>G49/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" s="11">
         <f>I49/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49/(H49+J49)</f>
-        <v>0.52047170679011789</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="6">
         <f>SUM(C50:D50)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F50" s="11">
         <f>E50/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G50" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" s="11">
         <f>G50/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I50" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" s="11">
         <f>I50/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K50" s="12">
         <f>F50/(H50+J50)</f>
-        <v>0.52033634353737668</v>
+        <v>0.38663612504408756</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="6">
         <f>SUM(C51:D51)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" s="11">
         <f>E51/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G51" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51" s="11">
         <f>G51/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I51" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J51" s="11">
         <f>I51/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K51" s="12">
         <f>F51/(H51+J51)</f>
-        <v>0.51242343291851145</v>
+        <v>0.36433019475308254</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="8">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="C52" s="5">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5</v>
       </c>
       <c r="E52" s="6">
         <f>SUM(C52:D52)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" s="11">
         <f>E52/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G52" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52" s="11">
         <f>G52/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I52" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52" s="11">
         <f>I52/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K52" s="12">
         <f>F52/(H52+J52)</f>
-        <v>0.49212889558591816</v>
+        <v>0.65440456883477083</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5">
         <v>6</v>
       </c>
       <c r="D53" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="6">
         <f>SUM(C53:D53)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" s="11">
         <f>E53/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G53" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H53" s="11">
         <f>G53/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53" s="11">
         <f>I53/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K53" s="12">
         <f>F53/(H53+J53)</f>
-        <v>0.49212889558591816</v>
+        <v>0.83263095637981521</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C54" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" s="5">
         <v>8</v>
       </c>
       <c r="E54" s="6">
         <f>SUM(C54:D54)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" s="11">
         <f>E54/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G54" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" s="11">
         <f>G54/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I54" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J54" s="11">
         <f>I54/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K54" s="12">
         <f>F54/(H54+J54)</f>
-        <v>0.48577359300410999</v>
+        <v>0.55507355391745117</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="6">
         <f>SUM(C55:D55)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" s="11">
         <f>E55/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G55" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55" s="11">
         <f>G55/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I55" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J55" s="11">
         <f>I55/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K55" s="12">
         <f>F55/(H55+J55)</f>
-        <v>0.47585984620810773</v>
+        <v>0.52998496447714261</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(C56:D56)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F56" s="11">
         <f>E56/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G56" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H56" s="11">
         <f>G56/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I56" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J56" s="11">
         <f>I56/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K56" s="12">
         <f>F56/(H56+J56)</f>
-        <v>0.46842453611110613</v>
+        <v>0.41634848242949773</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E57" s="6">
         <f>SUM(C57:D57)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F57" s="11">
         <f>E57/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G57" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H57" s="11">
         <f>G57/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I57" s="6">
         <v>3</v>
@@ -3370,20 +3370,20 @@
       </c>
       <c r="K57" s="12">
         <f>F57/(H57+J57)</f>
-        <v>0.46280204508471273</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="8">
-        <v>6</v>
-      </c>
-      <c r="D58" s="8">
+        <v>67</v>
+      </c>
+      <c r="C58" s="5">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5">
         <v>7</v>
       </c>
       <c r="E58" s="6">
@@ -3395,190 +3395,190 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G58" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H58" s="11">
         <f>G58/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I58" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J58" s="11">
         <f>I58/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K58" s="12">
         <f>F58/(H58+J58)</f>
-        <v>0.45107547921810215</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="C59" s="5">
         <v>7</v>
       </c>
       <c r="D59" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6">
         <f>SUM(C59:D59)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="11">
         <f>E59/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H59" s="11">
         <f>G59/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I59" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J59" s="11">
         <f>I59/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K59" s="12">
         <f>F59/(H59+J59)</f>
-        <v>0.4509972625579291</v>
+        <v>1.1656140396428207</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C60" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E60" s="6">
         <f>SUM(C60:D60)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F60" s="11">
         <f>E60/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G60" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H60" s="11">
         <f>G60/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I60" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J60" s="11">
         <f>I60/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K60" s="12">
         <f>F60/(H60+J60)</f>
-        <v>0.44410504792479755</v>
+        <v>0.9021509584362043</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C61" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D61" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61" s="6">
         <f>SUM(C61:D61)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F61" s="11">
         <f>E61/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H61" s="11">
         <f>G61/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J61" s="11">
         <f>I61/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K61" s="12">
         <f>F61/(H61+J61)</f>
-        <v>0.41642551267601574</v>
+        <v>0.47585984620810773</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C62" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" s="6">
         <f>SUM(C62:D62)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F62" s="11">
         <f>E62/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G62" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" s="11">
         <f>G62/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I62" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J62" s="11">
         <f>I62/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K62" s="12">
         <f>F62/(H62+J62)</f>
-        <v>0.41634848242949773</v>
+        <v>0.32720228441738541</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C63" s="5">
         <v>5</v>
@@ -3602,63 +3602,63 @@
         <v>8.3160083160083165E-3</v>
       </c>
       <c r="I63" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J63" s="11">
         <f>I63/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K63" s="12">
         <f>F63/(H63+J63)</f>
-        <v>0.41629072844386455</v>
+        <v>0.59491324439524618</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C64" s="5">
         <v>5</v>
       </c>
       <c r="D64" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="6">
         <f>SUM(C64:D64)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="11">
         <f>E64/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G64" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H64" s="11">
         <f>G64/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I64" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J64" s="11">
         <f>I64/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K64" s="12">
         <f>F64/(H64+J64)</f>
-        <v>0.41629072844386455</v>
+        <v>0.24980908945769864</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C65" s="5">
         <v>5</v>
@@ -3675,236 +3675,236 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="11">
         <f>G65/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I65" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J65" s="11">
         <f>I65/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K65" s="12">
         <f>F65/(H65+J65)</f>
-        <v>0.41629072844386455</v>
+        <v>0.59473639741415374</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C66" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" s="6">
         <f>SUM(C66:D66)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F66" s="11">
         <f>E66/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G66" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" s="11">
         <f>G66/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I66" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J66" s="11">
         <f>I66/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K66" s="12">
         <f>F66/(H66+J66)</f>
-        <v>0.41629072844386455</v>
+        <v>0.4509972625579291</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="8">
-        <v>5</v>
-      </c>
-      <c r="D67" s="8">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="C67" s="5">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>7</v>
       </c>
       <c r="E67" s="6">
         <f>SUM(C67:D67)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F67" s="11">
         <f>E67/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G67" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="11">
         <f>G67/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I67" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J67" s="11">
         <f>I67/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K67" s="12">
         <f>F67/(H67+J67)</f>
-        <v>0.41620412750181257</v>
+        <v>0.83287854215334467</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C68" s="5">
         <v>7</v>
       </c>
       <c r="D68" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="6">
         <f>SUM(C68:D68)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" s="11">
         <f>E68/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G68" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68" s="11">
         <f>G68/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I68" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J68" s="11">
         <f>I68/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K68" s="12">
         <f>F68/(H68+J68)</f>
-        <v>0.3886458356128345</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C69" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" s="6">
         <f>SUM(C69:D69)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="11">
         <f>E69/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G69" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H69" s="11">
         <f>G69/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I69" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J69" s="11">
         <f>I69/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K69" s="12">
         <f>F69/(H69+J69)</f>
-        <v>0.38663612504408756</v>
+        <v>0.89236986659286932</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C70" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E70" s="6">
         <f>SUM(C70:D70)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F70" s="11">
         <f>E70/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G70" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H70" s="11">
         <f>G70/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I70" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J70" s="11">
         <f>I70/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="K70" s="12">
         <f>F70/(H70+J70)</f>
-        <v>0.37466165559947812</v>
+        <v>0.30071698614540143</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>1</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="8">
-        <v>6</v>
-      </c>
-      <c r="D71" s="8">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="5">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5">
+        <v>7</v>
       </c>
       <c r="E71" s="6">
         <f>SUM(C71:D71)</f>
@@ -3915,91 +3915,91 @@
         <v>1.2131715771230503E-2</v>
       </c>
       <c r="G71" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H71" s="11">
         <f>G71/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I71" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J71" s="11">
         <f>I71/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K71" s="12">
         <f>F71/(H71+J71)</f>
-        <v>0.36433019475308254</v>
+        <v>0.83263095637981521</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C72" s="5">
         <v>7</v>
       </c>
       <c r="D72" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="6">
         <f>SUM(C72:D72)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="11">
         <f>E72/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G72" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H72" s="11">
         <f>G72/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I72" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J72" s="11">
         <f>I72/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K72" s="12">
         <f>F72/(H72+J72)</f>
-        <v>0.36433019475308254</v>
+        <v>0.54129057506172262</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C73" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D73" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6">
         <f>SUM(C73:D73)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F73" s="11">
         <f>E73/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G73" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H73" s="11">
         <f>G73/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I73" s="6">
         <v>6</v>
@@ -4010,36 +4010,36 @@
       </c>
       <c r="K73" s="12">
         <f>F73/(H73+J73)</f>
-        <v>0.36093550002381031</v>
+        <v>0.66606516551018324</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C74" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5">
         <v>6</v>
       </c>
       <c r="E74" s="6">
         <f>SUM(C74:D74)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" s="11">
         <f>E74/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G74" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H74" s="11">
         <f>G74/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I74" s="6">
         <v>7</v>
@@ -4050,29 +4050,29 @@
       </c>
       <c r="K74" s="12">
         <f>F74/(H74+J74)</f>
-        <v>0.36088541878334635</v>
+        <v>0.35229111013147657</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C75" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5">
         <v>5</v>
       </c>
       <c r="E75" s="6">
         <f>SUM(C75:D75)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="11">
         <f>E75/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G75" s="6">
         <v>7</v>
@@ -4082,63 +4082,63 @@
         <v>1.4553014553014554E-2</v>
       </c>
       <c r="I75" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J75" s="11">
         <f>I75/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K75" s="12">
         <f>F75/(H75+J75)</f>
-        <v>0.35234751280680982</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76" s="5">
         <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76" s="6">
         <f>SUM(C76:D76)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F76" s="11">
         <f>E76/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>7.7989601386481804E-3</v>
       </c>
       <c r="G76" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H76" s="11">
         <f>G76/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.8711018711018712E-2</v>
       </c>
       <c r="I76" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J76" s="11">
         <f>I76/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K76" s="12">
         <f>F76/(H76+J76)</f>
-        <v>0.35229111013147657</v>
+        <v>0.22044856963896817</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C77" s="5">
         <v>5</v>
@@ -4162,124 +4162,124 @@
         <v>1.4553014553014554E-2</v>
       </c>
       <c r="I77" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J77" s="11">
         <f>I77/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K77" s="12">
         <f>F77/(H77+J77)</f>
-        <v>0.34704132539483318</v>
+        <v>0.27756565495299851</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C78" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D78" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E78" s="6">
         <f>SUM(C78:D78)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F78" s="11">
         <f>E78/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G78" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H78" s="11">
         <f>G78/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+        <v>1.6632016632016633E-2</v>
       </c>
       <c r="I78" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J78" s="11">
         <f>I78/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K78" s="12">
         <f>F78/(H78+J78)</f>
-        <v>0.34070462002102025</v>
+        <v>0.3886458356128345</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C79" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D79" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E79" s="6">
         <f>SUM(C79:D79)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F79" s="11">
         <f>E79/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G79" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H79" s="11">
         <f>G79/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I79" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J79" s="11">
         <f>I79/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K79" s="12">
         <f>F79/(H79+J79)</f>
-        <v>0.32720228441738541</v>
+        <v>0.52056198809224974</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="8">
-        <v>5</v>
-      </c>
-      <c r="D80" s="8">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="C80" s="5">
+        <v>8</v>
+      </c>
+      <c r="D80" s="5">
+        <v>8</v>
       </c>
       <c r="E80" s="6">
         <f>SUM(C80:D80)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F80" s="11">
         <f>E80/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G80" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H80" s="11">
         <f>G80/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I80" s="6">
         <v>5</v>
@@ -4290,55 +4290,55 @@
       </c>
       <c r="K80" s="12">
         <f>F80/(H80+J80)</f>
-        <v>0.32036721231404536</v>
+        <v>0.55526612063173308</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="8">
-        <v>5</v>
-      </c>
-      <c r="D81" s="8">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="C81" s="5">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5">
+        <v>8</v>
       </c>
       <c r="E81" s="6">
         <f>SUM(C81:D81)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F81" s="11">
         <f>E81/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G81" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" s="11">
         <f>G81/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+        <v>8.3160083160083165E-3</v>
       </c>
       <c r="I81" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J81" s="11">
         <f>I81/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K81" s="12">
         <f>F81/(H81+J81)</f>
-        <v>0.32021338682797906</v>
+        <v>0.78070756018517684</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C82" s="5">
         <v>6</v>
@@ -4355,131 +4355,131 @@
         <v>1.1265164644714038E-2</v>
       </c>
       <c r="G82" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H82" s="11">
         <f>G82/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I82" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J82" s="11">
         <f>I82/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K82" s="12">
         <f>F82/(H82+J82)</f>
-        <v>0.31842571170073181</v>
+        <v>0.67626136587924524</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C83" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5">
         <v>7</v>
       </c>
       <c r="E83" s="6">
         <f>SUM(C83:D83)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" s="11">
         <f>E83/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G83" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H83" s="11">
         <f>G83/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I83" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J83" s="11">
         <f>I83/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K83" s="12">
         <f>F83/(H83+J83)</f>
-        <v>0.30071698614540143</v>
+        <v>0.58292831160493208</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C84" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D84" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" s="6">
         <f>SUM(C84:D84)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F84" s="11">
         <f>E84/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G84" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H84" s="11">
         <f>G84/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I84" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J84" s="11">
         <f>I84/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K84" s="12">
         <f>F84/(H84+J84)</f>
-        <v>0.29741240388006734</v>
+        <v>0.54129057506172262</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C85" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E85" s="6">
         <f>SUM(C85:D85)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F85" s="11">
         <f>E85/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G85" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H85" s="11">
         <f>G85/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I85" s="6">
         <v>7</v>
@@ -4490,87 +4490,87 @@
       </c>
       <c r="K85" s="12">
         <f>F85/(H85+J85)</f>
-        <v>0.29741240388006734</v>
+        <v>0.51242343291851145</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C86" s="5">
         <v>5</v>
       </c>
       <c r="D86" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" s="6">
         <f>SUM(C86:D86)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" s="11">
         <f>E86/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>9.5320623916811086E-3</v>
       </c>
       <c r="G86" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H86" s="11">
         <f>G86/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I86" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J86" s="11">
         <f>I86/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K86" s="12">
         <f>F86/(H86+J86)</f>
-        <v>0.29741240388006734</v>
+        <v>0.76335850329217281</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="8">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="C87" s="5">
+        <v>5</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5</v>
       </c>
       <c r="E87" s="6">
         <f>SUM(C87:D87)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="11">
         <f>E87/SUM(E:E)</f>
-        <v>1.0398613518197574E-2</v>
+        <v>8.6655112651646445E-3</v>
       </c>
       <c r="G87" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H87" s="11">
         <f>G87/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I87" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J87" s="11">
         <f>I87/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="K87" s="12">
         <f>F87/(H87+J87)</f>
-        <v>0.29389544486246244</v>
+        <v>0.69396227572015712</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4615,10 +4615,10 @@
     </row>
     <row r="89" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C89" s="5">
         <v>5</v>
@@ -4635,11 +4635,11 @@
         <v>8.6655112651646445E-3</v>
       </c>
       <c r="G89" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89" s="11">
         <f>G89/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I89" s="6">
         <v>7</v>
@@ -4650,196 +4650,196 @@
       </c>
       <c r="K89" s="12">
         <f>F89/(H89+J89)</f>
-        <v>0.27760416829488177</v>
+        <v>0.29741240388006734</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C90" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E90" s="6">
         <f>SUM(C90:D90)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F90" s="11">
         <f>E90/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.2998266897746967E-2</v>
       </c>
       <c r="G90" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H90" s="11">
         <f>G90/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.0395010395010396E-2</v>
       </c>
       <c r="I90" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J90" s="11">
         <f>I90/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K90" s="12">
         <f>F90/(H90+J90)</f>
-        <v>0.27756565495299851</v>
+        <v>0.69404252112669285</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C91" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E91" s="6">
         <f>SUM(C91:D91)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F91" s="11">
         <f>E91/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G91" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H91" s="11">
         <f>G91/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>1.2474012474012475E-2</v>
       </c>
       <c r="I91" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J91" s="11">
         <f>I91/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K91" s="12">
         <f>F91/(H91+J91)</f>
-        <v>0.26020200818067535</v>
+        <v>0.49212889558591816</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C92" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D92" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E92" s="6">
         <f>SUM(C92:D92)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F92" s="11">
         <f>E92/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.2131715771230503E-2</v>
       </c>
       <c r="G92" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H92" s="11">
         <f>G92/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+        <v>4.1580041580041582E-3</v>
       </c>
       <c r="I92" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J92" s="11">
         <f>I92/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K92" s="12">
         <f>F92/(H92+J92)</f>
-        <v>0.24980908945769864</v>
+        <v>0.6473239050755023</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C93" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E93" s="6">
         <f>SUM(C93:D93)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F93" s="11">
         <f>E93/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.1265164644714038E-2</v>
       </c>
       <c r="G93" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H93" s="11">
         <f>G93/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+        <v>6.2370062370062374E-3</v>
       </c>
       <c r="I93" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J93" s="11">
         <f>I93/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K93" s="12">
         <f>F93/(H93+J93)</f>
-        <v>0.23421226805555306</v>
+        <v>0.77315731663839982</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C94" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D94" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E94" s="6">
         <f>SUM(C94:D94)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F94" s="11">
         <f>E94/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+        <v>1.3864818024263431E-2</v>
       </c>
       <c r="G94" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H94" s="11">
         <f>G94/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="I94" s="6">
         <v>8</v>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="K94" s="12">
         <f>F94/(H94+J94)</f>
-        <v>0.22044856963896817</v>
+        <v>0.44410504792479755</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:K94">
-    <sortCondition descending="1" ref="K1"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4917,71 +4917,71 @@
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>38</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(C2:D2)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11">
         <f>E2/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2" s="11">
         <f>G2/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" s="11">
         <f>I2/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K2" s="12">
         <f>F2/(H2+J2)</f>
-        <v>1.1655561428444927</v>
+        <v>0.35513038727293145</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(C3:D3)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11">
         <f>E3/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="11">
         <f>G3/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I3" s="6">
         <v>3</v>
@@ -4992,109 +4992,109 @@
       </c>
       <c r="K3" s="12">
         <f>F3/(H3+J3)</f>
-        <v>1.135564499974276</v>
+        <v>1.0198616249889312</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(C4:D4)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11">
         <f>E4/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11">
         <f>G4/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="11">
         <f>I4/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K4" s="12">
         <f>F4/(H4+J4)</f>
-        <v>1.0198616249889312</v>
+        <v>0.47350718303057526</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(C5:D5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11">
         <f>E5/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="11">
         <f>G5/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" s="11">
         <f>I5/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K5" s="12">
         <f>F5/(H5+J5)</f>
-        <v>0.93711026645737328</v>
+        <v>0.43708355356668488</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(C6:D6)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="11">
         <f>E6/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -5104,37 +5104,37 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="11">
         <f>I6/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K6" s="12">
         <f>F6/(H6+J6)</f>
-        <v>0.8746362486935485</v>
+        <v>0.60098988615419169</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(C7:D7)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11">
         <f>E7/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
@@ -5152,149 +5152,149 @@
       </c>
       <c r="K7" s="12">
         <f>F7/(H7+J7)</f>
-        <v>0.81216223092972362</v>
+        <v>0.62474017763824896</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(C8:D8)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="11">
         <f>E8/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="11">
         <f>G8/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" s="11">
         <f>I8/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K8" s="12">
         <f>F8/(H8+J8)</f>
-        <v>0.81216223092972362</v>
+        <v>0.40065992410279444</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <f>SUM(C9:D9)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="11">
         <f>E9/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" s="11">
         <f>G9/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="11">
         <f>I9/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K9" s="12">
         <f>F9/(H9+J9)</f>
-        <v>0.81129143511385904</v>
+        <v>0.33650969290786392</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(C10:D10)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F10" s="11">
         <f>E10/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="11">
         <f>G10/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I10" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="11">
         <f>I10/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K10" s="12">
         <f>F10/(H10+J10)</f>
-        <v>0.78616003844372961</v>
+        <v>0.65513336536977462</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(C11:D11)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="11">
         <f>E11/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G11" s="6">
         <v>4</v>
@@ -5304,237 +5304,237 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I11" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="11">
         <f>I11/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K11" s="12">
         <f>F11/(H11+J11)</f>
-        <v>0.76489621874169855</v>
+        <v>0.65513336536977462</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(C12:D12)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11">
         <f>E12/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="11">
         <f>G12/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I12" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="11">
         <f>I12/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K12" s="12">
         <f>F12/(H12+J12)</f>
-        <v>0.76417890437588876</v>
+        <v>0.567782249987138</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6">
         <f>SUM(C13:D13)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11">
         <f>E13/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="11">
         <f>G13/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I13" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="11">
         <f>I13/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K13" s="12">
         <f>F13/(H13+J13)</f>
-        <v>0.72877662625163009</v>
+        <v>0.61145780767845626</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6">
         <f>SUM(C14:D14)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" s="11">
         <f>E14/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="11">
         <f>G14/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I14" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="11">
         <f>I14/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K14" s="12">
         <f>F14/(H14+J14)</f>
-        <v>0.728472589277808</v>
+        <v>0.567782249987138</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(C15:D15)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11">
         <f>E15/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="11">
         <f>G15/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I15" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J15" s="11">
         <f>I15/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>2.2613065326633167E-2</v>
       </c>
       <c r="K15" s="12">
         <f>F15/(H15+J15)</f>
-        <v>0.728472589277808</v>
+        <v>0.43687851046102416</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(C16:D16)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="11">
         <f>E16/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H16" s="11">
         <f>G16/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" s="11">
         <f>I16/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K16" s="12">
         <f>F16/(H16+J16)</f>
-        <v>0.728472589277808</v>
+        <v>0.32076881699211701</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C17" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <f>SUM(C17:D17)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" s="11">
         <f>E17/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G17" s="6">
         <v>4</v>
@@ -5544,44 +5544,44 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I17" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="11">
         <f>I17/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K17" s="12">
         <f>F17/(H17+J17)</f>
-        <v>0.71026077454586289</v>
+        <v>0.48544587058629574</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C18" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6">
         <f>SUM(C18:D18)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" s="11">
         <f>E18/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18" s="11">
         <f>G18/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -5592,76 +5592,76 @@
       </c>
       <c r="K18" s="12">
         <f>F18/(H18+J18)</f>
-        <v>0.70892986741054909</v>
+        <v>0.30268372820666706</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C19" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6">
         <f>SUM(C19:D19)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="11">
         <f>E19/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="11">
         <f>G19/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="11">
         <f>I19/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K19" s="12">
         <f>F19/(H19+J19)</f>
-        <v>0.69933368570669574</v>
+        <v>0.40065992410279444</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(C20:D20)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11">
         <f>E20/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="11">
         <f>G20/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
@@ -5672,116 +5672,116 @@
       </c>
       <c r="K20" s="12">
         <f>F20/(H20+J20)</f>
-        <v>0.68721419540207385</v>
+        <v>0.54686777215750271</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6">
         <f>SUM(C21:D21)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="11">
         <f>E21/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="11">
         <f>G21/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" s="11">
         <f>I21/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K21" s="12">
         <f>F21/(H21+J21)</f>
-        <v>0.68647736817326532</v>
+        <v>0.56226615987442408</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C22" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(C22:D22)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="11">
         <f>E22/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G22" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H22" s="11">
         <f>G22/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" s="11">
         <f>I22/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K22" s="12">
         <f>F22/(H22+J22)</f>
-        <v>0.67849245492602495</v>
+        <v>0.30049494307709584</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(C23:D23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="11">
         <f>E23/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" s="11">
         <f>G23/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I23" s="6">
         <v>3</v>
@@ -5792,95 +5792,95 @@
       </c>
       <c r="K23" s="12">
         <f>F23/(H23+J23)</f>
-        <v>0.65562533035002724</v>
+        <v>0.48625697479780172</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C24" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E24" s="6">
         <f>SUM(C24:D24)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24" s="11">
         <f>E24/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G24" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H24" s="11">
         <f>G24/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I24" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="11">
         <f>I24/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K24" s="12">
         <f>F24/(H24+J24)</f>
-        <v>0.65513336536977462</v>
+        <v>0.32801793296785958</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C25" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(C25:D25)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11">
         <f>E25/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G25" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H25" s="11">
         <f>G25/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I25" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="11">
         <f>I25/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K25" s="12">
         <f>F25/(H25+J25)</f>
-        <v>0.65513336536977462</v>
+        <v>0.2828812483282469</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
@@ -5904,164 +5904,164 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="11">
         <f>I26/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K26" s="12">
         <f>F26/(H26+J26)</f>
-        <v>0.62474017763824896</v>
+        <v>0.54635444195835603</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
       </c>
       <c r="D27" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6">
         <f>SUM(C27:D27)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="11">
         <f>E27/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H27" s="11">
         <f>G27/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" s="11">
         <f>I27/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K27" s="12">
         <f>F27/(H27+J27)</f>
-        <v>0.62407033470296847</v>
+        <v>0.39396688815467923</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6">
         <f>SUM(C28:D28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="11">
         <f>E28/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G28" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" s="11">
         <f>G28/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I28" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28" s="11">
         <f>I28/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K28" s="12">
         <f>F28/(H28+J28)</f>
-        <v>0.62407033470296847</v>
+        <v>0.40040935504456882</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6">
         <f>SUM(C29:D29)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="11">
         <f>E29/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G29" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29" s="11">
         <f>G29/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I29" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29" s="11">
         <f>I29/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K29" s="12">
         <f>F29/(H29+J29)</f>
-        <v>0.61145780767845626</v>
+        <v>0.39802799099587555</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="D30" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="6">
         <f>SUM(C30:D30)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="11">
         <f>E30/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="11">
         <f>G30/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -6072,295 +6072,295 @@
       </c>
       <c r="K30" s="12">
         <f>F30/(H30+J30)</f>
-        <v>0.60098988615419169</v>
+        <v>0.43726597575097809</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C31" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(C31:D31)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31" s="11">
         <f>E31/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G31" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H31" s="11">
         <f>G31/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I31" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" s="11">
         <f>I31/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K31" s="12">
         <f>F31/(H31+J31)</f>
-        <v>0.5962265410308123</v>
+        <v>0.39694221334369306</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C32" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E32" s="6">
         <f>SUM(C32:D32)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32" s="11">
         <f>E32/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G32" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H32" s="11">
         <f>G32/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I32" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32" s="11">
         <f>I32/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K32" s="12">
         <f>F32/(H32+J32)</f>
-        <v>0.567782249987138</v>
+        <v>0.26231579316458276</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C33" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6">
         <f>SUM(C33:D33)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="11">
         <f>E33/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G33" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" s="11">
         <f>G33/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I33" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33" s="11">
         <f>I33/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K33" s="12">
         <f>F33/(H33+J33)</f>
-        <v>0.567782249987138</v>
+        <v>0.48585108416775336</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C34" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="6">
         <f>SUM(C34:D34)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F34" s="11">
         <f>E34/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G34" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H34" s="11">
         <f>G34/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I34" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" s="11">
         <f>I34/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K34" s="12">
         <f>F34/(H34+J34)</f>
-        <v>0.56226615987442408</v>
+        <v>0.5962265410308123</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(C35:D35)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F35" s="11">
         <f>E35/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G35" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H35" s="11">
         <f>G35/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I35" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J35" s="11">
         <f>I35/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K35" s="12">
         <f>F35/(H35+J35)</f>
-        <v>0.56226615987442408</v>
+        <v>0.46830380739287653</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="6">
         <f>SUM(C36:D36)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" s="11">
         <f>E36/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="11">
         <f>G36/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I36" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="11">
         <f>I36/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K36" s="12">
         <f>F36/(H36+J36)</f>
-        <v>0.54686777215750271</v>
+        <v>0.71026077454586289</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C37" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" s="6">
         <f>SUM(C37:D37)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F37" s="11">
         <f>E37/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="11">
         <f>G37/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I37" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" s="11">
         <f>I37/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K37" s="12">
         <f>F37/(H37+J37)</f>
-        <v>0.54635444195835603</v>
+        <v>0.76417890437588876</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5">
         <v>7</v>
@@ -6377,110 +6377,110 @@
         <v>1.4223194748358862E-2</v>
       </c>
       <c r="G38" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38" s="11">
         <f>G38/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I38" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" s="11">
         <f>I38/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K38" s="12">
         <f>F38/(H38+J38)</f>
-        <v>0.5167296688933708</v>
+        <v>1.135564499974276</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="6">
         <f>SUM(C39:D39)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F39" s="11">
         <f>E39/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G39" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H39" s="11">
         <f>G39/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I39" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39" s="11">
         <f>I39/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K39" s="12">
         <f>F39/(H39+J39)</f>
-        <v>0.5167296688933708</v>
+        <v>1.1655561428444927</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5">
         <v>5</v>
       </c>
       <c r="D40" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6">
         <f>SUM(C40:D40)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="11">
         <f>E40/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G40" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H40" s="11">
         <f>G40/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J40" s="11">
         <f>I40/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K40" s="12">
         <f>F40/(H40+J40)</f>
-        <v>0.48625697479780172</v>
+        <v>0.3434227920881095</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5">
         <v>5</v>
@@ -6497,44 +6497,44 @@
         <v>1.0940919037199124E-2</v>
       </c>
       <c r="G41" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H41" s="11">
         <f>G41/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="I41" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J41" s="11">
         <f>I41/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K41" s="12">
         <f>F41/(H41+J41)</f>
-        <v>0.48585108416775336</v>
+        <v>0.27317722097917801</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(C42:D42)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="11">
         <f>E42/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G42" s="6">
         <v>4</v>
@@ -6544,63 +6544,63 @@
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="I42" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" s="11">
         <f>I42/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K42" s="12">
         <f>F42/(H42+J42)</f>
-        <v>0.48544587058629574</v>
+        <v>0.56226615987442408</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C43" s="5">
         <v>5</v>
       </c>
       <c r="D43" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="6">
         <f>SUM(C43:D43)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="11">
         <f>E43/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G43" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" s="11">
         <f>G43/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I43" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="11">
         <f>I43/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K43" s="12">
         <f>F43/(H43+J43)</f>
-        <v>0.48079190892335333</v>
+        <v>0.62407033470296847</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5">
         <v>7</v>
@@ -6624,277 +6624,277 @@
         <v>1.4962593516209476E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="11">
         <f>I44/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K44" s="12">
         <f>F44/(H44+J44)</f>
-        <v>0.47350718303057526</v>
+        <v>0.5167296688933708</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C45" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="6">
         <f>SUM(C45:D45)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="11">
         <f>E45/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G45" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="11">
         <f>G45/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J45" s="11">
         <f>I45/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K45" s="12">
         <f>F45/(H45+J45)</f>
-        <v>0.47111357007100951</v>
+        <v>0.46610578485122611</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C46" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="6">
         <f>SUM(C46:D46)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F46" s="11">
         <f>E46/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G46" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H46" s="11">
         <f>G46/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I46" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J46" s="11">
         <f>I46/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K46" s="12">
         <f>F46/(H46+J46)</f>
-        <v>0.46830380739287653</v>
+        <v>0.68721419540207385</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C47" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6">
         <f>SUM(C47:D47)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F47" s="11">
         <f>E47/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G47" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H47" s="11">
         <f>G47/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I47" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J47" s="11">
         <f>I47/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K47" s="12">
         <f>F47/(H47+J47)</f>
-        <v>0.46830380739287653</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C48" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E48" s="6">
         <f>SUM(C48:D48)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F48" s="11">
         <f>E48/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G48" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H48" s="11">
         <f>G48/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I48" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J48" s="11">
         <f>I48/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K48" s="12">
         <f>F48/(H48+J48)</f>
-        <v>0.46610578485122611</v>
+        <v>0.78616003844372961</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C49" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(C49:D49)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F49" s="11">
         <f>E49/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G49" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H49" s="11">
         <f>G49/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I49" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J49" s="11">
         <f>I49/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49/(H49+J49)</f>
-        <v>0.46610578485122611</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C50" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E50" s="6">
         <f>SUM(C50:D50)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F50" s="11">
         <f>E50/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G50" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H50" s="11">
         <f>G50/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I50" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J50" s="11">
         <f>I50/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K50" s="12">
         <f>F50/(H50+J50)</f>
-        <v>0.43726597575097809</v>
+        <v>0.43708355356668477</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C51" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D51" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51" s="6">
         <f>SUM(C51:D51)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F51" s="11">
         <f>E51/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G51" s="6">
         <v>8</v>
@@ -6904,77 +6904,77 @@
         <v>1.9950124688279301E-2</v>
       </c>
       <c r="I51" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J51" s="11">
         <f>I51/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K51" s="12">
         <f>F51/(H51+J51)</f>
-        <v>0.43708355356668488</v>
+        <v>0.31237008881912448</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E52" s="6">
         <f>SUM(C52:D52)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" s="11">
         <f>E52/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="11">
         <f>G52/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I52" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52" s="11">
         <f>I52/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K52" s="12">
         <f>F52/(H52+J52)</f>
-        <v>0.43708355356668482</v>
+        <v>0.93711026645737328</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53" s="6">
         <f>SUM(C53:D53)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F53" s="11">
         <f>E53/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+        <v>9.8468271334792128E-3</v>
       </c>
       <c r="G53" s="6">
         <v>7</v>
@@ -6984,263 +6984,263 @@
         <v>1.7456359102244388E-2</v>
       </c>
       <c r="I53" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J53" s="11">
         <f>I53/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K53" s="12">
         <f>F53/(H53+J53)</f>
-        <v>0.43708355356668477</v>
+        <v>0.26218450397881471</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C54" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54" s="6">
         <f>SUM(C54:D54)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F54" s="11">
         <f>E54/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G54" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54" s="11">
         <f>G54/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I54" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J54" s="11">
         <f>I54/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K54" s="12">
         <f>F54/(H54+J54)</f>
-        <v>0.43697417329802446</v>
+        <v>0.62407033470296847</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="6">
         <f>SUM(C55:D55)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F55" s="11">
         <f>E55/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G55" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H55" s="11">
         <f>G55/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I55" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J55" s="11">
         <f>I55/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K55" s="12">
         <f>F55/(H55+J55)</f>
-        <v>0.43687851046102416</v>
+        <v>0.81216223092972362</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(C56:D56)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F56" s="11">
         <f>E56/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G56" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H56" s="11">
         <f>G56/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I56" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J56" s="11">
         <f>I56/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K56" s="12">
         <f>F56/(H56+J56)</f>
-        <v>0.40065992410279444</v>
+        <v>0.8746362486935485</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C57" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
       </c>
       <c r="E57" s="6">
         <f>SUM(C57:D57)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F57" s="11">
         <f>E57/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G57" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H57" s="11">
         <f>G57/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I57" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J57" s="11">
         <f>I57/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K57" s="12">
         <f>F57/(H57+J57)</f>
-        <v>0.40065992410279444</v>
+        <v>0.81216223092972362</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D58" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58" s="6">
         <f>SUM(C58:D58)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F58" s="11">
         <f>E58/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G58" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H58" s="11">
         <f>G58/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I58" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J58" s="11">
         <f>I58/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>2.2613065326633167E-2</v>
       </c>
       <c r="K58" s="12">
         <f>F58/(H58+J58)</f>
-        <v>0.40040935504456882</v>
+        <v>0.38851871428149759</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C59" s="5">
         <v>5</v>
       </c>
       <c r="D59" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6">
         <f>SUM(C59:D59)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" s="11">
         <f>E59/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G59" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H59" s="11">
         <f>G59/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I59" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" s="11">
         <f>I59/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K59" s="12">
         <f>F59/(H59+J59)</f>
-        <v>0.39802799099587555</v>
+        <v>0.68647736817326532</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C60" s="5">
         <v>5</v>
@@ -7257,30 +7257,30 @@
         <v>1.0940919037199124E-2</v>
       </c>
       <c r="G60" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" s="11">
         <f>G60/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I60" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60" s="11">
         <f>I60/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K60" s="12">
         <f>F60/(H60+J60)</f>
-        <v>0.39694221334369306</v>
+        <v>0.43708355356668482</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C61" s="5">
         <v>5</v>
@@ -7297,110 +7297,110 @@
         <v>9.8468271334792128E-3</v>
       </c>
       <c r="G61" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H61" s="11">
         <f>G61/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I61" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J61" s="11">
         <f>I61/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K61" s="12">
         <f>F61/(H61+J61)</f>
-        <v>0.39396688815467923</v>
+        <v>0.39308001922186481</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C62" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" s="6">
         <f>SUM(C62:D62)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F62" s="11">
         <f>E62/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G62" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H62" s="11">
         <f>G62/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>2.2443890274314215E-2</v>
       </c>
       <c r="I62" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J62" s="11">
         <f>I62/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K62" s="12">
         <f>F62/(H62+J62)</f>
-        <v>0.39308001922186481</v>
+        <v>0.36003067969049607</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C63" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="5">
         <v>8</v>
       </c>
       <c r="E63" s="6">
         <f>SUM(C63:D63)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="11">
         <f>E63/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G63" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H63" s="11">
         <f>G63/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>1.7456359102244388E-2</v>
       </c>
       <c r="I63" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J63" s="11">
         <f>I63/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
+        <v>2.0100502512562814E-2</v>
       </c>
       <c r="K63" s="12">
         <f>F63/(H63+J63)</f>
-        <v>0.38851871428149759</v>
+        <v>0.43697417329802446</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C64" s="5">
         <v>7</v>
@@ -7417,36 +7417,36 @@
         <v>1.5317286652078774E-2</v>
       </c>
       <c r="G64" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H64" s="11">
         <f>G64/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I64" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J64" s="11">
         <f>I64/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K64" s="12">
         <f>F64/(H64+J64)</f>
-        <v>0.36003067969049607</v>
+        <v>0.76489621874169855</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>1</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C65" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="6">
         <f>SUM(C65:D65)</f>
@@ -7457,91 +7457,91 @@
         <v>1.4223194748358862E-2</v>
       </c>
       <c r="G65" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H65" s="11">
         <f>G65/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I65" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J65" s="11">
         <f>I65/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.507537688442211E-2</v>
       </c>
       <c r="K65" s="12">
         <f>F65/(H65+J65)</f>
-        <v>0.35513038727293145</v>
+        <v>0.70892986741054909</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C66" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" s="6">
         <f>SUM(C66:D66)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F66" s="11">
         <f>E66/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G66" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H66" s="11">
         <f>G66/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I66" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J66" s="11">
         <f>I66/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K66" s="12">
         <f>F66/(H66+J66)</f>
-        <v>0.3434227920881095</v>
+        <v>0.69933368570669574</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5">
         <v>5</v>
       </c>
       <c r="D67" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" s="6">
         <f>SUM(C67:D67)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" s="11">
         <f>E67/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.2035010940919038E-2</v>
       </c>
       <c r="G67" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H67" s="11">
         <f>G67/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I67" s="6">
         <v>5</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="K67" s="12">
         <f>F67/(H67+J67)</f>
-        <v>0.33650969290786392</v>
+        <v>0.48079190892335333</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7597,10 +7597,10 @@
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C69" s="5">
         <v>5</v>
@@ -7617,84 +7617,84 @@
         <v>9.8468271334792128E-3</v>
       </c>
       <c r="G69" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H69" s="11">
         <f>G69/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I69" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J69" s="11">
         <f>I69/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K69" s="12">
         <f>F69/(H69+J69)</f>
-        <v>0.32801793296785958</v>
+        <v>0.65562533035002724</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="C70" s="5">
         <v>5</v>
       </c>
       <c r="D70" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" s="6">
         <f>SUM(C70:D70)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" s="11">
         <f>E70/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.0940919037199124E-2</v>
       </c>
       <c r="G70" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H70" s="11">
         <f>G70/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I70" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J70" s="11">
         <f>I70/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>7.537688442211055E-3</v>
       </c>
       <c r="K70" s="12">
         <f>F70/(H70+J70)</f>
-        <v>0.32076881699211701</v>
+        <v>0.728472589277808</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C71" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E71" s="6">
         <f>SUM(C71:D71)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F71" s="11">
         <f>E71/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G71" s="6">
         <v>8</v>
@@ -7704,37 +7704,37 @@
         <v>1.9950124688279301E-2</v>
       </c>
       <c r="I71" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="11">
         <f>I71/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K71" s="12">
         <f>F71/(H71+J71)</f>
-        <v>0.31237008881912448</v>
+        <v>0.47111357007100951</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C72" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E72" s="6">
         <f>SUM(C72:D72)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F72" s="11">
         <f>E72/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G72" s="6">
         <v>7</v>
@@ -7744,197 +7744,197 @@
         <v>1.7456359102244388E-2</v>
       </c>
       <c r="I72" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J72" s="11">
         <f>I72/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K72" s="12">
         <f>F72/(H72+J72)</f>
-        <v>0.30268372820666706</v>
+        <v>0.46830380739287653</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C73" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D73" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6">
         <f>SUM(C73:D73)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F73" s="11">
         <f>E73/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.6411378555798686E-2</v>
       </c>
       <c r="G73" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H73" s="11">
         <f>G73/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.2468827930174564E-2</v>
       </c>
       <c r="I73" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J73" s="11">
         <f>I73/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K73" s="12">
         <f>F73/(H73+J73)</f>
-        <v>0.30049494307709584</v>
+        <v>0.72877662625163009</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C74" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" s="6">
         <f>SUM(C74:D74)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11">
         <f>E74/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G74" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H74" s="11">
         <f>G74/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="I74" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J74" s="11">
         <f>I74/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.2562814070351759E-2</v>
       </c>
       <c r="K74" s="12">
         <f>F74/(H74+J74)</f>
-        <v>0.2828812483282469</v>
+        <v>0.5167296688933708</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C75" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" s="6">
         <f>SUM(C75:D75)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F75" s="11">
         <f>E75/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+        <v>1.5317286652078774E-2</v>
       </c>
       <c r="G75" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H75" s="11">
         <f>G75/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="I75" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J75" s="11">
         <f>I75/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
+        <v>1.7587939698492462E-2</v>
       </c>
       <c r="K75" s="12">
         <f>F75/(H75+J75)</f>
-        <v>0.27317722097917801</v>
+        <v>0.67849245492602495</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C76" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" s="6">
         <f>SUM(C76:D76)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F76" s="11">
         <f>E76/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.4223194748358862E-2</v>
       </c>
       <c r="G76" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H76" s="11">
         <f>G76/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="I76" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J76" s="11">
         <f>I76/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
+        <v>1.0050251256281407E-2</v>
       </c>
       <c r="K76" s="12">
         <f>F76/(H76+J76)</f>
-        <v>0.26231579316458276</v>
+        <v>0.81129143511385904</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C77" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D77" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E77" s="6">
         <f>SUM(C77:D77)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F77" s="11">
         <f>E77/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+        <v>1.7505470459518599E-2</v>
       </c>
       <c r="G77" s="6">
         <v>7</v>
@@ -7952,14 +7952,15 @@
       </c>
       <c r="K77" s="12">
         <f>F77/(H77+J77)</f>
-        <v>0.26218450397881471</v>
+        <v>0.46610578485122611</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K77">
-    <sortCondition descending="1" ref="K1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/教师优先级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="159">
   <si>
     <t>序号</t>
   </si>
@@ -635,6 +635,15 @@
   </si>
   <si>
     <t>查看回帖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示社区内热门博主板块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击热门博主进入博主个人
+中心页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -732,22 +741,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -774,9 +772,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1085,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1147,30 +1156,30 @@
         <v>8</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(C2:D2)</f>
         <v>14</v>
       </c>
-      <c r="F2" s="11">
-        <f>E2/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F33" si="1">E2/SUM(E:E)</f>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G2" s="6">
         <v>8</v>
       </c>
-      <c r="H2" s="11">
-        <f>G2/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H33" si="2">G2/SUM(G:G)</f>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="J2" s="11">
-        <f>I2/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <f>F2/(H2+J2)</f>
-        <v>0.36433019475308254</v>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J33" si="3">I2/SUM(I:I)</f>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2:K33" si="4">F2/(H2+J2)</f>
+        <v>0.36898898598020485</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1187,30 +1196,30 @@
         <v>8</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F3" s="11">
-        <f>E3/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F3" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
-        <f>G3/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H3" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="11">
-        <f>I3/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K3" s="12">
-        <f>F3/(H3+J3)</f>
-        <v>1.1103396411522515</v>
+      <c r="J3" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="4"/>
+        <v>1.12453786203491</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,30 +1236,30 @@
         <v>7</v>
       </c>
       <c r="E4" s="6">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4" s="11">
-        <f>E4/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="11">
-        <f>G4/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
-        <f>I4/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <f>F4/(H4+J4)</f>
-        <v>0.49212889558591816</v>
+      <c r="J4" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49832902024613873</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,30 +1276,30 @@
         <v>6</v>
       </c>
       <c r="E5" s="6">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="11">
-        <f>E5/SUM(E:E)</f>
-        <v>1.0398613518197574E-2</v>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0212765957446808E-2</v>
       </c>
       <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
-        <f>G5/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I5" s="6">
         <v>9</v>
       </c>
-      <c r="J5" s="11">
-        <f>I5/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <f>F5/(H5+J5)</f>
-        <v>0.29389544486246244</v>
+      <c r="J5" s="10">
+        <f t="shared" si="3"/>
+        <v>1.8145161290322582E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.29768945718536627</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,30 +1316,30 @@
         <v>8</v>
       </c>
       <c r="E6" s="6">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F6" s="11">
-        <f>E6/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="11">
-        <f>G6/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="11">
-        <f>I6/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K6" s="12">
-        <f>F6/(H6+J6)</f>
-        <v>0.77338721771382013</v>
+      <c r="J6" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.78304741693908975</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,30 +1356,30 @@
         <v>8</v>
       </c>
       <c r="E7" s="6">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F7" s="11">
-        <f>E7/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="11">
-        <f>G7/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="11">
-        <f>I7/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K7" s="12">
-        <f>F7/(H7+J7)</f>
-        <v>0.89236986659286932</v>
+      <c r="J7" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.90351625031433425</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,30 +1396,30 @@
         <v>7</v>
       </c>
       <c r="E8" s="6">
-        <f>SUM(C8:D8)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F8" s="11">
-        <f>E8/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
-        <f>G8/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I8" s="6">
         <v>3</v>
       </c>
-      <c r="J8" s="11">
-        <f>I8/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K8" s="12">
-        <f>F8/(H8+J8)</f>
-        <v>0.83287854215334467</v>
+      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.84328183362671205</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,30 +1436,30 @@
         <v>8</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="11">
-        <f>E9/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G9" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
-        <f>G9/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="11">
-        <f>I9/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K9" s="12">
-        <f>F9/(H9+J9)</f>
-        <v>0.89236986659286932</v>
+      <c r="J9" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.90351625031433425</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,30 +1476,30 @@
         <v>8</v>
       </c>
       <c r="E10" s="6">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F10" s="11">
-        <f>E10/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="11">
-        <f>G10/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I10" s="6">
         <v>5</v>
       </c>
-      <c r="J10" s="11">
-        <f>I10/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <f>F10/(H10+J10)</f>
-        <v>0.62456604814814154</v>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.63255254739463673</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1507,30 +1516,30 @@
         <v>7</v>
       </c>
       <c r="E11" s="6">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F11" s="11">
-        <f>E11/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
       </c>
-      <c r="H11" s="11">
-        <f>G11/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="11">
-        <f>I11/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K11" s="12">
-        <f>F11/(H11+J11)</f>
-        <v>0.45107547921810215</v>
+      <c r="J11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4568435064516822</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1547,30 +1556,30 @@
         <v>7</v>
       </c>
       <c r="E12" s="6">
-        <f>SUM(C12:D12)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F12" s="11">
-        <f>E12/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="11">
-        <f>G12/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="11">
-        <f>I12/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K12" s="12">
-        <f>F12/(H12+J12)</f>
-        <v>0.58304965388461671</v>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.59026325279480707</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,30 +1596,30 @@
         <v>6</v>
       </c>
       <c r="E13" s="6">
-        <f>SUM(C13:D13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F13" s="11">
-        <f>E13/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="11">
-        <f>G13/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="11">
-        <f>I13/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K13" s="12">
-        <f>F13/(H13+J13)</f>
-        <v>0.9021509584362043</v>
+      <c r="J13" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="4"/>
+        <v>0.9136870129033644</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,30 +1636,30 @@
         <v>8</v>
       </c>
       <c r="E14" s="6">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F14" s="11">
-        <f>E14/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
       </c>
-      <c r="H14" s="11">
-        <f>G14/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="11">
-        <f>I14/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K14" s="12">
-        <f>F14/(H14+J14)</f>
-        <v>1.1103396411522515</v>
+      <c r="J14" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.12453786203491</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1667,30 +1676,30 @@
         <v>6</v>
       </c>
       <c r="E15" s="6">
-        <f>SUM(C15:D15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F15" s="11">
-        <f>E15/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="11">
-        <f>G15/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="11">
-        <f>I15/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K15" s="12">
-        <f>F15/(H15+J15)</f>
-        <v>0.76335850329217281</v>
+      <c r="J15" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="4"/>
+        <v>0.77311978014900073</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1707,30 +1716,30 @@
         <v>5</v>
       </c>
       <c r="E16" s="6">
-        <f>SUM(C16:D16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F16" s="11">
-        <f>E16/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="11">
-        <f>G16/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="11">
-        <f>I16/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K16" s="12">
-        <f>F16/(H16+J16)</f>
-        <v>0.69396227572015712</v>
+      <c r="J16" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="4"/>
+        <v>0.70283616377181879</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1747,30 +1756,30 @@
         <v>4</v>
       </c>
       <c r="E17" s="6">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F17" s="11">
-        <f>E17/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="11">
-        <f>G17/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="11">
-        <f>I17/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K17" s="12">
-        <f>F17/(H17+J17)</f>
-        <v>0.62456604814814143</v>
+      <c r="J17" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="4"/>
+        <v>0.63255254739463684</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1787,30 +1796,30 @@
         <v>5</v>
       </c>
       <c r="E18" s="6">
-        <f>SUM(C18:D18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F18" s="11">
-        <f>E18/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G18" s="6">
         <v>8</v>
       </c>
-      <c r="H18" s="11">
-        <f>G18/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I18" s="6">
         <v>5</v>
       </c>
-      <c r="J18" s="11">
-        <f>I18/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K18" s="12">
-        <f>F18/(H18+J18)</f>
-        <v>0.32036721231404536</v>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="4"/>
+        <v>0.32431040119410481</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1827,30 +1836,30 @@
         <v>5</v>
       </c>
       <c r="E19" s="6">
-        <f>SUM(C19:D19)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F19" s="11">
-        <f>E19/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G19" s="6">
         <v>5</v>
       </c>
-      <c r="H19" s="11">
-        <f>G19/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I19" s="6">
         <v>8</v>
       </c>
-      <c r="J19" s="11">
-        <f>I19/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K19" s="12">
-        <f>F19/(H19+J19)</f>
-        <v>0.32021338682797906</v>
+      <c r="J19" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="4"/>
+        <v>0.32446147746795295</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1867,30 +1876,30 @@
         <v>5</v>
       </c>
       <c r="E20" s="6">
-        <f>SUM(C20:D20)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F20" s="11">
-        <f>E20/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G20" s="6">
         <v>3</v>
       </c>
-      <c r="H20" s="11">
-        <f>G20/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I20" s="6">
         <v>7</v>
       </c>
-      <c r="J20" s="11">
-        <f>I20/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K20" s="12">
-        <f>F20/(H20+J20)</f>
-        <v>0.41620412750181257</v>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.42187197958683975</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1907,30 +1916,30 @@
         <v>4</v>
       </c>
       <c r="E21" s="6">
-        <f>SUM(C21:D21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F21" s="11">
-        <f>E21/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G21" s="6">
         <v>4</v>
       </c>
-      <c r="H21" s="11">
-        <f>G21/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I21" s="6">
         <v>6</v>
       </c>
-      <c r="J21" s="11">
-        <f>I21/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K21" s="12">
-        <f>F21/(H21+J21)</f>
-        <v>0.37466165559947812</v>
+      <c r="J21" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.37960813956484762</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1947,30 +1956,30 @@
         <v>5</v>
       </c>
       <c r="E22" s="6">
-        <f>SUM(C22:D22)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F22" s="11">
-        <f>E22/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="H22" s="11">
-        <f>G22/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H22" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I22" s="6">
         <v>6</v>
       </c>
-      <c r="J22" s="11">
-        <f>I22/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K22" s="12">
-        <f>F22/(H22+J22)</f>
-        <v>0.41629072844386455</v>
+      <c r="J22" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.42178682173871962</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1987,30 +1996,30 @@
         <v>5</v>
       </c>
       <c r="E23" s="6">
-        <f>SUM(C23:D23)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F23" s="11">
-        <f>E23/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="H23" s="11">
-        <f>G23/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H23" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I23" s="6">
         <v>6</v>
       </c>
-      <c r="J23" s="11">
-        <f>I23/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K23" s="12">
-        <f>F23/(H23+J23)</f>
-        <v>0.41629072844386455</v>
+      <c r="J23" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="4"/>
+        <v>0.42178682173871962</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,30 +2036,30 @@
         <v>5</v>
       </c>
       <c r="E24" s="6">
-        <f>SUM(C24:D24)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F24" s="11">
-        <f>E24/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="11">
-        <f>G24/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I24" s="6">
         <v>6</v>
       </c>
-      <c r="J24" s="11">
-        <f>I24/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K24" s="12">
-        <f>F24/(H24+J24)</f>
-        <v>0.41629072844386455</v>
+      <c r="J24" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="4"/>
+        <v>0.42178682173871962</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2067,30 +2076,30 @@
         <v>5</v>
       </c>
       <c r="E25" s="6">
-        <f>SUM(C25:D25)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F25" s="11">
-        <f>E25/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="11">
-        <f>G25/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H25" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I25" s="6">
         <v>6</v>
       </c>
-      <c r="J25" s="11">
-        <f>I25/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K25" s="12">
-        <f>F25/(H25+J25)</f>
-        <v>0.41629072844386455</v>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.42178682173871962</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2107,30 +2116,30 @@
         <v>5</v>
       </c>
       <c r="E26" s="6">
-        <f>SUM(C26:D26)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F26" s="11">
-        <f>E26/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G26" s="6">
         <v>7</v>
       </c>
-      <c r="H26" s="11">
-        <f>G26/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I26" s="6">
         <v>9</v>
       </c>
-      <c r="J26" s="11">
-        <f>I26/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="K26" s="12">
-        <f>F26/(H26+J26)</f>
-        <v>0.26020200818067535</v>
+      <c r="J26" s="10">
+        <f t="shared" si="3"/>
+        <v>1.8145161290322582E-2</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="4"/>
+        <v>0.26359681025528153</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2147,30 +2156,30 @@
         <v>7</v>
       </c>
       <c r="E27" s="6">
-        <f>SUM(C27:D27)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F27" s="11">
-        <f>E27/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G27" s="6">
         <v>9</v>
       </c>
-      <c r="H27" s="11">
-        <f>G27/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="I27" s="6">
         <v>6</v>
       </c>
-      <c r="J27" s="11">
-        <f>I27/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K27" s="12">
-        <f>F27/(H27+J27)</f>
-        <v>0.36093550002381031</v>
+      <c r="J27" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="4"/>
+        <v>0.36540106125392818</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2187,30 +2196,30 @@
         <v>7</v>
       </c>
       <c r="E28" s="6">
-        <f>SUM(C28:D28)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F28" s="11">
-        <f>E28/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G28" s="6">
         <v>4</v>
       </c>
-      <c r="H28" s="11">
-        <f>G28/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H28" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I28" s="6">
         <v>5</v>
       </c>
-      <c r="J28" s="11">
-        <f>I28/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K28" s="12">
-        <f>F28/(H28+J28)</f>
-        <v>0.64762324560964135</v>
+      <c r="J28" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="4"/>
+        <v>0.65605397641871799</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2227,30 +2236,30 @@
         <v>5</v>
       </c>
       <c r="E29" s="6">
-        <f>SUM(C29:D29)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F29" s="11">
-        <f>E29/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G29" s="6">
         <v>7</v>
       </c>
-      <c r="H29" s="11">
-        <f>G29/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H29" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I29" s="6">
         <v>6</v>
       </c>
-      <c r="J29" s="11">
-        <f>I29/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K29" s="12">
-        <f>F29/(H29+J29)</f>
-        <v>0.35234751280680982</v>
+      <c r="J29" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="4"/>
+        <v>0.35679681874929819</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2267,30 +2276,30 @@
         <v>8</v>
       </c>
       <c r="E30" s="6">
-        <f>SUM(C30:D30)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F30" s="11">
-        <f>E30/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G30" s="6">
         <v>6</v>
       </c>
-      <c r="H30" s="11">
-        <f>G30/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H30" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I30" s="6">
         <v>6</v>
       </c>
-      <c r="J30" s="11">
-        <f>I30/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K30" s="12">
-        <f>F30/(H30+J30)</f>
-        <v>0.48577359300410999</v>
+      <c r="J30" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49198531464027317</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2307,30 +2316,30 @@
         <v>8</v>
       </c>
       <c r="E31" s="6">
-        <f>SUM(C31:D31)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F31" s="11">
-        <f>E31/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
       </c>
-      <c r="H31" s="11">
-        <f>G31/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H31" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I31" s="6">
         <v>3</v>
       </c>
-      <c r="J31" s="11">
-        <f>I31/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K31" s="12">
-        <f>F31/(H31+J31)</f>
-        <v>0.83297142478322694</v>
+      <c r="J31" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.84319068444635237</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2347,30 +2356,30 @@
         <v>7</v>
       </c>
       <c r="E32" s="6">
-        <f>SUM(C32:D32)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F32" s="11">
-        <f>E32/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G32" s="6">
         <v>4</v>
       </c>
-      <c r="H32" s="11">
-        <f>G32/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H32" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I32" s="6">
         <v>3</v>
       </c>
-      <c r="J32" s="11">
-        <f>I32/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K32" s="12">
-        <f>F32/(H32+J32)</f>
-        <v>0.77338721771382013</v>
+      <c r="J32" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="4"/>
+        <v>0.78304741693908975</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2387,30 +2396,30 @@
         <v>4</v>
       </c>
       <c r="E33" s="6">
-        <f>SUM(C33:D33)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F33" s="11">
-        <f>E33/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G33" s="6">
         <v>8</v>
       </c>
-      <c r="H33" s="11">
-        <f>G33/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H33" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I33" s="6">
         <v>8</v>
       </c>
-      <c r="J33" s="11">
-        <f>I33/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K33" s="12">
-        <f>F33/(H33+J33)</f>
-        <v>0.23421226805555306</v>
+      <c r="J33" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="4"/>
+        <v>0.2372072052729888</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2427,30 +2436,30 @@
         <v>5</v>
       </c>
       <c r="E34" s="6">
-        <f>SUM(C34:D34)</f>
+        <f t="shared" ref="E34:E65" si="5">SUM(C34:D34)</f>
         <v>10</v>
       </c>
-      <c r="F34" s="11">
-        <f>E34/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F65" si="6">E34/SUM(E:E)</f>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G34" s="6">
         <v>6</v>
       </c>
-      <c r="H34" s="11">
-        <f>G34/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H65" si="7">G34/SUM(G:G)</f>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I34" s="6">
         <v>3</v>
       </c>
-      <c r="J34" s="11">
-        <f>I34/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K34" s="12">
-        <f>F34/(H34+J34)</f>
-        <v>0.46280204508471273</v>
+      <c r="J34" s="10">
+        <f t="shared" ref="J34:J65" si="8">I34/SUM(I:I)</f>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" ref="K34:K65" si="9">F34/(H34+J34)</f>
+        <v>0.46839989125613474</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2467,30 +2476,30 @@
         <v>5</v>
       </c>
       <c r="E35" s="6">
-        <f>SUM(C35:D35)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F35" s="11">
-        <f>E35/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F35" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G35" s="6">
         <v>7</v>
       </c>
-      <c r="H35" s="11">
-        <f>G35/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H35" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="11">
-        <f>I35/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K35" s="12">
-        <f>F35/(H35+J35)</f>
-        <v>0.34704132539483318</v>
+      <c r="J35" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="9"/>
+        <v>0.35135899022929495</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2507,30 +2516,30 @@
         <v>7</v>
       </c>
       <c r="E36" s="6">
-        <f>SUM(C36:D36)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F36" s="11">
-        <f>E36/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F36" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G36" s="6">
         <v>9</v>
       </c>
-      <c r="H36" s="11">
-        <f>G36/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+      <c r="H36" s="10">
+        <f t="shared" si="7"/>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="I36" s="6">
         <v>8</v>
       </c>
-      <c r="J36" s="11">
-        <f>I36/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K36" s="12">
-        <f>F36/(H36+J36)</f>
-        <v>0.31842571170073181</v>
+      <c r="J36" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.32245862884160759</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2547,30 +2556,30 @@
         <v>4</v>
       </c>
       <c r="E37" s="6">
-        <f>SUM(C37:D37)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F37" s="11">
-        <f>E37/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F37" s="10">
+        <f t="shared" si="6"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G37" s="6">
         <v>4</v>
       </c>
-      <c r="H37" s="11">
-        <f>G37/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H37" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I37" s="6">
         <v>4</v>
       </c>
-      <c r="J37" s="11">
-        <f>I37/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K37" s="12">
-        <f>F37/(H37+J37)</f>
-        <v>0.46842453611110613</v>
+      <c r="J37" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="9"/>
+        <v>0.47441441054597761</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2587,30 +2596,30 @@
         <v>7</v>
       </c>
       <c r="E38" s="6">
-        <f>SUM(C38:D38)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F38" s="11">
-        <f>E38/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F38" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G38" s="6">
         <v>5</v>
       </c>
-      <c r="H38" s="11">
-        <f>G38/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H38" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I38" s="6">
         <v>3</v>
       </c>
-      <c r="J38" s="11">
-        <f>I38/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K38" s="12">
-        <f>F38/(H38+J38)</f>
-        <v>0.72884999668532358</v>
+      <c r="J38" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="9"/>
+        <v>0.73779184889055838</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2627,30 +2636,30 @@
         <v>6</v>
       </c>
       <c r="E39" s="6">
-        <f>SUM(C39:D39)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F39" s="11">
-        <f>E39/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F39" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G39" s="6">
         <v>8</v>
       </c>
-      <c r="H39" s="11">
-        <f>G39/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H39" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I39" s="6">
         <v>7</v>
       </c>
-      <c r="J39" s="11">
-        <f>I39/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K39" s="12">
-        <f>F39/(H39+J39)</f>
-        <v>0.36088541878334635</v>
+      <c r="J39" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="9"/>
+        <v>0.36545022055182325</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2667,30 +2676,30 @@
         <v>8</v>
       </c>
       <c r="E40" s="6">
-        <f>SUM(C40:D40)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F40" s="11">
-        <f>E40/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F40" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="11">
-        <f>G40/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H40" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I40" s="6">
         <v>3</v>
       </c>
-      <c r="J40" s="11">
-        <f>I40/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K40" s="12">
-        <f>F40/(H40+J40)</f>
-        <v>0.83297142478322694</v>
+      <c r="J40" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="9"/>
+        <v>0.84319068444635237</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2707,30 +2716,30 @@
         <v>6</v>
       </c>
       <c r="E41" s="6">
-        <f>SUM(C41:D41)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F41" s="11">
-        <f>E41/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F41" s="10">
+        <f t="shared" si="6"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
       </c>
-      <c r="H41" s="11">
-        <f>G41/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H41" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I41" s="6">
         <v>4</v>
       </c>
-      <c r="J41" s="11">
-        <f>I41/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K41" s="12">
-        <f>F41/(H41+J41)</f>
-        <v>0.57251887746912966</v>
+      <c r="J41" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="9"/>
+        <v>0.57983983511175052</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2747,30 +2756,30 @@
         <v>5</v>
       </c>
       <c r="E42" s="6">
-        <f>SUM(C42:D42)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F42" s="11">
-        <f>E42/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F42" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G42" s="6">
         <v>8</v>
       </c>
-      <c r="H42" s="11">
-        <f>G42/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H42" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I42" s="6">
         <v>7</v>
       </c>
-      <c r="J42" s="11">
-        <f>I42/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K42" s="12">
-        <f>F42/(H42+J42)</f>
-        <v>0.27760416829488177</v>
+      <c r="J42" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="9"/>
+        <v>0.28111555427063323</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2787,30 +2796,30 @@
         <v>4</v>
       </c>
       <c r="E43" s="6">
-        <f>SUM(C43:D43)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F43" s="11">
-        <f>E43/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F43" s="10">
+        <f t="shared" si="6"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G43" s="6">
         <v>5</v>
       </c>
-      <c r="H43" s="11">
-        <f>G43/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H43" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I43" s="6">
         <v>4</v>
       </c>
-      <c r="J43" s="11">
-        <f>I43/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K43" s="12">
-        <f>F43/(H43+J43)</f>
-        <v>0.41642551267601574</v>
+      <c r="J43" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="9"/>
+        <v>0.42165442228794953</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2827,30 +2836,30 @@
         <v>4</v>
       </c>
       <c r="E44" s="6">
-        <f>SUM(C44:D44)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F44" s="11">
-        <f>E44/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F44" s="10">
+        <f t="shared" si="6"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G44" s="6">
         <v>6</v>
       </c>
-      <c r="H44" s="11">
-        <f>G44/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H44" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I44" s="6">
         <v>5</v>
       </c>
-      <c r="J44" s="11">
-        <f>I44/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K44" s="12">
-        <f>F44/(H44+J44)</f>
-        <v>0.34070462002102025</v>
+      <c r="J44" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="9"/>
+        <v>0.34499701401655758</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2867,30 +2876,30 @@
         <v>5</v>
       </c>
       <c r="E45" s="6">
-        <f>SUM(C45:D45)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F45" s="11">
-        <f>E45/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F45" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G45" s="6">
         <v>7</v>
       </c>
-      <c r="H45" s="11">
-        <f>G45/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H45" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I45" s="6">
         <v>7</v>
       </c>
-      <c r="J45" s="11">
-        <f>I45/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K45" s="12">
-        <f>F45/(H45+J45)</f>
-        <v>0.29741240388006734</v>
+      <c r="J45" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="9"/>
+        <v>0.30121549875935083</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2907,30 +2916,30 @@
         <v>5</v>
       </c>
       <c r="E46" s="6">
-        <f>SUM(C46:D46)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F46" s="11">
-        <f>E46/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F46" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G46" s="6">
         <v>4</v>
       </c>
-      <c r="H46" s="11">
-        <f>G46/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H46" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I46" s="6">
         <v>4</v>
       </c>
-      <c r="J46" s="11">
-        <f>I46/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K46" s="12">
-        <f>F46/(H46+J46)</f>
-        <v>0.52047170679011789</v>
+      <c r="J46" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="9"/>
+        <v>0.52712712282886409</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2947,30 +2956,30 @@
         <v>5</v>
       </c>
       <c r="E47" s="6">
-        <f>SUM(C47:D47)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F47" s="11">
-        <f>E47/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F47" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G47" s="6">
         <v>3</v>
       </c>
-      <c r="H47" s="11">
-        <f>G47/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H47" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I47" s="6">
         <v>5</v>
       </c>
-      <c r="J47" s="11">
-        <f>I47/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K47" s="12">
-        <f>F47/(H47+J47)</f>
-        <v>0.52033634353737668</v>
+      <c r="J47" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="9"/>
+        <v>0.52726013497189428</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,30 +2996,30 @@
         <v>5</v>
       </c>
       <c r="E48" s="6">
-        <f>SUM(C48:D48)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F48" s="11">
-        <f>E48/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F48" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="H48" s="11">
-        <f>G48/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+      <c r="H48" s="10">
+        <f t="shared" si="7"/>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="I48" s="6">
         <v>3</v>
       </c>
-      <c r="J48" s="11">
-        <f>I48/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K48" s="12">
-        <f>F48/(H48+J48)</f>
-        <v>0.83258145688772911</v>
+      <c r="J48" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="9"/>
+        <v>0.84357364347743924</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3027,30 +3036,30 @@
         <v>5</v>
       </c>
       <c r="E49" s="6">
-        <f>SUM(C49:D49)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F49" s="11">
-        <f>E49/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F49" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G49" s="6">
         <v>3</v>
       </c>
-      <c r="H49" s="11">
-        <f>G49/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H49" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I49" s="6">
         <v>3</v>
       </c>
-      <c r="J49" s="11">
-        <f>I49/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K49" s="12">
-        <f>F49/(H49+J49)</f>
-        <v>0.69396227572015712</v>
+      <c r="J49" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="9"/>
+        <v>0.70283616377181879</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3067,30 +3076,30 @@
         <v>7</v>
       </c>
       <c r="E50" s="6">
-        <f>SUM(C50:D50)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F50" s="11">
-        <f>E50/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F50" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G50" s="6">
         <v>7</v>
       </c>
-      <c r="H50" s="11">
-        <f>G50/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H50" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I50" s="6">
         <v>7</v>
       </c>
-      <c r="J50" s="11">
-        <f>I50/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K50" s="12">
-        <f>F50/(H50+J50)</f>
-        <v>0.38663612504408756</v>
+      <c r="J50" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="9"/>
+        <v>0.3915801483871561</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3107,30 +3116,30 @@
         <v>7</v>
       </c>
       <c r="E51" s="6">
-        <f>SUM(C51:D51)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F51" s="11">
-        <f>E51/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F51" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G51" s="6">
         <v>8</v>
       </c>
-      <c r="H51" s="11">
-        <f>G51/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H51" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I51" s="6">
         <v>8</v>
       </c>
-      <c r="J51" s="11">
-        <f>I51/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K51" s="12">
-        <f>F51/(H51+J51)</f>
-        <v>0.36433019475308254</v>
+      <c r="J51" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="9"/>
+        <v>0.36898898598020485</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3147,30 +3156,30 @@
         <v>5</v>
       </c>
       <c r="E52" s="6">
-        <f>SUM(C52:D52)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F52" s="11">
-        <f>E52/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F52" s="10">
+        <f t="shared" si="6"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G52" s="6">
         <v>4</v>
       </c>
-      <c r="H52" s="11">
-        <f>G52/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H52" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I52" s="6">
         <v>3</v>
       </c>
-      <c r="J52" s="11">
-        <f>I52/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K52" s="12">
-        <f>F52/(H52+J52)</f>
-        <v>0.65440456883477083</v>
+      <c r="J52" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="9"/>
+        <v>0.66257858356384514</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3187,30 +3196,30 @@
         <v>8</v>
       </c>
       <c r="E53" s="6">
-        <f>SUM(C53:D53)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F53" s="11">
-        <f>E53/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F53" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G53" s="6">
         <v>3</v>
       </c>
-      <c r="H53" s="11">
-        <f>G53/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H53" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I53" s="6">
         <v>4</v>
       </c>
-      <c r="J53" s="11">
-        <f>I53/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K53" s="12">
-        <f>F53/(H53+J53)</f>
-        <v>0.83263095637981521</v>
+      <c r="J53" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="9"/>
+        <v>0.84352499447839213</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3227,30 +3236,30 @@
         <v>8</v>
       </c>
       <c r="E54" s="6">
-        <f>SUM(C54:D54)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F54" s="11">
-        <f>E54/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F54" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G54" s="6">
         <v>5</v>
       </c>
-      <c r="H54" s="11">
-        <f>G54/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H54" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I54" s="6">
         <v>7</v>
       </c>
-      <c r="J54" s="11">
-        <f>I54/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K54" s="12">
-        <f>F54/(H54+J54)</f>
-        <v>0.55507355391745117</v>
+      <c r="J54" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K54" s="11">
+        <f t="shared" si="9"/>
+        <v>0.56236350947515346</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,30 +3276,30 @@
         <v>7</v>
       </c>
       <c r="E55" s="6">
-        <f>SUM(C55:D55)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F55" s="11">
-        <f>E55/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F55" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G55" s="6">
         <v>6</v>
       </c>
-      <c r="H55" s="11">
-        <f>G55/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H55" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I55" s="6">
         <v>5</v>
       </c>
-      <c r="J55" s="11">
-        <f>I55/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K55" s="12">
-        <f>F55/(H55+J55)</f>
-        <v>0.52998496447714261</v>
+      <c r="J55" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="9"/>
+        <v>0.53666202180353406</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3307,30 +3316,30 @@
         <v>8</v>
       </c>
       <c r="E56" s="6">
-        <f>SUM(C56:D56)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F56" s="11">
-        <f>E56/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F56" s="10">
+        <f t="shared" si="6"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G56" s="6">
         <v>7</v>
       </c>
-      <c r="H56" s="11">
-        <f>G56/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H56" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I56" s="6">
         <v>8</v>
       </c>
-      <c r="J56" s="11">
-        <f>I56/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K56" s="12">
-        <f>F56/(H56+J56)</f>
-        <v>0.41634848242949773</v>
+      <c r="J56" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="9"/>
+        <v>0.42173006893708631</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3347,30 +3356,30 @@
         <v>8</v>
       </c>
       <c r="E57" s="6">
-        <f>SUM(C57:D57)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F57" s="11">
-        <f>E57/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F57" s="10">
+        <f t="shared" si="6"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G57" s="6">
         <v>4</v>
       </c>
-      <c r="H57" s="11">
-        <f>G57/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H57" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I57" s="6">
         <v>3</v>
       </c>
-      <c r="J57" s="11">
-        <f>I57/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K57" s="12">
-        <f>F57/(H57+J57)</f>
-        <v>0.89236986659286932</v>
+      <c r="J57" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" si="9"/>
+        <v>0.90351625031433425</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3387,30 +3396,30 @@
         <v>7</v>
       </c>
       <c r="E58" s="6">
-        <f>SUM(C58:D58)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F58" s="11">
-        <f>E58/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F58" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G58" s="6">
         <v>3</v>
       </c>
-      <c r="H58" s="11">
-        <f>G58/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H58" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I58" s="6">
         <v>3</v>
       </c>
-      <c r="J58" s="11">
-        <f>I58/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K58" s="12">
-        <f>F58/(H58+J58)</f>
-        <v>0.9021509584362043</v>
+      <c r="J58" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="9"/>
+        <v>0.9136870129033644</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3427,30 +3436,30 @@
         <v>7</v>
       </c>
       <c r="E59" s="6">
-        <f>SUM(C59:D59)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F59" s="11">
-        <f>E59/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F59" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G59" s="6">
         <v>2</v>
       </c>
-      <c r="H59" s="11">
-        <f>G59/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+      <c r="H59" s="10">
+        <f t="shared" si="7"/>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="I59" s="6">
         <v>3</v>
       </c>
-      <c r="J59" s="11">
-        <f>I59/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K59" s="12">
-        <f>F59/(H59+J59)</f>
-        <v>1.1656140396428207</v>
+      <c r="J59" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="9"/>
+        <v>1.181003100868415</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3467,30 +3476,30 @@
         <v>6</v>
       </c>
       <c r="E60" s="6">
-        <f>SUM(C60:D60)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F60" s="11">
-        <f>E60/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F60" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G60" s="6">
         <v>3</v>
       </c>
-      <c r="H60" s="11">
-        <f>G60/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H60" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I60" s="6">
         <v>3</v>
       </c>
-      <c r="J60" s="11">
-        <f>I60/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K60" s="12">
-        <f>F60/(H60+J60)</f>
-        <v>0.9021509584362043</v>
+      <c r="J60" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="9"/>
+        <v>0.9136870129033644</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3507,30 +3516,30 @@
         <v>8</v>
       </c>
       <c r="E61" s="6">
-        <f>SUM(C61:D61)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F61" s="11">
-        <f>E61/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F61" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G61" s="6">
         <v>7</v>
       </c>
-      <c r="H61" s="11">
-        <f>G61/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H61" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I61" s="6">
         <v>7</v>
       </c>
-      <c r="J61" s="11">
-        <f>I61/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K61" s="12">
-        <f>F61/(H61+J61)</f>
-        <v>0.47585984620810773</v>
+      <c r="J61" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="9"/>
+        <v>0.48194479801496137</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3547,30 +3556,30 @@
         <v>6</v>
       </c>
       <c r="E62" s="6">
-        <f>SUM(C62:D62)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F62" s="11">
-        <f>E62/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F62" s="10">
+        <f t="shared" si="6"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G62" s="6">
         <v>8</v>
       </c>
-      <c r="H62" s="11">
-        <f>G62/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H62" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I62" s="6">
         <v>6</v>
       </c>
-      <c r="J62" s="11">
-        <f>I62/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K62" s="12">
-        <f>F62/(H62+J62)</f>
-        <v>0.32720228441738541</v>
+      <c r="J62" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K62" s="11">
+        <f t="shared" si="9"/>
+        <v>0.33128929178192257</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3587,30 +3596,30 @@
         <v>5</v>
       </c>
       <c r="E63" s="6">
-        <f>SUM(C63:D63)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F63" s="11">
-        <f>E63/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F63" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G63" s="6">
         <v>4</v>
       </c>
-      <c r="H63" s="11">
-        <f>G63/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H63" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I63" s="6">
         <v>3</v>
       </c>
-      <c r="J63" s="11">
-        <f>I63/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K63" s="12">
-        <f>F63/(H63+J63)</f>
-        <v>0.59491324439524618</v>
+      <c r="J63" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" si="9"/>
+        <v>0.60234416687622283</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3627,30 +3636,30 @@
         <v>4</v>
       </c>
       <c r="E64" s="6">
-        <f>SUM(C64:D64)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F64" s="11">
-        <f>E64/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F64" s="10">
+        <f t="shared" si="6"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G64" s="6">
         <v>7</v>
       </c>
-      <c r="H64" s="11">
-        <f>G64/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H64" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I64" s="6">
         <v>8</v>
       </c>
-      <c r="J64" s="11">
-        <f>I64/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K64" s="12">
-        <f>F64/(H64+J64)</f>
-        <v>0.24980908945769864</v>
+      <c r="J64" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="9"/>
+        <v>0.25303804136225178</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3667,30 +3676,30 @@
         <v>5</v>
       </c>
       <c r="E65" s="6">
-        <f>SUM(C65:D65)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F65" s="11">
-        <f>E65/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F65" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G65" s="6">
         <v>3</v>
       </c>
-      <c r="H65" s="11">
-        <f>G65/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H65" s="10">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I65" s="6">
         <v>4</v>
       </c>
-      <c r="J65" s="11">
-        <f>I65/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K65" s="12">
-        <f>F65/(H65+J65)</f>
-        <v>0.59473639741415374</v>
+      <c r="J65" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K65" s="11">
+        <f t="shared" si="9"/>
+        <v>0.60251785319885154</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3707,30 +3716,30 @@
         <v>6</v>
       </c>
       <c r="E66" s="6">
-        <f>SUM(C66:D66)</f>
+        <f t="shared" ref="E66:E97" si="10">SUM(C66:D66)</f>
         <v>13</v>
       </c>
-      <c r="F66" s="11">
-        <f>E66/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F66" s="10">
+        <f t="shared" ref="F66:F97" si="11">E66/SUM(E:E)</f>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G66" s="6">
         <v>5</v>
       </c>
-      <c r="H66" s="11">
-        <f>G66/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H66" s="10">
+        <f t="shared" ref="H66:H97" si="12">G66/SUM(G:G)</f>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I66" s="6">
         <v>7</v>
       </c>
-      <c r="J66" s="11">
-        <f>I66/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K66" s="12">
-        <f>F66/(H66+J66)</f>
-        <v>0.4509972625579291</v>
+      <c r="J66" s="10">
+        <f t="shared" ref="J66:J97" si="13">I66/SUM(I:I)</f>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K66" s="11">
+        <f t="shared" ref="K66:K97" si="14">F66/(H66+J66)</f>
+        <v>0.45692035144856219</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3747,30 +3756,30 @@
         <v>7</v>
       </c>
       <c r="E67" s="6">
-        <f>SUM(C67:D67)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F67" s="11">
-        <f>E67/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F67" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G67" s="6">
         <v>4</v>
       </c>
-      <c r="H67" s="11">
-        <f>G67/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H67" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I67" s="6">
         <v>3</v>
       </c>
-      <c r="J67" s="11">
-        <f>I67/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K67" s="12">
-        <f>F67/(H67+J67)</f>
-        <v>0.83287854215334467</v>
+      <c r="J67" s="10">
+        <f t="shared" si="13"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K67" s="11">
+        <f t="shared" si="14"/>
+        <v>0.84328183362671205</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3787,30 +3796,30 @@
         <v>8</v>
       </c>
       <c r="E68" s="6">
-        <f>SUM(C68:D68)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F68" s="11">
-        <f>E68/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F68" s="10">
+        <f t="shared" si="11"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G68" s="6">
         <v>4</v>
       </c>
-      <c r="H68" s="11">
-        <f>G68/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H68" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I68" s="6">
         <v>3</v>
       </c>
-      <c r="J68" s="11">
-        <f>I68/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K68" s="12">
-        <f>F68/(H68+J68)</f>
-        <v>0.89236986659286932</v>
+      <c r="J68" s="10">
+        <f t="shared" si="13"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="14"/>
+        <v>0.90351625031433425</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3827,30 +3836,30 @@
         <v>8</v>
       </c>
       <c r="E69" s="6">
-        <f>SUM(C69:D69)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F69" s="11">
-        <f>E69/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F69" s="10">
+        <f t="shared" si="11"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G69" s="6">
         <v>4</v>
       </c>
-      <c r="H69" s="11">
-        <f>G69/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H69" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I69" s="6">
         <v>3</v>
       </c>
-      <c r="J69" s="11">
-        <f>I69/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K69" s="12">
-        <f>F69/(H69+J69)</f>
-        <v>0.89236986659286932</v>
+      <c r="J69" s="10">
+        <f t="shared" si="13"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K69" s="11">
+        <f t="shared" si="14"/>
+        <v>0.90351625031433425</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3867,30 +3876,30 @@
         <v>7</v>
       </c>
       <c r="E70" s="6">
-        <f>SUM(C70:D70)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F70" s="11">
-        <f>E70/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F70" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G70" s="6">
         <v>9</v>
       </c>
-      <c r="H70" s="11">
-        <f>G70/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+      <c r="H70" s="10">
+        <f t="shared" si="12"/>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="I70" s="6">
         <v>9</v>
       </c>
-      <c r="J70" s="11">
-        <f>I70/SUM(I:I)</f>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="K70" s="12">
-        <f>F70/(H70+J70)</f>
-        <v>0.30071698614540143</v>
+      <c r="J70" s="10">
+        <f t="shared" si="13"/>
+        <v>1.8145161290322582E-2</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="14"/>
+        <v>0.30456233763445473</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3907,30 +3916,30 @@
         <v>7</v>
       </c>
       <c r="E71" s="6">
-        <f>SUM(C71:D71)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F71" s="11">
-        <f>E71/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F71" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G71" s="6">
         <v>3</v>
       </c>
-      <c r="H71" s="11">
-        <f>G71/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H71" s="10">
+        <f t="shared" si="12"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I71" s="6">
         <v>4</v>
       </c>
-      <c r="J71" s="11">
-        <f>I71/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K71" s="12">
-        <f>F71/(H71+J71)</f>
-        <v>0.83263095637981521</v>
+      <c r="J71" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K71" s="11">
+        <f t="shared" si="14"/>
+        <v>0.84352499447839213</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3947,30 +3956,30 @@
         <v>6</v>
       </c>
       <c r="E72" s="6">
-        <f>SUM(C72:D72)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F72" s="11">
-        <f>E72/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F72" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G72" s="6">
         <v>5</v>
       </c>
-      <c r="H72" s="11">
-        <f>G72/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H72" s="10">
+        <f t="shared" si="12"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I72" s="6">
         <v>5</v>
       </c>
-      <c r="J72" s="11">
-        <f>I72/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K72" s="12">
-        <f>F72/(H72+J72)</f>
-        <v>0.54129057506172262</v>
+      <c r="J72" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="14"/>
+        <v>0.54821220774201862</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3987,30 +3996,30 @@
         <v>8</v>
       </c>
       <c r="E73" s="6">
-        <f>SUM(C73:D73)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="F73" s="11">
-        <f>E73/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F73" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G73" s="6">
         <v>4</v>
       </c>
-      <c r="H73" s="11">
-        <f>G73/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H73" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I73" s="6">
         <v>6</v>
       </c>
-      <c r="J73" s="11">
-        <f>I73/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K73" s="12">
-        <f>F73/(H73+J73)</f>
-        <v>0.66606516551018324</v>
+      <c r="J73" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K73" s="11">
+        <f t="shared" si="14"/>
+        <v>0.67485891478195137</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4027,30 +4036,30 @@
         <v>6</v>
       </c>
       <c r="E74" s="6">
-        <f>SUM(C74:D74)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="F74" s="11">
-        <f>E74/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F74" s="10">
+        <f t="shared" si="11"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G74" s="6">
         <v>6</v>
       </c>
-      <c r="H74" s="11">
-        <f>G74/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H74" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I74" s="6">
         <v>7</v>
       </c>
-      <c r="J74" s="11">
-        <f>I74/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K74" s="12">
-        <f>F74/(H74+J74)</f>
-        <v>0.35229111013147657</v>
+      <c r="J74" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="14"/>
+        <v>0.35685221338037243</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4067,30 +4076,30 @@
         <v>5</v>
       </c>
       <c r="E75" s="6">
-        <f>SUM(C75:D75)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F75" s="11">
-        <f>E75/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F75" s="10">
+        <f t="shared" si="11"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G75" s="6">
         <v>7</v>
       </c>
-      <c r="H75" s="11">
-        <f>G75/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H75" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I75" s="6">
         <v>7</v>
       </c>
-      <c r="J75" s="11">
-        <f>I75/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K75" s="12">
-        <f>F75/(H75+J75)</f>
-        <v>0.29741240388006734</v>
+      <c r="J75" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="14"/>
+        <v>0.30121549875935083</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4107,30 +4116,30 @@
         <v>4</v>
       </c>
       <c r="E76" s="6">
-        <f>SUM(C76:D76)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="F76" s="11">
-        <f>E76/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F76" s="10">
+        <f t="shared" si="11"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G76" s="6">
         <v>9</v>
       </c>
-      <c r="H76" s="11">
-        <f>G76/SUM(G:G)</f>
-        <v>1.8711018711018712E-2</v>
+      <c r="H76" s="10">
+        <f t="shared" si="12"/>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="I76" s="6">
         <v>8</v>
       </c>
-      <c r="J76" s="11">
-        <f>I76/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K76" s="12">
-        <f>F76/(H76+J76)</f>
-        <v>0.22044856963896817</v>
+      <c r="J76" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" si="14"/>
+        <v>0.22324058919803599</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4147,30 +4156,30 @@
         <v>5</v>
       </c>
       <c r="E77" s="6">
-        <f>SUM(C77:D77)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F77" s="11">
-        <f>E77/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F77" s="10">
+        <f t="shared" si="11"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G77" s="6">
         <v>7</v>
       </c>
-      <c r="H77" s="11">
-        <f>G77/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H77" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I77" s="6">
         <v>8</v>
       </c>
-      <c r="J77" s="11">
-        <f>I77/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K77" s="12">
-        <f>F77/(H77+J77)</f>
-        <v>0.27756565495299851</v>
+      <c r="J77" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" si="14"/>
+        <v>0.28115337929139089</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4187,30 +4196,30 @@
         <v>7</v>
       </c>
       <c r="E78" s="6">
-        <f>SUM(C78:D78)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F78" s="11">
-        <f>E78/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F78" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G78" s="6">
         <v>8</v>
       </c>
-      <c r="H78" s="11">
-        <f>G78/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H78" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I78" s="6">
         <v>7</v>
       </c>
-      <c r="J78" s="11">
-        <f>I78/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K78" s="12">
-        <f>F78/(H78+J78)</f>
-        <v>0.3886458356128345</v>
+      <c r="J78" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="14"/>
+        <v>0.39356177597888659</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4227,30 +4236,30 @@
         <v>8</v>
       </c>
       <c r="E79" s="6">
-        <f>SUM(C79:D79)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F79" s="11">
-        <f>E79/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F79" s="10">
+        <f t="shared" si="11"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G79" s="6">
         <v>7</v>
       </c>
-      <c r="H79" s="11">
-        <f>G79/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H79" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I79" s="6">
         <v>5</v>
       </c>
-      <c r="J79" s="11">
-        <f>I79/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K79" s="12">
-        <f>F79/(H79+J79)</f>
-        <v>0.52056198809224974</v>
+      <c r="J79" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="14"/>
+        <v>0.52703848534394238</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4267,30 +4276,30 @@
         <v>8</v>
       </c>
       <c r="E80" s="6">
-        <f>SUM(C80:D80)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="F80" s="11">
-        <f>E80/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F80" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G80" s="6">
         <v>7</v>
       </c>
-      <c r="H80" s="11">
-        <f>G80/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H80" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I80" s="6">
         <v>5</v>
       </c>
-      <c r="J80" s="11">
-        <f>I80/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K80" s="12">
-        <f>F80/(H80+J80)</f>
-        <v>0.55526612063173308</v>
+      <c r="J80" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K80" s="11">
+        <f t="shared" si="14"/>
+        <v>0.56217438436687195</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4307,30 +4316,30 @@
         <v>8</v>
       </c>
       <c r="E81" s="6">
-        <f>SUM(C81:D81)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F81" s="11">
-        <f>E81/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F81" s="10">
+        <f t="shared" si="11"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G81" s="6">
         <v>4</v>
       </c>
-      <c r="H81" s="11">
-        <f>G81/SUM(G:G)</f>
-        <v>8.3160083160083165E-3</v>
+      <c r="H81" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="I81" s="6">
         <v>4</v>
       </c>
-      <c r="J81" s="11">
-        <f>I81/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K81" s="12">
-        <f>F81/(H81+J81)</f>
-        <v>0.78070756018517684</v>
+      <c r="J81" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K81" s="11">
+        <f t="shared" si="14"/>
+        <v>0.79069068424329603</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4347,30 +4356,30 @@
         <v>7</v>
       </c>
       <c r="E82" s="6">
-        <f>SUM(C82:D82)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F82" s="11">
-        <f>E82/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F82" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G82" s="6">
         <v>2</v>
       </c>
-      <c r="H82" s="11">
-        <f>G82/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+      <c r="H82" s="10">
+        <f t="shared" si="12"/>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="I82" s="6">
         <v>6</v>
       </c>
-      <c r="J82" s="11">
-        <f>I82/SUM(I:I)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K82" s="12">
-        <f>F82/(H82+J82)</f>
-        <v>0.67626136587924524</v>
+      <c r="J82" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2096774193548387E-2</v>
+      </c>
+      <c r="K82" s="11">
+        <f t="shared" si="14"/>
+        <v>0.68561117853652243</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4387,30 +4396,30 @@
         <v>7</v>
       </c>
       <c r="E83" s="6">
-        <f>SUM(C83:D83)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F83" s="11">
-        <f>E83/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F83" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G83" s="6">
         <v>5</v>
       </c>
-      <c r="H83" s="11">
-        <f>G83/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H83" s="10">
+        <f t="shared" si="12"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I83" s="6">
         <v>5</v>
       </c>
-      <c r="J83" s="11">
-        <f>I83/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K83" s="12">
-        <f>F83/(H83+J83)</f>
-        <v>0.58292831160493208</v>
+      <c r="J83" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="14"/>
+        <v>0.59038237756832768</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4427,30 +4436,30 @@
         <v>6</v>
       </c>
       <c r="E84" s="6">
-        <f>SUM(C84:D84)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F84" s="11">
-        <f>E84/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F84" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G84" s="6">
         <v>5</v>
       </c>
-      <c r="H84" s="11">
-        <f>G84/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H84" s="10">
+        <f t="shared" si="12"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I84" s="6">
         <v>5</v>
       </c>
-      <c r="J84" s="11">
-        <f>I84/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K84" s="12">
-        <f>F84/(H84+J84)</f>
-        <v>0.54129057506172262</v>
+      <c r="J84" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K84" s="11">
+        <f t="shared" si="14"/>
+        <v>0.54821220774201862</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4467,30 +4476,30 @@
         <v>8</v>
       </c>
       <c r="E85" s="6">
-        <f>SUM(C85:D85)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="F85" s="11">
-        <f>E85/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F85" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G85" s="6">
         <v>6</v>
       </c>
-      <c r="H85" s="11">
-        <f>G85/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H85" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I85" s="6">
         <v>7</v>
       </c>
-      <c r="J85" s="11">
-        <f>I85/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K85" s="12">
-        <f>F85/(H85+J85)</f>
-        <v>0.51242343291851145</v>
+      <c r="J85" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K85" s="11">
+        <f t="shared" si="14"/>
+        <v>0.51905776491690536</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4507,30 +4516,30 @@
         <v>6</v>
       </c>
       <c r="E86" s="6">
-        <f>SUM(C86:D86)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="F86" s="11">
-        <f>E86/SUM(E:E)</f>
-        <v>9.5320623916811086E-3</v>
+      <c r="F86" s="10">
+        <f t="shared" si="11"/>
+        <v>9.3617021276595751E-3</v>
       </c>
       <c r="G86" s="6">
         <v>3</v>
       </c>
-      <c r="H86" s="11">
-        <f>G86/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H86" s="10">
+        <f t="shared" si="12"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I86" s="6">
         <v>3</v>
       </c>
-      <c r="J86" s="11">
-        <f>I86/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K86" s="12">
-        <f>F86/(H86+J86)</f>
-        <v>0.76335850329217281</v>
+      <c r="J86" s="10">
+        <f t="shared" si="13"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="14"/>
+        <v>0.77311978014900073</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4547,30 +4556,30 @@
         <v>5</v>
       </c>
       <c r="E87" s="6">
-        <f>SUM(C87:D87)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F87" s="11">
-        <f>E87/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F87" s="10">
+        <f t="shared" si="11"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G87" s="6">
         <v>3</v>
       </c>
-      <c r="H87" s="11">
-        <f>G87/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H87" s="10">
+        <f t="shared" si="12"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I87" s="6">
         <v>3</v>
       </c>
-      <c r="J87" s="11">
-        <f>I87/SUM(I:I)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K87" s="12">
-        <f>F87/(H87+J87)</f>
-        <v>0.69396227572015712</v>
+      <c r="J87" s="10">
+        <f t="shared" si="13"/>
+        <v>6.0483870967741934E-3</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" si="14"/>
+        <v>0.70283616377181879</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4587,30 +4596,30 @@
         <v>4</v>
       </c>
       <c r="E88" s="6">
-        <f>SUM(C88:D88)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="F88" s="11">
-        <f>E88/SUM(E:E)</f>
-        <v>7.7989601386481804E-3</v>
+      <c r="F88" s="10">
+        <f t="shared" si="11"/>
+        <v>7.659574468085106E-3</v>
       </c>
       <c r="G88" s="6">
         <v>8</v>
       </c>
-      <c r="H88" s="11">
-        <f>G88/SUM(G:G)</f>
-        <v>1.6632016632016633E-2</v>
+      <c r="H88" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="I88" s="6">
         <v>5</v>
       </c>
-      <c r="J88" s="11">
-        <f>I88/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K88" s="12">
-        <f>F88/(H88+J88)</f>
-        <v>0.28833049108264081</v>
+      <c r="J88" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K88" s="11">
+        <f t="shared" si="14"/>
+        <v>0.29187936107469431</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4627,30 +4636,30 @@
         <v>5</v>
       </c>
       <c r="E89" s="6">
-        <f>SUM(C89:D89)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F89" s="11">
-        <f>E89/SUM(E:E)</f>
-        <v>8.6655112651646445E-3</v>
+      <c r="F89" s="10">
+        <f t="shared" si="11"/>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="G89" s="6">
         <v>7</v>
       </c>
-      <c r="H89" s="11">
-        <f>G89/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H89" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I89" s="6">
         <v>7</v>
       </c>
-      <c r="J89" s="11">
-        <f>I89/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K89" s="12">
-        <f>F89/(H89+J89)</f>
-        <v>0.29741240388006734</v>
+      <c r="J89" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="14"/>
+        <v>0.30121549875935083</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4667,30 +4676,30 @@
         <v>8</v>
       </c>
       <c r="E90" s="6">
-        <f>SUM(C90:D90)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F90" s="11">
-        <f>E90/SUM(E:E)</f>
-        <v>1.2998266897746967E-2</v>
+      <c r="F90" s="10">
+        <f t="shared" si="11"/>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="G90" s="6">
         <v>5</v>
       </c>
-      <c r="H90" s="11">
-        <f>G90/SUM(G:G)</f>
-        <v>1.0395010395010396E-2</v>
+      <c r="H90" s="10">
+        <f t="shared" si="12"/>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I90" s="6">
         <v>4</v>
       </c>
-      <c r="J90" s="11">
-        <f>I90/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K90" s="12">
-        <f>F90/(H90+J90)</f>
-        <v>0.69404252112669285</v>
+      <c r="J90" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K90" s="11">
+        <f t="shared" si="14"/>
+        <v>0.70275737047991593</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4707,30 +4716,30 @@
         <v>7</v>
       </c>
       <c r="E91" s="6">
-        <f>SUM(C91:D91)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F91" s="11">
-        <f>E91/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F91" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G91" s="6">
         <v>6</v>
       </c>
-      <c r="H91" s="11">
-        <f>G91/SUM(G:G)</f>
-        <v>1.2474012474012475E-2</v>
+      <c r="H91" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="I91" s="6">
         <v>5</v>
       </c>
-      <c r="J91" s="11">
-        <f>I91/SUM(I:I)</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="K91" s="12">
-        <f>F91/(H91+J91)</f>
-        <v>0.49212889558591816</v>
+      <c r="J91" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0080645161290322E-2</v>
+      </c>
+      <c r="K91" s="11">
+        <f t="shared" si="14"/>
+        <v>0.49832902024613873</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4747,30 +4756,30 @@
         <v>7</v>
       </c>
       <c r="E92" s="6">
-        <f>SUM(C92:D92)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F92" s="11">
-        <f>E92/SUM(E:E)</f>
-        <v>1.2131715771230503E-2</v>
+      <c r="F92" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1914893617021277E-2</v>
       </c>
       <c r="G92" s="6">
         <v>2</v>
       </c>
-      <c r="H92" s="11">
-        <f>G92/SUM(G:G)</f>
-        <v>4.1580041580041582E-3</v>
+      <c r="H92" s="10">
+        <f t="shared" si="12"/>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="I92" s="6">
         <v>7</v>
       </c>
-      <c r="J92" s="11">
-        <f>I92/SUM(I:I)</f>
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="K92" s="12">
-        <f>F92/(H92+J92)</f>
-        <v>0.6473239050755023</v>
+      <c r="J92" s="10">
+        <f t="shared" si="13"/>
+        <v>1.4112903225806451E-2</v>
+      </c>
+      <c r="K92" s="11">
+        <f t="shared" si="14"/>
+        <v>0.65634836904892624</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4787,30 +4796,30 @@
         <v>6</v>
       </c>
       <c r="E93" s="6">
-        <f>SUM(C93:D93)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F93" s="11">
-        <f>E93/SUM(E:E)</f>
-        <v>1.1265164644714038E-2</v>
+      <c r="F93" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1063829787234043E-2</v>
       </c>
       <c r="G93" s="6">
         <v>3</v>
       </c>
-      <c r="H93" s="11">
-        <f>G93/SUM(G:G)</f>
-        <v>6.2370062370062374E-3</v>
+      <c r="H93" s="10">
+        <f t="shared" si="12"/>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="I93" s="6">
         <v>4</v>
       </c>
-      <c r="J93" s="11">
-        <f>I93/SUM(I:I)</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K93" s="12">
-        <f>F93/(H93+J93)</f>
-        <v>0.77315731663839982</v>
+      <c r="J93" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K93" s="11">
+        <f t="shared" si="14"/>
+        <v>0.78327320915850696</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4827,34 +4836,111 @@
         <v>8</v>
       </c>
       <c r="E94" s="6">
-        <f>SUM(C94:D94)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="F94" s="11">
-        <f>E94/SUM(E:E)</f>
-        <v>1.3864818024263431E-2</v>
+      <c r="F94" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3617021276595745E-2</v>
       </c>
       <c r="G94" s="6">
         <v>7</v>
       </c>
-      <c r="H94" s="11">
-        <f>G94/SUM(G:G)</f>
-        <v>1.4553014553014554E-2</v>
+      <c r="H94" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
       </c>
       <c r="I94" s="6">
         <v>8</v>
       </c>
-      <c r="J94" s="11">
-        <f>I94/SUM(I:I)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="K94" s="12">
-        <f>F94/(H94+J94)</f>
-        <v>0.44410504792479755</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E95" s="10"/>
+      <c r="J94" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K94" s="11">
+        <f t="shared" si="14"/>
+        <v>0.44984540686622537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="7">
+        <v>5</v>
+      </c>
+      <c r="D95" s="7">
+        <v>6</v>
+      </c>
+      <c r="E95" s="6">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="F95" s="10">
+        <f t="shared" si="11"/>
+        <v>9.3617021276595751E-3</v>
+      </c>
+      <c r="G95" s="6">
+        <v>7</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
+      </c>
+      <c r="I95" s="6">
+        <v>8</v>
+      </c>
+      <c r="J95" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K95" s="11">
+        <f t="shared" si="14"/>
+        <v>0.30926871722053001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="7">
+        <v>5</v>
+      </c>
+      <c r="D96" s="7">
+        <v>5</v>
+      </c>
+      <c r="E96" s="13">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="F96" s="14">
+        <f t="shared" si="11"/>
+        <v>8.5106382978723406E-3</v>
+      </c>
+      <c r="G96" s="13">
+        <v>7</v>
+      </c>
+      <c r="H96" s="14">
+        <f t="shared" si="12"/>
+        <v>1.4141414141414142E-2</v>
+      </c>
+      <c r="I96" s="13">
+        <v>8</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="K96" s="15">
+        <f t="shared" si="14"/>
+        <v>0.28115337929139089</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K94">
@@ -4867,10 +4953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4929,30 +5015,30 @@
         <v>7</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(C2:D2)</f>
         <v>13</v>
       </c>
-      <c r="F2" s="11">
-        <f>E2/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F33" si="1">E2/SUM(E:E)</f>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G2" s="6">
         <v>8</v>
       </c>
-      <c r="H2" s="11">
-        <f>G2/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H33" si="2">G2/SUM(G:G)</f>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="J2" s="11">
-        <f>I2/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <f>F2/(H2+J2)</f>
-        <v>0.35513038727293145</v>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J33" si="3">I2/SUM(I:I)</f>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2:K33" si="4">F2/(H2+J2)</f>
+        <v>0.36135274672934453</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4969,30 +5055,30 @@
         <v>7</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F3" s="11">
-        <f>E3/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F3" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
-        <f>G3/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H3" s="10">
+        <f t="shared" si="2"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="11">
-        <f>I3/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K3" s="12">
-        <f>F3/(H3+J3)</f>
-        <v>1.0198616249889312</v>
+      <c r="J3" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0377309649663227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5009,30 +5095,30 @@
         <v>6</v>
       </c>
       <c r="E4" s="6">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4" s="11">
-        <f>E4/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="11">
-        <f>G4/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="11">
-        <f>I4/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <f>F4/(H4+J4)</f>
-        <v>0.47350718303057526</v>
+      <c r="J4" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="4"/>
+        <v>0.48180366230579269</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,30 +5135,30 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F5" s="11">
-        <f>E5/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
-        <f>G5/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I5" s="6">
         <v>8</v>
       </c>
-      <c r="J5" s="11">
-        <f>I5/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <f>F5/(H5+J5)</f>
-        <v>0.43708355356668488</v>
+      <c r="J5" s="10">
+        <f t="shared" si="3"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.44474184212842399</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5089,30 +5175,30 @@
         <v>6</v>
       </c>
       <c r="E6" s="6">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F6" s="11">
-        <f>E6/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="11">
-        <f>G6/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="11">
-        <f>I6/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K6" s="12">
-        <f>F6/(H6+J6)</f>
-        <v>0.60098988615419169</v>
+      <c r="J6" s="10">
+        <f t="shared" si="3"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.61152003292658308</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5129,30 +5215,30 @@
         <v>5</v>
       </c>
       <c r="E7" s="6">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F7" s="11">
-        <f>E7/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="11">
-        <f>G7/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="11">
-        <f>I7/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K7" s="12">
-        <f>F7/(H7+J7)</f>
-        <v>0.62474017763824896</v>
+      <c r="J7" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.63545499332034383</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5169,30 +5255,30 @@
         <v>6</v>
       </c>
       <c r="E8" s="6">
-        <f>SUM(C8:D8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F8" s="11">
-        <f>E8/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="11">
-        <f>G8/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I8" s="6">
         <v>6</v>
       </c>
-      <c r="J8" s="11">
-        <f>I8/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K8" s="12">
-        <f>F8/(H8+J8)</f>
-        <v>0.40065992410279444</v>
+      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4076800219510554</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5209,30 +5295,30 @@
         <v>5</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F9" s="11">
-        <f>E9/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
-        <f>G9/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I9" s="6">
         <v>5</v>
       </c>
-      <c r="J9" s="11">
-        <f>I9/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K9" s="12">
-        <f>F9/(H9+J9)</f>
-        <v>0.33650969290786392</v>
+      <c r="J9" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3422043689664595</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,30 +5335,30 @@
         <v>8</v>
       </c>
       <c r="E10" s="6">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F10" s="11">
-        <f>E10/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G10" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="11">
-        <f>G10/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I10" s="6">
         <v>6</v>
       </c>
-      <c r="J10" s="11">
-        <f>I10/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <f>F10/(H10+J10)</f>
-        <v>0.65513336536977462</v>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.66695185803991219</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5289,30 +5375,30 @@
         <v>8</v>
       </c>
       <c r="E11" s="6">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F11" s="11">
-        <f>E11/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="H11" s="11">
-        <f>G11/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="11">
-        <f>I11/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K11" s="12">
-        <f>F11/(H11+J11)</f>
-        <v>0.65513336536977462</v>
+      <c r="J11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.66695185803991219</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,30 +5415,30 @@
         <v>7</v>
       </c>
       <c r="E12" s="6">
-        <f>SUM(C12:D12)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F12" s="11">
-        <f>E12/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="11">
-        <f>G12/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
-      <c r="J12" s="11">
-        <f>I12/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K12" s="12">
-        <f>F12/(H12+J12)</f>
-        <v>0.567782249987138</v>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.57802494363459067</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5369,30 +5455,30 @@
         <v>7</v>
       </c>
       <c r="E13" s="6">
-        <f>SUM(C13:D13)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F13" s="11">
-        <f>E13/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G13" s="6">
         <v>4</v>
       </c>
-      <c r="H13" s="11">
-        <f>G13/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
-      <c r="J13" s="11">
-        <f>I13/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K13" s="12">
-        <f>F13/(H13+J13)</f>
-        <v>0.61145780767845626</v>
+      <c r="J13" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="4"/>
+        <v>0.62248840083725143</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,30 +5495,30 @@
         <v>6</v>
       </c>
       <c r="E14" s="6">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="11">
-        <f>E14/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="11">
-        <f>G14/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="J14" s="11">
-        <f>I14/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K14" s="12">
-        <f>F14/(H14+J14)</f>
-        <v>0.567782249987138</v>
+      <c r="J14" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="4"/>
+        <v>0.57802494363459067</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5449,30 +5535,30 @@
         <v>8</v>
       </c>
       <c r="E15" s="6">
-        <f>SUM(C15:D15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F15" s="11">
-        <f>E15/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G15" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="11">
-        <f>G15/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I15" s="6">
         <v>9</v>
       </c>
-      <c r="J15" s="11">
-        <f>I15/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
-      </c>
-      <c r="K15" s="12">
-        <f>F15/(H15+J15)</f>
-        <v>0.43687851046102416</v>
+      <c r="J15" s="10">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="4"/>
+        <v>0.44467479225021983</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,30 +5575,30 @@
         <v>6</v>
       </c>
       <c r="E16" s="6">
-        <f>SUM(C16:D16)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F16" s="11">
-        <f>E16/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G16" s="6">
         <v>9</v>
       </c>
-      <c r="H16" s="11">
-        <f>G16/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1686746987951807E-2</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
       </c>
-      <c r="J16" s="11">
-        <f>I16/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K16" s="12">
-        <f>F16/(H16+J16)</f>
-        <v>0.32076881699211701</v>
+      <c r="J16" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3262227202677847</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5529,30 +5615,30 @@
         <v>5</v>
       </c>
       <c r="E17" s="6">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F17" s="11">
-        <f>E17/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G17" s="6">
         <v>4</v>
       </c>
-      <c r="H17" s="11">
-        <f>G17/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I17" s="6">
         <v>5</v>
       </c>
-      <c r="J17" s="11">
-        <f>I17/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K17" s="12">
-        <f>F17/(H17+J17)</f>
-        <v>0.48544587058629574</v>
+      <c r="J17" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49409137915366325</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5569,30 +5655,30 @@
         <v>4</v>
       </c>
       <c r="E18" s="6">
-        <f>SUM(C18:D18)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F18" s="11">
-        <f>E18/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G18" s="6">
         <v>7</v>
       </c>
-      <c r="H18" s="11">
-        <f>G18/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
-      <c r="J18" s="11">
-        <f>I18/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K18" s="12">
-        <f>F18/(H18+J18)</f>
-        <v>0.30268372820666706</v>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="4"/>
+        <v>0.30792677098368337</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5609,30 +5695,30 @@
         <v>6</v>
       </c>
       <c r="E19" s="6">
-        <f>SUM(C19:D19)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F19" s="11">
-        <f>E19/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G19" s="6">
         <v>6</v>
       </c>
-      <c r="H19" s="11">
-        <f>G19/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I19" s="6">
         <v>6</v>
       </c>
-      <c r="J19" s="11">
-        <f>I19/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K19" s="12">
-        <f>F19/(H19+J19)</f>
-        <v>0.40065992410279444</v>
+      <c r="J19" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4076800219510554</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5649,30 +5735,30 @@
         <v>5</v>
       </c>
       <c r="E20" s="6">
-        <f>SUM(C20:D20)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F20" s="11">
-        <f>E20/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G20" s="6">
         <v>5</v>
       </c>
-      <c r="H20" s="11">
-        <f>G20/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="11">
-        <f>I20/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K20" s="12">
-        <f>F20/(H20+J20)</f>
-        <v>0.54686777215750271</v>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.55609500320431904</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5689,30 +5775,30 @@
         <v>4</v>
       </c>
       <c r="E21" s="6">
-        <f>SUM(C21:D21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F21" s="11">
-        <f>E21/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G21" s="6">
         <v>4</v>
       </c>
-      <c r="H21" s="11">
-        <f>G21/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I21" s="6">
         <v>3</v>
       </c>
-      <c r="J21" s="11">
-        <f>I21/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K21" s="12">
-        <f>F21/(H21+J21)</f>
-        <v>0.56226615987442408</v>
+      <c r="J21" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.57190949398830959</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5729,30 +5815,30 @@
         <v>6</v>
       </c>
       <c r="E22" s="6">
-        <f>SUM(C22:D22)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F22" s="11">
-        <f>E22/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G22" s="6">
         <v>8</v>
       </c>
-      <c r="H22" s="11">
-        <f>G22/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H22" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
-      <c r="J22" s="11">
-        <f>I22/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K22" s="12">
-        <f>F22/(H22+J22)</f>
-        <v>0.30049494307709584</v>
+      <c r="J22" s="10">
+        <f t="shared" si="3"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.30576001646329154</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5769,30 +5855,30 @@
         <v>5</v>
       </c>
       <c r="E23" s="6">
-        <f>SUM(C23:D23)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F23" s="11">
-        <f>E23/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G23" s="6">
         <v>6</v>
       </c>
-      <c r="H23" s="11">
-        <f>G23/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H23" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="11">
-        <f>I23/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K23" s="12">
-        <f>F23/(H23+J23)</f>
-        <v>0.48625697479780172</v>
+      <c r="J23" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49435637855251208</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5809,30 +5895,30 @@
         <v>4</v>
       </c>
       <c r="E24" s="6">
-        <f>SUM(C24:D24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F24" s="11">
-        <f>E24/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G24" s="6">
         <v>7</v>
       </c>
-      <c r="H24" s="11">
-        <f>G24/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I24" s="6">
         <v>5</v>
       </c>
-      <c r="J24" s="11">
-        <f>I24/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K24" s="12">
-        <f>F24/(H24+J24)</f>
-        <v>0.32801793296785958</v>
+      <c r="J24" s="10">
+        <f t="shared" si="3"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="4"/>
+        <v>0.33362345506939195</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5849,30 +5935,30 @@
         <v>6</v>
       </c>
       <c r="E25" s="6">
-        <f>SUM(C25:D25)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F25" s="11">
-        <f>E25/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G25" s="6">
         <v>9</v>
       </c>
-      <c r="H25" s="11">
-        <f>G25/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+      <c r="H25" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1686746987951807E-2</v>
       </c>
       <c r="I25" s="6">
         <v>8</v>
       </c>
-      <c r="J25" s="11">
-        <f>I25/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K25" s="12">
-        <f>F25/(H25+J25)</f>
-        <v>0.2828812483282469</v>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.28779455424134964</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5889,30 +5975,30 @@
         <v>5</v>
       </c>
       <c r="E26" s="6">
-        <f>SUM(C26:D26)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F26" s="11">
-        <f>E26/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G26" s="6">
         <v>4</v>
       </c>
-      <c r="H26" s="11">
-        <f>G26/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
       </c>
-      <c r="J26" s="11">
-        <f>I26/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K26" s="12">
-        <f>F26/(H26+J26)</f>
-        <v>0.54635444195835603</v>
+      <c r="J26" s="10">
+        <f t="shared" si="3"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="4"/>
+        <v>0.55592730266053003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5929,30 +6015,30 @@
         <v>4</v>
       </c>
       <c r="E27" s="6">
-        <f>SUM(C27:D27)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F27" s="11">
-        <f>E27/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G27" s="6">
         <v>7</v>
       </c>
-      <c r="H27" s="11">
-        <f>G27/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="11">
-        <f>I27/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K27" s="12">
-        <f>F27/(H27+J27)</f>
-        <v>0.39396688815467923</v>
+      <c r="J27" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="4"/>
+        <v>0.40046088391505813</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -5969,30 +6055,30 @@
         <v>6</v>
       </c>
       <c r="E28" s="6">
-        <f>SUM(C28:D28)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F28" s="11">
-        <f>E28/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G28" s="6">
         <v>5</v>
       </c>
-      <c r="H28" s="11">
-        <f>G28/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H28" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I28" s="6">
         <v>7</v>
       </c>
-      <c r="J28" s="11">
-        <f>I28/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K28" s="12">
-        <f>F28/(H28+J28)</f>
-        <v>0.40040935504456882</v>
+      <c r="J28" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="4"/>
+        <v>0.40759807621799993</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6009,30 +6095,30 @@
         <v>5</v>
       </c>
       <c r="E29" s="6">
-        <f>SUM(C29:D29)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F29" s="11">
-        <f>E29/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G29" s="6">
         <v>8</v>
       </c>
-      <c r="H29" s="11">
-        <f>G29/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H29" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I29" s="6">
         <v>3</v>
       </c>
-      <c r="J29" s="11">
-        <f>I29/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K29" s="12">
-        <f>F29/(H29+J29)</f>
-        <v>0.39802799099587555</v>
+      <c r="J29" s="10">
+        <f t="shared" si="3"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4045325731012327</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6049,30 +6135,30 @@
         <v>4</v>
       </c>
       <c r="E30" s="6">
-        <f>SUM(C30:D30)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F30" s="11">
-        <f>E30/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G30" s="6">
         <v>5</v>
       </c>
-      <c r="H30" s="11">
-        <f>G30/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H30" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
       </c>
-      <c r="J30" s="11">
-        <f>I30/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K30" s="12">
-        <f>F30/(H30+J30)</f>
-        <v>0.43726597575097809</v>
+      <c r="J30" s="10">
+        <f t="shared" si="3"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="4"/>
+        <v>0.44480145899734214</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6089,30 +6175,30 @@
         <v>5</v>
       </c>
       <c r="E31" s="6">
-        <f>SUM(C31:D31)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F31" s="11">
-        <f>E31/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G31" s="6">
         <v>4</v>
       </c>
-      <c r="H31" s="11">
-        <f>G31/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H31" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I31" s="6">
         <v>7</v>
       </c>
-      <c r="J31" s="11">
-        <f>I31/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K31" s="12">
-        <f>F31/(H31+J31)</f>
-        <v>0.39694221334369306</v>
+      <c r="J31" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.40417779776854151</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6129,30 +6215,30 @@
         <v>4</v>
       </c>
       <c r="E32" s="6">
-        <f>SUM(C32:D32)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F32" s="11">
-        <f>E32/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G32" s="6">
         <v>8</v>
       </c>
-      <c r="H32" s="11">
-        <f>G32/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H32" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I32" s="6">
         <v>7</v>
       </c>
-      <c r="J32" s="11">
-        <f>I32/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K32" s="12">
-        <f>F32/(H32+J32)</f>
-        <v>0.26231579316458276</v>
+      <c r="J32" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="4"/>
+        <v>0.26686656619914523</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6169,30 +6255,30 @@
         <v>5</v>
       </c>
       <c r="E33" s="6">
-        <f>SUM(C33:D33)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F33" s="11">
-        <f>E33/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G33" s="6">
         <v>5</v>
       </c>
-      <c r="H33" s="11">
-        <f>G33/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H33" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I33" s="6">
         <v>4</v>
       </c>
-      <c r="J33" s="11">
-        <f>I33/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K33" s="12">
-        <f>F33/(H33+J33)</f>
-        <v>0.48585108416775336</v>
+      <c r="J33" s="10">
+        <f t="shared" si="3"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49422384333038011</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6209,30 +6295,30 @@
         <v>8</v>
       </c>
       <c r="E34" s="6">
-        <f>SUM(C34:D34)</f>
+        <f t="shared" ref="E34:E65" si="5">SUM(C34:D34)</f>
         <v>15</v>
       </c>
-      <c r="F34" s="11">
-        <f>E34/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F65" si="6">E34/SUM(E:E)</f>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G34" s="6">
         <v>6</v>
       </c>
-      <c r="H34" s="11">
-        <f>G34/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H65" si="7">G34/SUM(G:G)</f>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I34" s="6">
         <v>5</v>
       </c>
-      <c r="J34" s="11">
-        <f>I34/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K34" s="12">
-        <f>F34/(H34+J34)</f>
-        <v>0.5962265410308123</v>
+      <c r="J34" s="10">
+        <f t="shared" ref="J34:J65" si="8">I34/SUM(I:I)</f>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" ref="K34:K65" si="9">F34/(H34+J34)</f>
+        <v>0.60653266142432027</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6249,30 +6335,30 @@
         <v>8</v>
       </c>
       <c r="E35" s="6">
-        <f>SUM(C35:D35)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F35" s="11">
-        <f>E35/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F35" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G35" s="6">
         <v>7</v>
       </c>
-      <c r="H35" s="11">
-        <f>G35/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H35" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I35" s="6">
         <v>7</v>
       </c>
-      <c r="J35" s="11">
-        <f>I35/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K35" s="12">
-        <f>F35/(H35+J35)</f>
-        <v>0.46830380739287653</v>
+      <c r="J35" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="9"/>
+        <v>0.47650911656616857</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6289,30 +6375,30 @@
         <v>7</v>
       </c>
       <c r="E36" s="6">
-        <f>SUM(C36:D36)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F36" s="11">
-        <f>E36/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F36" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G36" s="6">
         <v>4</v>
       </c>
-      <c r="H36" s="11">
-        <f>G36/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H36" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I36" s="6">
         <v>4</v>
       </c>
-      <c r="J36" s="11">
-        <f>I36/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K36" s="12">
-        <f>F36/(H36+J36)</f>
-        <v>0.71026077454586289</v>
+      <c r="J36" s="10">
+        <f t="shared" si="8"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.72270549345868906</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6329,30 +6415,30 @@
         <v>7</v>
       </c>
       <c r="E37" s="6">
-        <f>SUM(C37:D37)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F37" s="11">
-        <f>E37/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F37" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G37" s="6">
         <v>3</v>
       </c>
-      <c r="H37" s="11">
-        <f>G37/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H37" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="11">
-        <f>I37/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K37" s="12">
-        <f>F37/(H37+J37)</f>
-        <v>0.76417890437588876</v>
+      <c r="J37" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="9"/>
+        <v>0.77806358452554858</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6369,30 +6455,30 @@
         <v>6</v>
       </c>
       <c r="E38" s="6">
-        <f>SUM(C38:D38)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F38" s="11">
-        <f>E38/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F38" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="11">
-        <f>G38/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+      <c r="H38" s="10">
+        <f t="shared" si="7"/>
+        <v>4.8192771084337354E-3</v>
       </c>
       <c r="I38" s="6">
         <v>3</v>
       </c>
-      <c r="J38" s="11">
-        <f>I38/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K38" s="12">
-        <f>F38/(H38+J38)</f>
-        <v>1.135564499974276</v>
+      <c r="J38" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="9"/>
+        <v>1.1560498872691813</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6409,30 +6495,30 @@
         <v>8</v>
       </c>
       <c r="E39" s="6">
-        <f>SUM(C39:D39)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F39" s="11">
-        <f>E39/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F39" s="10">
+        <f t="shared" si="6"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G39" s="6">
         <v>3</v>
       </c>
-      <c r="H39" s="11">
-        <f>G39/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H39" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I39" s="6">
         <v>3</v>
       </c>
-      <c r="J39" s="11">
-        <f>I39/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K39" s="12">
-        <f>F39/(H39+J39)</f>
-        <v>1.1655561428444927</v>
+      <c r="J39" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="9"/>
+        <v>1.1859782456757975</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6449,30 +6535,30 @@
         <v>6</v>
       </c>
       <c r="E40" s="6">
-        <f>SUM(C40:D40)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F40" s="11">
-        <f>E40/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F40" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G40" s="6">
         <v>7</v>
       </c>
-      <c r="H40" s="11">
-        <f>G40/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H40" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I40" s="6">
         <v>7</v>
       </c>
-      <c r="J40" s="11">
-        <f>I40/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K40" s="12">
-        <f>F40/(H40+J40)</f>
-        <v>0.3434227920881095</v>
+      <c r="J40" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="9"/>
+        <v>0.34944001881519032</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6489,30 +6575,30 @@
         <v>5</v>
       </c>
       <c r="E41" s="6">
-        <f>SUM(C41:D41)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F41" s="11">
-        <f>E41/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F41" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G41" s="6">
         <v>8</v>
       </c>
-      <c r="H41" s="11">
-        <f>G41/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H41" s="10">
+        <f t="shared" si="7"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I41" s="6">
         <v>8</v>
       </c>
-      <c r="J41" s="11">
-        <f>I41/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K41" s="12">
-        <f>F41/(H41+J41)</f>
-        <v>0.27317722097917801</v>
+      <c r="J41" s="10">
+        <f t="shared" si="8"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="9"/>
+        <v>0.27796365133026502</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,30 +6615,30 @@
         <v>4</v>
       </c>
       <c r="E42" s="6">
-        <f>SUM(C42:D42)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F42" s="11">
-        <f>E42/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F42" s="10">
+        <f t="shared" si="6"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G42" s="6">
         <v>4</v>
       </c>
-      <c r="H42" s="11">
-        <f>G42/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H42" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I42" s="6">
         <v>3</v>
       </c>
-      <c r="J42" s="11">
-        <f>I42/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K42" s="12">
-        <f>F42/(H42+J42)</f>
-        <v>0.56226615987442408</v>
+      <c r="J42" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="9"/>
+        <v>0.57190949398830959</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6569,30 +6655,30 @@
         <v>5</v>
       </c>
       <c r="E43" s="6">
-        <f>SUM(C43:D43)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F43" s="11">
-        <f>E43/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F43" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G43" s="6">
         <v>3</v>
       </c>
-      <c r="H43" s="11">
-        <f>G43/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H43" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I43" s="6">
         <v>4</v>
       </c>
-      <c r="J43" s="11">
-        <f>I43/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K43" s="12">
-        <f>F43/(H43+J43)</f>
-        <v>0.62407033470296847</v>
+      <c r="J43" s="10">
+        <f t="shared" si="8"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="9"/>
+        <v>0.63523602192361051</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6609,30 +6695,30 @@
         <v>6</v>
       </c>
       <c r="E44" s="6">
-        <f>SUM(C44:D44)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F44" s="11">
-        <f>E44/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F44" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G44" s="6">
         <v>6</v>
       </c>
-      <c r="H44" s="11">
-        <f>G44/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H44" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I44" s="6">
         <v>5</v>
       </c>
-      <c r="J44" s="11">
-        <f>I44/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K44" s="12">
-        <f>F44/(H44+J44)</f>
-        <v>0.5167296688933708</v>
+      <c r="J44" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="9"/>
+        <v>0.52566163990107762</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6649,30 +6735,30 @@
         <v>8</v>
       </c>
       <c r="E45" s="6">
-        <f>SUM(C45:D45)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F45" s="11">
-        <f>E45/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F45" s="10">
+        <f t="shared" si="6"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G45" s="6">
         <v>7</v>
       </c>
-      <c r="H45" s="11">
-        <f>G45/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H45" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I45" s="6">
         <v>8</v>
       </c>
-      <c r="J45" s="11">
-        <f>I45/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K45" s="12">
-        <f>F45/(H45+J45)</f>
-        <v>0.46610578485122611</v>
+      <c r="J45" s="10">
+        <f t="shared" si="8"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="9"/>
+        <v>0.47435315165579101</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6689,30 +6775,30 @@
         <v>6</v>
       </c>
       <c r="E46" s="6">
-        <f>SUM(C46:D46)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F46" s="11">
-        <f>E46/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F46" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G46" s="6">
         <v>4</v>
       </c>
-      <c r="H46" s="11">
-        <f>G46/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H46" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I46" s="6">
         <v>3</v>
       </c>
-      <c r="J46" s="11">
-        <f>I46/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K46" s="12">
-        <f>F46/(H46+J46)</f>
-        <v>0.68721419540207385</v>
+      <c r="J46" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="9"/>
+        <v>0.69900049265237829</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6729,30 +6815,30 @@
         <v>5</v>
       </c>
       <c r="E47" s="6">
-        <f>SUM(C47:D47)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F47" s="11">
-        <f>E47/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F47" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G47" s="6">
         <v>3</v>
       </c>
-      <c r="H47" s="11">
-        <f>G47/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H47" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I47" s="6">
         <v>3</v>
       </c>
-      <c r="J47" s="11">
-        <f>I47/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K47" s="12">
-        <f>F47/(H47+J47)</f>
-        <v>0.728472589277808</v>
+      <c r="J47" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="9"/>
+        <v>0.74123640354737341</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6769,30 +6855,30 @@
         <v>4</v>
       </c>
       <c r="E48" s="6">
-        <f>SUM(C48:D48)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F48" s="11">
-        <f>E48/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F48" s="10">
+        <f t="shared" si="6"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="H48" s="11">
-        <f>G48/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+      <c r="H48" s="10">
+        <f t="shared" si="7"/>
+        <v>4.8192771084337354E-3</v>
       </c>
       <c r="I48" s="6">
         <v>3</v>
       </c>
-      <c r="J48" s="11">
-        <f>I48/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K48" s="12">
-        <f>F48/(H48+J48)</f>
-        <v>0.78616003844372961</v>
+      <c r="J48" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="9"/>
+        <v>0.80034222964789481</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,30 +6895,30 @@
         <v>5</v>
       </c>
       <c r="E49" s="6">
-        <f>SUM(C49:D49)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F49" s="11">
-        <f>E49/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F49" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G49" s="6">
         <v>3</v>
       </c>
-      <c r="H49" s="11">
-        <f>G49/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H49" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I49" s="6">
         <v>3</v>
       </c>
-      <c r="J49" s="11">
-        <f>I49/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K49" s="12">
-        <f>F49/(H49+J49)</f>
-        <v>0.728472589277808</v>
+      <c r="J49" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="9"/>
+        <v>0.74123640354737341</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6849,30 +6935,30 @@
         <v>7</v>
       </c>
       <c r="E50" s="6">
-        <f>SUM(C50:D50)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F50" s="11">
-        <f>E50/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F50" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G50" s="6">
         <v>7</v>
       </c>
-      <c r="H50" s="11">
-        <f>G50/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H50" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I50" s="6">
         <v>7</v>
       </c>
-      <c r="J50" s="11">
-        <f>I50/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K50" s="12">
-        <f>F50/(H50+J50)</f>
-        <v>0.43708355356668477</v>
+      <c r="J50" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="9"/>
+        <v>0.44474184212842405</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6889,30 +6975,30 @@
         <v>5</v>
       </c>
       <c r="E51" s="6">
-        <f>SUM(C51:D51)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F51" s="11">
-        <f>E51/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F51" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G51" s="6">
         <v>8</v>
       </c>
-      <c r="H51" s="11">
-        <f>G51/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H51" s="10">
+        <f t="shared" si="7"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I51" s="6">
         <v>6</v>
       </c>
-      <c r="J51" s="11">
-        <f>I51/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K51" s="12">
-        <f>F51/(H51+J51)</f>
-        <v>0.31237008881912448</v>
+      <c r="J51" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="9"/>
+        <v>0.31772749666017192</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6929,30 +7015,30 @@
         <v>8</v>
       </c>
       <c r="E52" s="6">
-        <f>SUM(C52:D52)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F52" s="11">
-        <f>E52/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F52" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G52" s="6">
         <v>4</v>
       </c>
-      <c r="H52" s="11">
-        <f>G52/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H52" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I52" s="6">
         <v>3</v>
       </c>
-      <c r="J52" s="11">
-        <f>I52/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K52" s="12">
-        <f>F52/(H52+J52)</f>
-        <v>0.93711026645737328</v>
+      <c r="J52" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="9"/>
+        <v>0.9531824899805158</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -6969,30 +7055,30 @@
         <v>4</v>
       </c>
       <c r="E53" s="6">
-        <f>SUM(C53:D53)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F53" s="11">
-        <f>E53/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F53" s="10">
+        <f t="shared" si="6"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G53" s="6">
         <v>7</v>
       </c>
-      <c r="H53" s="11">
-        <f>G53/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H53" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I53" s="6">
         <v>8</v>
       </c>
-      <c r="J53" s="11">
-        <f>I53/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K53" s="12">
-        <f>F53/(H53+J53)</f>
-        <v>0.26218450397881471</v>
+      <c r="J53" s="10">
+        <f t="shared" si="8"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="9"/>
+        <v>0.26682364780638246</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7009,30 +7095,30 @@
         <v>5</v>
       </c>
       <c r="E54" s="6">
-        <f>SUM(C54:D54)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F54" s="11">
-        <f>E54/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F54" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G54" s="6">
         <v>3</v>
       </c>
-      <c r="H54" s="11">
-        <f>G54/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H54" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I54" s="6">
         <v>4</v>
       </c>
-      <c r="J54" s="11">
-        <f>I54/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K54" s="12">
-        <f>F54/(H54+J54)</f>
-        <v>0.62407033470296847</v>
+      <c r="J54" s="10">
+        <f t="shared" si="8"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K54" s="11">
+        <f t="shared" si="9"/>
+        <v>0.63523602192361051</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7049,30 +7135,30 @@
         <v>7</v>
       </c>
       <c r="E55" s="6">
-        <f>SUM(C55:D55)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F55" s="11">
-        <f>E55/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F55" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G55" s="6">
         <v>4</v>
       </c>
-      <c r="H55" s="11">
-        <f>G55/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H55" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I55" s="6">
         <v>3</v>
       </c>
-      <c r="J55" s="11">
-        <f>I55/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K55" s="12">
-        <f>F55/(H55+J55)</f>
-        <v>0.81216223092972362</v>
+      <c r="J55" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="9"/>
+        <v>0.8260914913164471</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7089,30 +7175,30 @@
         <v>7</v>
       </c>
       <c r="E56" s="6">
-        <f>SUM(C56:D56)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F56" s="11">
-        <f>E56/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F56" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G56" s="6">
         <v>4</v>
       </c>
-      <c r="H56" s="11">
-        <f>G56/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H56" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I56" s="6">
         <v>3</v>
       </c>
-      <c r="J56" s="11">
-        <f>I56/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K56" s="12">
-        <f>F56/(H56+J56)</f>
-        <v>0.8746362486935485</v>
+      <c r="J56" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="9"/>
+        <v>0.88963699064848145</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7129,30 +7215,30 @@
         <v>6</v>
       </c>
       <c r="E57" s="6">
-        <f>SUM(C57:D57)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F57" s="11">
-        <f>E57/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F57" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G57" s="6">
         <v>4</v>
       </c>
-      <c r="H57" s="11">
-        <f>G57/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H57" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I57" s="6">
         <v>3</v>
       </c>
-      <c r="J57" s="11">
-        <f>I57/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K57" s="12">
-        <f>F57/(H57+J57)</f>
-        <v>0.81216223092972362</v>
+      <c r="J57" s="10">
+        <f t="shared" si="8"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" si="9"/>
+        <v>0.8260914913164471</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7169,30 +7255,30 @@
         <v>8</v>
       </c>
       <c r="E58" s="6">
-        <f>SUM(C58:D58)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F58" s="11">
-        <f>E58/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F58" s="10">
+        <f t="shared" si="6"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G58" s="6">
         <v>9</v>
       </c>
-      <c r="H58" s="11">
-        <f>G58/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+      <c r="H58" s="10">
+        <f t="shared" si="7"/>
+        <v>2.1686746987951807E-2</v>
       </c>
       <c r="I58" s="6">
         <v>9</v>
       </c>
-      <c r="J58" s="11">
-        <f>I58/SUM(I:I)</f>
-        <v>2.2613065326633167E-2</v>
-      </c>
-      <c r="K58" s="12">
-        <f>F58/(H58+J58)</f>
-        <v>0.38851871428149759</v>
+      <c r="J58" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39532608189193247</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7209,30 +7295,30 @@
         <v>6</v>
       </c>
       <c r="E59" s="6">
-        <f>SUM(C59:D59)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F59" s="11">
-        <f>E59/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F59" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G59" s="6">
         <v>3</v>
       </c>
-      <c r="H59" s="11">
-        <f>G59/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H59" s="10">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I59" s="6">
         <v>4</v>
       </c>
-      <c r="J59" s="11">
-        <f>I59/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K59" s="12">
-        <f>F59/(H59+J59)</f>
-        <v>0.68647736817326532</v>
+      <c r="J59" s="10">
+        <f t="shared" si="8"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="9"/>
+        <v>0.69875962411597159</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7249,30 +7335,30 @@
         <v>5</v>
       </c>
       <c r="E60" s="6">
-        <f>SUM(C60:D60)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F60" s="11">
-        <f>E60/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F60" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G60" s="6">
         <v>5</v>
       </c>
-      <c r="H60" s="11">
-        <f>G60/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H60" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I60" s="6">
         <v>5</v>
       </c>
-      <c r="J60" s="11">
-        <f>I60/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K60" s="12">
-        <f>F60/(H60+J60)</f>
-        <v>0.43708355356668482</v>
+      <c r="J60" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="9"/>
+        <v>0.44474184212842399</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7289,30 +7375,30 @@
         <v>4</v>
       </c>
       <c r="E61" s="6">
-        <f>SUM(C61:D61)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F61" s="11">
-        <f>E61/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F61" s="10">
+        <f t="shared" si="6"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G61" s="6">
         <v>4</v>
       </c>
-      <c r="H61" s="11">
-        <f>G61/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H61" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I61" s="6">
         <v>6</v>
       </c>
-      <c r="J61" s="11">
-        <f>I61/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K61" s="12">
-        <f>F61/(H61+J61)</f>
-        <v>0.39308001922186481</v>
+      <c r="J61" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="9"/>
+        <v>0.4001711148239474</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7329,30 +7415,30 @@
         <v>7</v>
       </c>
       <c r="E62" s="6">
-        <f>SUM(C62:D62)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F62" s="11">
-        <f>E62/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F62" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G62" s="6">
         <v>9</v>
       </c>
-      <c r="H62" s="11">
-        <f>G62/SUM(G:G)</f>
-        <v>2.2443890274314215E-2</v>
+      <c r="H62" s="10">
+        <f t="shared" si="7"/>
+        <v>2.1686746987951807E-2</v>
       </c>
       <c r="I62" s="6">
         <v>8</v>
       </c>
-      <c r="J62" s="11">
-        <f>I62/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K62" s="12">
-        <f>F62/(H62+J62)</f>
-        <v>0.36003067969049607</v>
+      <c r="J62" s="10">
+        <f t="shared" si="8"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K62" s="11">
+        <f t="shared" si="9"/>
+        <v>0.36628397812535407</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7369,30 +7455,30 @@
         <v>8</v>
       </c>
       <c r="E63" s="6">
-        <f>SUM(C63:D63)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F63" s="11">
-        <f>E63/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F63" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G63" s="6">
         <v>7</v>
       </c>
-      <c r="H63" s="11">
-        <f>G63/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H63" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I63" s="6">
         <v>8</v>
       </c>
-      <c r="J63" s="11">
-        <f>I63/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K63" s="12">
-        <f>F63/(H63+J63)</f>
-        <v>0.43697417329802446</v>
+      <c r="J63" s="10">
+        <f t="shared" si="8"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" si="9"/>
+        <v>0.44470607967730402</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7409,30 +7495,30 @@
         <v>7</v>
       </c>
       <c r="E64" s="6">
-        <f>SUM(C64:D64)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F64" s="11">
-        <f>E64/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F64" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G64" s="6">
         <v>4</v>
       </c>
-      <c r="H64" s="11">
-        <f>G64/SUM(G:G)</f>
-        <v>9.9750623441396506E-3</v>
+      <c r="H64" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6385542168674707E-3</v>
       </c>
       <c r="I64" s="6">
         <v>4</v>
       </c>
-      <c r="J64" s="11">
-        <f>I64/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K64" s="12">
-        <f>F64/(H64+J64)</f>
-        <v>0.76489621874169855</v>
+      <c r="J64" s="10">
+        <f t="shared" si="8"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="9"/>
+        <v>0.778298223724742</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7449,30 +7535,30 @@
         <v>6</v>
       </c>
       <c r="E65" s="6">
-        <f>SUM(C65:D65)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F65" s="11">
-        <f>E65/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F65" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G65" s="6">
         <v>2</v>
       </c>
-      <c r="H65" s="11">
-        <f>G65/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+      <c r="H65" s="10">
+        <f t="shared" si="7"/>
+        <v>4.8192771084337354E-3</v>
       </c>
       <c r="I65" s="6">
         <v>6</v>
       </c>
-      <c r="J65" s="11">
-        <f>I65/SUM(I:I)</f>
-        <v>1.507537688442211E-2</v>
-      </c>
-      <c r="K65" s="12">
-        <f>F65/(H65+J65)</f>
-        <v>0.70892986741054909</v>
+      <c r="J65" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="K65" s="11">
+        <f t="shared" si="9"/>
+        <v>0.72226986627758072</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7489,30 +7575,30 @@
         <v>8</v>
       </c>
       <c r="E66" s="6">
-        <f>SUM(C66:D66)</f>
+        <f t="shared" ref="E66:E97" si="10">SUM(C66:D66)</f>
         <v>16</v>
       </c>
-      <c r="F66" s="11">
-        <f>E66/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F66" s="10">
+        <f t="shared" ref="F66:F97" si="11">E66/SUM(E:E)</f>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G66" s="6">
         <v>5</v>
       </c>
-      <c r="H66" s="11">
-        <f>G66/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H66" s="10">
+        <f t="shared" ref="H66:H97" si="12">G66/SUM(G:G)</f>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I66" s="6">
         <v>5</v>
       </c>
-      <c r="J66" s="11">
-        <f>I66/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K66" s="12">
-        <f>F66/(H66+J66)</f>
-        <v>0.69933368570669574</v>
+      <c r="J66" s="10">
+        <f t="shared" ref="J66:J97" si="13">I66/SUM(I:I)</f>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K66" s="11">
+        <f t="shared" ref="K66:K97" si="14">F66/(H66+J66)</f>
+        <v>0.71158694740547834</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7529,30 +7615,30 @@
         <v>6</v>
       </c>
       <c r="E67" s="6">
-        <f>SUM(C67:D67)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="F67" s="11">
-        <f>E67/SUM(E:E)</f>
-        <v>1.2035010940919038E-2</v>
+      <c r="F67" s="10">
+        <f t="shared" si="11"/>
+        <v>1.1802575107296138E-2</v>
       </c>
       <c r="G67" s="6">
         <v>5</v>
       </c>
-      <c r="H67" s="11">
-        <f>G67/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H67" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I67" s="6">
         <v>5</v>
       </c>
-      <c r="J67" s="11">
-        <f>I67/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K67" s="12">
-        <f>F67/(H67+J67)</f>
-        <v>0.48079190892335333</v>
+      <c r="J67" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K67" s="11">
+        <f t="shared" si="14"/>
+        <v>0.48921602634126643</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7569,30 +7655,30 @@
         <v>5</v>
       </c>
       <c r="E68" s="6">
-        <f>SUM(C68:D68)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F68" s="11">
-        <f>E68/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F68" s="10">
+        <f t="shared" si="11"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G68" s="6">
         <v>6</v>
       </c>
-      <c r="H68" s="11">
-        <f>G68/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H68" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I68" s="6">
         <v>7</v>
       </c>
-      <c r="J68" s="11">
-        <f>I68/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K68" s="12">
-        <f>F68/(H68+J68)</f>
-        <v>0.33612103878708488</v>
+      <c r="J68" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="14"/>
+        <v>0.34207736790171045</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7609,30 +7695,30 @@
         <v>4</v>
       </c>
       <c r="E69" s="6">
-        <f>SUM(C69:D69)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="F69" s="11">
-        <f>E69/SUM(E:E)</f>
-        <v>9.8468271334792128E-3</v>
+      <c r="F69" s="10">
+        <f t="shared" si="11"/>
+        <v>9.6566523605150223E-3</v>
       </c>
       <c r="G69" s="6">
         <v>3</v>
       </c>
-      <c r="H69" s="11">
-        <f>G69/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H69" s="10">
+        <f t="shared" si="12"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I69" s="6">
         <v>3</v>
       </c>
-      <c r="J69" s="11">
-        <f>I69/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K69" s="12">
-        <f>F69/(H69+J69)</f>
-        <v>0.65562533035002724</v>
+      <c r="J69" s="10">
+        <f t="shared" si="13"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K69" s="11">
+        <f t="shared" si="14"/>
+        <v>0.66711276319263613</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7649,30 +7735,30 @@
         <v>5</v>
       </c>
       <c r="E70" s="6">
-        <f>SUM(C70:D70)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F70" s="11">
-        <f>E70/SUM(E:E)</f>
-        <v>1.0940919037199124E-2</v>
+      <c r="F70" s="10">
+        <f t="shared" si="11"/>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G70" s="6">
         <v>3</v>
       </c>
-      <c r="H70" s="11">
-        <f>G70/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H70" s="10">
+        <f t="shared" si="12"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I70" s="6">
         <v>3</v>
       </c>
-      <c r="J70" s="11">
-        <f>I70/SUM(I:I)</f>
-        <v>7.537688442211055E-3</v>
-      </c>
-      <c r="K70" s="12">
-        <f>F70/(H70+J70)</f>
-        <v>0.728472589277808</v>
+      <c r="J70" s="10">
+        <f t="shared" si="13"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="14"/>
+        <v>0.74123640354737341</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7689,30 +7775,30 @@
         <v>7</v>
       </c>
       <c r="E71" s="6">
-        <f>SUM(C71:D71)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F71" s="11">
-        <f>E71/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F71" s="10">
+        <f t="shared" si="11"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G71" s="6">
         <v>8</v>
       </c>
-      <c r="H71" s="11">
-        <f>G71/SUM(G:G)</f>
-        <v>1.9950124688279301E-2</v>
+      <c r="H71" s="10">
+        <f t="shared" si="12"/>
+        <v>1.9277108433734941E-2</v>
       </c>
       <c r="I71" s="6">
         <v>5</v>
       </c>
-      <c r="J71" s="11">
-        <f>I71/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K71" s="12">
-        <f>F71/(H71+J71)</f>
-        <v>0.47111357007100951</v>
+      <c r="J71" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K71" s="11">
+        <f t="shared" si="14"/>
+        <v>0.47908611655304334</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7729,30 +7815,30 @@
         <v>8</v>
       </c>
       <c r="E72" s="6">
-        <f>SUM(C72:D72)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F72" s="11">
-        <f>E72/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F72" s="10">
+        <f t="shared" si="11"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G72" s="6">
         <v>7</v>
       </c>
-      <c r="H72" s="11">
-        <f>G72/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H72" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I72" s="6">
         <v>7</v>
       </c>
-      <c r="J72" s="11">
-        <f>I72/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K72" s="12">
-        <f>F72/(H72+J72)</f>
-        <v>0.46830380739287653</v>
+      <c r="J72" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="14"/>
+        <v>0.47650911656616857</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7769,30 +7855,30 @@
         <v>8</v>
       </c>
       <c r="E73" s="6">
-        <f>SUM(C73:D73)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F73" s="11">
-        <f>E73/SUM(E:E)</f>
-        <v>1.6411378555798686E-2</v>
+      <c r="F73" s="10">
+        <f t="shared" si="11"/>
+        <v>1.6094420600858368E-2</v>
       </c>
       <c r="G73" s="6">
         <v>5</v>
       </c>
-      <c r="H73" s="11">
-        <f>G73/SUM(G:G)</f>
-        <v>1.2468827930174564E-2</v>
+      <c r="H73" s="10">
+        <f t="shared" si="12"/>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="I73" s="6">
         <v>4</v>
       </c>
-      <c r="J73" s="11">
-        <f>I73/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K73" s="12">
-        <f>F73/(H73+J73)</f>
-        <v>0.72877662625163009</v>
+      <c r="J73" s="10">
+        <f t="shared" si="13"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K73" s="11">
+        <f t="shared" si="14"/>
+        <v>0.74133576499557008</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7809,30 +7895,30 @@
         <v>7</v>
       </c>
       <c r="E74" s="6">
-        <f>SUM(C74:D74)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F74" s="11">
-        <f>E74/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F74" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G74" s="6">
         <v>6</v>
       </c>
-      <c r="H74" s="11">
-        <f>G74/SUM(G:G)</f>
-        <v>1.4962593516209476E-2</v>
+      <c r="H74" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4457831325301205E-2</v>
       </c>
       <c r="I74" s="6">
         <v>5</v>
       </c>
-      <c r="J74" s="11">
-        <f>I74/SUM(I:I)</f>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="K74" s="12">
-        <f>F74/(H74+J74)</f>
-        <v>0.5167296688933708</v>
+      <c r="J74" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2077294685990338E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="14"/>
+        <v>0.52566163990107762</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7849,30 +7935,30 @@
         <v>7</v>
       </c>
       <c r="E75" s="6">
-        <f>SUM(C75:D75)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="F75" s="11">
-        <f>E75/SUM(E:E)</f>
-        <v>1.5317286652078774E-2</v>
+      <c r="F75" s="10">
+        <f t="shared" si="11"/>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G75" s="6">
         <v>2</v>
       </c>
-      <c r="H75" s="11">
-        <f>G75/SUM(G:G)</f>
-        <v>4.9875311720698253E-3</v>
+      <c r="H75" s="10">
+        <f t="shared" si="12"/>
+        <v>4.8192771084337354E-3</v>
       </c>
       <c r="I75" s="6">
         <v>7</v>
       </c>
-      <c r="J75" s="11">
-        <f>I75/SUM(I:I)</f>
-        <v>1.7587939698492462E-2</v>
-      </c>
-      <c r="K75" s="12">
-        <f>F75/(H75+J75)</f>
-        <v>0.67849245492602495</v>
+      <c r="J75" s="10">
+        <f t="shared" si="13"/>
+        <v>1.6908212560386472E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="14"/>
+        <v>0.69135732919133264</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7889,30 +7975,30 @@
         <v>6</v>
       </c>
       <c r="E76" s="6">
-        <f>SUM(C76:D76)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="F76" s="11">
-        <f>E76/SUM(E:E)</f>
-        <v>1.4223194748358862E-2</v>
+      <c r="F76" s="10">
+        <f t="shared" si="11"/>
+        <v>1.3948497854077254E-2</v>
       </c>
       <c r="G76" s="6">
         <v>3</v>
       </c>
-      <c r="H76" s="11">
-        <f>G76/SUM(G:G)</f>
-        <v>7.481296758104738E-3</v>
+      <c r="H76" s="10">
+        <f t="shared" si="12"/>
+        <v>7.2289156626506026E-3</v>
       </c>
       <c r="I76" s="6">
         <v>4</v>
       </c>
-      <c r="J76" s="11">
-        <f>I76/SUM(I:I)</f>
-        <v>1.0050251256281407E-2</v>
-      </c>
-      <c r="K76" s="12">
-        <f>F76/(H76+J76)</f>
-        <v>0.81129143511385904</v>
+      <c r="J76" s="10">
+        <f t="shared" si="13"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" si="14"/>
+        <v>0.82580682850069376</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7929,30 +8015,110 @@
         <v>8</v>
       </c>
       <c r="E77" s="6">
-        <f>SUM(C77:D77)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="F77" s="11">
-        <f>E77/SUM(E:E)</f>
-        <v>1.7505470459518599E-2</v>
+      <c r="F77" s="10">
+        <f t="shared" si="11"/>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G77" s="6">
         <v>7</v>
       </c>
-      <c r="H77" s="11">
-        <f>G77/SUM(G:G)</f>
-        <v>1.7456359102244388E-2</v>
+      <c r="H77" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6867469879518072E-2</v>
       </c>
       <c r="I77" s="6">
         <v>8</v>
       </c>
-      <c r="J77" s="11">
-        <f>I77/SUM(I:I)</f>
-        <v>2.0100502512562814E-2</v>
-      </c>
-      <c r="K77" s="12">
-        <f>F77/(H77+J77)</f>
-        <v>0.46610578485122611</v>
+      <c r="J77" s="10">
+        <f t="shared" si="13"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" si="14"/>
+        <v>0.47435315165579101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="7">
+        <v>4</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="11"/>
+        <v>1.0729613733905579E-2</v>
+      </c>
+      <c r="G78" s="6">
+        <v>7</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6867469879518072E-2</v>
+      </c>
+      <c r="I78" s="6">
+        <v>8</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" si="13"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="14"/>
+        <v>0.29647071978486939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="7">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F79" s="10">
+        <f t="shared" si="11"/>
+        <v>8.5836909871244635E-3</v>
+      </c>
+      <c r="G79" s="6">
+        <v>7</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" si="12"/>
+        <v>1.6867469879518072E-2</v>
+      </c>
+      <c r="I79" s="6">
+        <v>8</v>
+      </c>
+      <c r="J79" s="10">
+        <f t="shared" si="13"/>
+        <v>1.932367149758454E-2</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="14"/>
+        <v>0.2371765758278955</v>
       </c>
     </row>
   </sheetData>
